--- a/csdl-shopping-cart.xlsx
+++ b/csdl-shopping-cart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DEVMASTER\DEV2206LM_SpringBoot\shopping-cart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A16CE6-E7D4-4DB2-8FFB-75E3A6DE17C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73743F12-6AE6-4497-A050-7003BBE4743C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{91351D13-8343-4BE5-AE49-126D9A46B319}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="260">
   <si>
     <t>Id</t>
   </si>
@@ -813,6 +813,9 @@
   </si>
   <si>
     <t>Bảng liên kết nhãn với sản phẩm</t>
+  </si>
+  <si>
+    <t>Id duy nhất để xác định loại sản phẩm.</t>
   </si>
 </sst>
 </file>
@@ -1241,7 +1244,7 @@
   <dimension ref="B2:AZ30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="U7" sqref="U7"/>
+      <selection activeCell="X9" sqref="X9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1544,13 +1547,13 @@
         <v>103</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>32</v>
+        <v>163</v>
       </c>
       <c r="W5" s="3" t="s">
         <v>201</v>
       </c>
       <c r="X5" s="4" t="s">
-        <v>108</v>
+        <v>259</v>
       </c>
       <c r="Z5" s="3" t="s">
         <v>0</v>
@@ -1659,13 +1662,13 @@
         <v>104</v>
       </c>
       <c r="V6" s="3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="W6" s="3" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="X6" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Z6" s="3" t="s">
         <v>13</v>
@@ -1772,6 +1775,15 @@
       </c>
       <c r="T7" s="4" t="s">
         <v>105</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="X7" s="4" t="s">
+        <v>109</v>
       </c>
       <c r="Z7" s="3" t="s">
         <v>41</v>

--- a/csdl-shopping-cart.xlsx
+++ b/csdl-shopping-cart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DEVMASTER\DEV2206LM_SpringBoot\shopping-cart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73743F12-6AE6-4497-A050-7003BBE4743C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06BA0F3A-C17D-431D-8DE8-22D2DF2457CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{91351D13-8343-4BE5-AE49-126D9A46B319}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="260">
   <si>
     <t>Id</t>
   </si>
@@ -1243,8 +1243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E867DBF7-62FE-4C81-BE5B-4B051B3412A0}">
   <dimension ref="B2:AZ30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="X9" sqref="X9"/>
+    <sheetView tabSelected="1" topLeftCell="AP1" workbookViewId="0">
+      <selection activeCell="AU9" sqref="AU9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1547,10 +1547,10 @@
         <v>103</v>
       </c>
       <c r="V5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="W5" s="3" t="s">
         <v>163</v>
-      </c>
-      <c r="W5" s="3" t="s">
-        <v>201</v>
       </c>
       <c r="X5" s="4" t="s">
         <v>259</v>
@@ -1601,10 +1601,10 @@
         <v>152</v>
       </c>
       <c r="AT5" s="3" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AU5" s="3" t="s">
-        <v>201</v>
+        <v>163</v>
       </c>
       <c r="AV5" s="3"/>
       <c r="AX5" s="3" t="s">
@@ -1716,10 +1716,10 @@
         <v>153</v>
       </c>
       <c r="AT6" s="3" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="AU6" s="3" t="s">
-        <v>236</v>
+        <v>201</v>
       </c>
       <c r="AV6" s="3"/>
       <c r="AX6" s="3" t="s">
@@ -1830,6 +1830,13 @@
       <c r="AR7" s="4" t="s">
         <v>154</v>
       </c>
+      <c r="AT7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU7" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="AV7" s="3"/>
       <c r="AX7" s="3" t="s">
         <v>15</v>
       </c>

--- a/csdl-shopping-cart.xlsx
+++ b/csdl-shopping-cart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DEVMASTER\DEV2206LM_SpringBoot\shopping-cart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06BA0F3A-C17D-431D-8DE8-22D2DF2457CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32243FB6-B0E7-49E2-9BFE-F66A01020EFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{91351D13-8343-4BE5-AE49-126D9A46B319}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="264">
   <si>
     <t>Id</t>
   </si>
@@ -542,18 +542,6 @@
     <t>vendor</t>
   </si>
   <si>
-    <t>firstName</t>
-  </si>
-  <si>
-    <t>lastName</t>
-  </si>
-  <si>
-    <t>registeredAt</t>
-  </si>
-  <si>
-    <t>lastLogin</t>
-  </si>
-  <si>
     <t>intro</t>
   </si>
   <si>
@@ -596,12 +584,6 @@
     <t>sku</t>
   </si>
   <si>
-    <t>userId</t>
-  </si>
-  <si>
-    <t>metaTitle</t>
-  </si>
-  <si>
     <t>price</t>
   </si>
   <si>
@@ -620,18 +602,9 @@
     <t>updatedAt</t>
   </si>
   <si>
-    <t>publishedAt</t>
-  </si>
-  <si>
-    <t>startsAt</t>
-  </si>
-  <si>
     <t>Nó lưu trữ ngày và giờ mà sản phẩm được tạo trên Cửa hàng.</t>
   </si>
   <si>
-    <t>endsAt</t>
-  </si>
-  <si>
     <t>content</t>
   </si>
   <si>
@@ -653,9 +626,6 @@
     <t>published</t>
   </si>
   <si>
-    <t>parentId</t>
-  </si>
-  <si>
     <t>category</t>
   </si>
   <si>
@@ -665,9 +635,6 @@
     <t>product_category</t>
   </si>
   <si>
-    <t>categoryId</t>
-  </si>
-  <si>
     <t>cart</t>
   </si>
   <si>
@@ -677,9 +644,6 @@
     <t>status</t>
   </si>
   <si>
-    <t>sessionId</t>
-  </si>
-  <si>
     <t>Trạng thái của giỏ hàng có thể là Mới, Giỏ hàng, Thanh toán, Đã thanh toán, Hoàn thành và Bị bỏ rơi(New, Cart, Checkout, Paid, Complete, and Abandoned.).</t>
   </si>
   <si>
@@ -701,9 +665,6 @@
     <t>active</t>
   </si>
   <si>
-    <t>cartId</t>
-  </si>
-  <si>
     <t>Thuộc tính để xác định xem sản phẩm có hoạt động trên giỏ hàng hay không. Nó có thể được sử dụng để tránh cùng một sản phẩm được thêm vào cùng một giỏ hàng nhiều lần.</t>
   </si>
   <si>
@@ -713,12 +674,6 @@
     <t>tax</t>
   </si>
   <si>
-    <t>subTotal</t>
-  </si>
-  <si>
-    <t>itemDiscount</t>
-  </si>
-  <si>
     <t>shipping</t>
   </si>
   <si>
@@ -728,9 +683,6 @@
     <t>promo</t>
   </si>
   <si>
-    <t>grandTotal</t>
-  </si>
-  <si>
     <t>order_item</t>
   </si>
   <si>
@@ -746,9 +698,6 @@
     <t>mode</t>
   </si>
   <si>
-    <t>tagId</t>
-  </si>
-  <si>
     <t>Phường/Xã</t>
   </si>
   <si>
@@ -816,6 +765,69 @@
   </si>
   <si>
     <t>Id duy nhất để xác định loại sản phẩm.</t>
+  </si>
+  <si>
+    <t>first_name</t>
+  </si>
+  <si>
+    <t>last_name</t>
+  </si>
+  <si>
+    <t>registered_at</t>
+  </si>
+  <si>
+    <t>last_login</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>meta_title</t>
+  </si>
+  <si>
+    <t>created_at</t>
+  </si>
+  <si>
+    <t>updated_at</t>
+  </si>
+  <si>
+    <t>published_at</t>
+  </si>
+  <si>
+    <t>starts_at</t>
+  </si>
+  <si>
+    <t>ends_at</t>
+  </si>
+  <si>
+    <t>product_id</t>
+  </si>
+  <si>
+    <t>parent_id</t>
+  </si>
+  <si>
+    <t>category_id</t>
+  </si>
+  <si>
+    <t>session_id</t>
+  </si>
+  <si>
+    <t>cart_id</t>
+  </si>
+  <si>
+    <t>sub_total</t>
+  </si>
+  <si>
+    <t>item_discount</t>
+  </si>
+  <si>
+    <t>grand_total</t>
+  </si>
+  <si>
+    <t>order_id</t>
+  </si>
+  <si>
+    <t>tag_id</t>
   </si>
 </sst>
 </file>
@@ -1243,27 +1255,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E867DBF7-62FE-4C81-BE5B-4B051B3412A0}">
   <dimension ref="B2:AZ30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AP1" workbookViewId="0">
-      <selection activeCell="AU9" sqref="AU9"/>
+    <sheetView tabSelected="1" topLeftCell="AC13" workbookViewId="0">
+      <selection activeCell="AI16" sqref="AI16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="1"/>
     <col min="2" max="2" width="17.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="6" customWidth="1"/>
     <col min="4" max="4" width="36.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.88671875" style="1"/>
     <col min="6" max="6" width="15.21875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15" style="1" customWidth="1"/>
     <col min="8" max="8" width="35" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.88671875" style="1"/>
     <col min="10" max="10" width="13.109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" style="1" customWidth="1"/>
     <col min="12" max="12" width="31.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.88671875" style="1"/>
     <col min="14" max="14" width="14.5546875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12" style="1" customWidth="1"/>
+    <col min="15" max="15" width="16.44140625" style="1" customWidth="1"/>
     <col min="16" max="16" width="40.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="8.88671875" style="1"/>
     <col min="18" max="18" width="11.5546875" style="1" customWidth="1"/>
@@ -1279,11 +1291,11 @@
     <col min="28" max="28" width="51.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="8.88671875" style="1"/>
     <col min="30" max="30" width="13.6640625" style="1" customWidth="1"/>
-    <col min="31" max="31" width="10.77734375" style="1" customWidth="1"/>
+    <col min="31" max="31" width="16.33203125" style="1" customWidth="1"/>
     <col min="32" max="32" width="45.21875" style="1" customWidth="1"/>
     <col min="33" max="33" width="8.88671875" style="1"/>
     <col min="34" max="34" width="16.21875" style="1" customWidth="1"/>
-    <col min="35" max="35" width="13.33203125" style="1" customWidth="1"/>
+    <col min="35" max="35" width="15.6640625" style="1" customWidth="1"/>
     <col min="36" max="36" width="44.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="8.88671875" style="1"/>
     <col min="38" max="38" width="15.33203125" style="1" customWidth="1"/>
@@ -1295,7 +1307,7 @@
     <col min="44" max="44" width="39.33203125" style="1" customWidth="1"/>
     <col min="45" max="45" width="8.88671875" style="1"/>
     <col min="46" max="46" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="10.109375" style="1" customWidth="1"/>
+    <col min="47" max="47" width="11.77734375" style="1" customWidth="1"/>
     <col min="48" max="48" width="11.6640625" style="1" customWidth="1"/>
     <col min="49" max="49" width="8.88671875" style="1"/>
     <col min="50" max="50" width="11.88671875" style="1" customWidth="1"/>
@@ -1305,67 +1317,67 @@
   <sheetData>
     <row r="2" spans="2:52" x14ac:dyDescent="0.3">
       <c r="B2" s="11" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="F2" s="11" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
       <c r="J2" s="11" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="K2" s="11"/>
       <c r="L2" s="11"/>
       <c r="N2" s="11" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="O2" s="11"/>
       <c r="P2" s="11"/>
       <c r="R2" s="11" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="S2" s="11"/>
       <c r="T2" s="11"/>
       <c r="V2" s="11" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="W2" s="11"/>
       <c r="X2" s="11"/>
       <c r="Z2" s="11" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="AA2" s="11"/>
       <c r="AB2" s="11"/>
       <c r="AD2" s="11" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="AE2" s="11"/>
       <c r="AF2" s="11"/>
       <c r="AH2" s="11" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="AI2" s="11"/>
       <c r="AJ2" s="11"/>
       <c r="AL2" s="11" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="AM2" s="11"/>
       <c r="AN2" s="11"/>
       <c r="AP2" s="11" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="AQ2" s="11"/>
       <c r="AR2" s="11"/>
       <c r="AT2" s="11" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="AU2" s="11"/>
       <c r="AV2" s="11"/>
       <c r="AX2" s="11" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="AY2" s="11"/>
       <c r="AZ2" s="11"/>
@@ -1376,77 +1388,77 @@
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="J3" s="8" t="s">
         <v>31</v>
       </c>
       <c r="K3" s="8"/>
       <c r="L3" s="8" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="N3" s="8" t="s">
         <v>34</v>
       </c>
       <c r="O3" s="8"/>
       <c r="P3" s="8" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="R3" s="8" t="s">
         <v>38</v>
       </c>
       <c r="S3" s="8"/>
       <c r="T3" s="8" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="V3" s="8" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="W3" s="8"/>
       <c r="X3" s="8" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="Z3" s="8" t="s">
         <v>40</v>
       </c>
       <c r="AA3" s="8"/>
       <c r="AB3" s="8" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="AD3" s="8" t="s">
         <v>48</v>
       </c>
       <c r="AE3" s="8"/>
       <c r="AF3" s="8" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="AH3" s="9" t="s">
         <v>51</v>
       </c>
       <c r="AI3" s="9"/>
       <c r="AJ3" s="9" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="AL3" s="8" t="s">
         <v>60</v>
       </c>
       <c r="AM3" s="8"/>
       <c r="AN3" s="8" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="AP3" s="8" t="s">
         <v>61</v>
       </c>
       <c r="AQ3" s="8"/>
       <c r="AR3" s="8" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="AT3" s="10" t="s">
         <v>64</v>
@@ -1553,7 +1565,7 @@
         <v>163</v>
       </c>
       <c r="X5" s="4" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="Z5" s="3" t="s">
         <v>0</v>
@@ -1620,7 +1632,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>168</v>
+        <v>243</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>68</v>
@@ -1629,7 +1641,7 @@
         <v>13</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>186</v>
+        <v>247</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>76</v>
@@ -1638,7 +1650,7 @@
         <v>32</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>201</v>
+        <v>254</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>92</v>
@@ -1647,7 +1659,7 @@
         <v>32</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>201</v>
+        <v>254</v>
       </c>
       <c r="P6" s="4" t="s">
         <v>92</v>
@@ -1656,7 +1668,7 @@
         <v>35</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>205</v>
+        <v>255</v>
       </c>
       <c r="T6" s="4" t="s">
         <v>104</v>
@@ -1665,7 +1677,7 @@
         <v>32</v>
       </c>
       <c r="W6" s="3" t="s">
-        <v>201</v>
+        <v>254</v>
       </c>
       <c r="X6" s="4" t="s">
         <v>108</v>
@@ -1674,7 +1686,7 @@
         <v>13</v>
       </c>
       <c r="AA6" s="3" t="s">
-        <v>186</v>
+        <v>247</v>
       </c>
       <c r="AB6" s="4" t="s">
         <v>111</v>
@@ -1683,7 +1695,7 @@
         <v>32</v>
       </c>
       <c r="AE6" s="3" t="s">
-        <v>201</v>
+        <v>254</v>
       </c>
       <c r="AF6" s="4" t="s">
         <v>121</v>
@@ -1692,7 +1704,7 @@
         <v>13</v>
       </c>
       <c r="AI6" s="3" t="s">
-        <v>186</v>
+        <v>247</v>
       </c>
       <c r="AJ6" s="4" t="s">
         <v>131</v>
@@ -1701,7 +1713,7 @@
         <v>32</v>
       </c>
       <c r="AM6" s="3" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="AN6" s="4" t="s">
         <v>147</v>
@@ -1710,7 +1722,7 @@
         <v>13</v>
       </c>
       <c r="AQ6" s="3" t="s">
-        <v>186</v>
+        <v>247</v>
       </c>
       <c r="AR6" s="4" t="s">
         <v>153</v>
@@ -1719,14 +1731,14 @@
         <v>32</v>
       </c>
       <c r="AU6" s="3" t="s">
-        <v>201</v>
+        <v>254</v>
       </c>
       <c r="AV6" s="3"/>
       <c r="AX6" s="3" t="s">
         <v>14</v>
       </c>
       <c r="AY6" s="3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="AZ6" s="3"/>
     </row>
@@ -1735,7 +1747,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>169</v>
+        <v>244</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>162</v>
@@ -1744,7 +1756,7 @@
         <v>14</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>77</v>
@@ -1753,7 +1765,7 @@
         <v>33</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="L7" s="4" t="s">
         <v>93</v>
@@ -1762,7 +1774,7 @@
         <v>35</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>205</v>
+        <v>255</v>
       </c>
       <c r="P7" s="4" t="s">
         <v>96</v>
@@ -1771,7 +1783,7 @@
         <v>14</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="T7" s="4" t="s">
         <v>105</v>
@@ -1780,7 +1792,7 @@
         <v>39</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>209</v>
+        <v>256</v>
       </c>
       <c r="X7" s="4" t="s">
         <v>109</v>
@@ -1789,7 +1801,7 @@
         <v>41</v>
       </c>
       <c r="AA7" s="3" t="s">
-        <v>213</v>
+        <v>257</v>
       </c>
       <c r="AB7" s="4" t="s">
         <v>112</v>
@@ -1798,7 +1810,7 @@
         <v>49</v>
       </c>
       <c r="AE7" s="3" t="s">
-        <v>221</v>
+        <v>258</v>
       </c>
       <c r="AF7" s="4" t="s">
         <v>122</v>
@@ -1807,7 +1819,7 @@
         <v>41</v>
       </c>
       <c r="AI7" s="3" t="s">
-        <v>213</v>
+        <v>257</v>
       </c>
       <c r="AJ7" s="4" t="s">
         <v>132</v>
@@ -1816,7 +1828,7 @@
         <v>59</v>
       </c>
       <c r="AM7" s="3" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="AN7" s="4" t="s">
         <v>148</v>
@@ -1825,7 +1837,7 @@
         <v>59</v>
       </c>
       <c r="AQ7" s="3" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="AR7" s="4" t="s">
         <v>154</v>
@@ -1834,14 +1846,14 @@
         <v>65</v>
       </c>
       <c r="AU7" s="3" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="AV7" s="3"/>
       <c r="AX7" s="3" t="s">
         <v>15</v>
       </c>
       <c r="AY7" s="3" t="s">
-        <v>187</v>
+        <v>248</v>
       </c>
       <c r="AZ7" s="3"/>
     </row>
@@ -1859,7 +1871,7 @@
         <v>15</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>187</v>
+        <v>248</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>78</v>
@@ -1868,7 +1880,7 @@
         <v>30</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="L8" s="4" t="s">
         <v>94</v>
@@ -1877,7 +1889,7 @@
         <v>14</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="P8" s="4" t="s">
         <v>97</v>
@@ -1886,7 +1898,7 @@
         <v>15</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>187</v>
+        <v>248</v>
       </c>
       <c r="T8" s="4" t="s">
         <v>78</v>
@@ -1895,7 +1907,7 @@
         <v>42</v>
       </c>
       <c r="AA8" s="3" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="AB8" s="4" t="s">
         <v>113</v>
@@ -1904,7 +1916,7 @@
         <v>20</v>
       </c>
       <c r="AE8" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="AF8" s="4" t="s">
         <v>123</v>
@@ -1913,7 +1925,7 @@
         <v>42</v>
       </c>
       <c r="AI8" s="3" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="AJ8" s="4" t="s">
         <v>133</v>
@@ -1922,7 +1934,7 @@
         <v>20</v>
       </c>
       <c r="AM8" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="AN8" s="4" t="s">
         <v>123</v>
@@ -1931,7 +1943,7 @@
         <v>62</v>
       </c>
       <c r="AQ8" s="3" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="AR8" s="4" t="s">
         <v>155</v>
@@ -1940,7 +1952,7 @@
         <v>16</v>
       </c>
       <c r="AY8" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="AZ8" s="3"/>
     </row>
@@ -1958,7 +1970,7 @@
         <v>16</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>17</v>
@@ -1967,7 +1979,7 @@
         <v>36</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="P9" s="4" t="s">
         <v>98</v>
@@ -1976,7 +1988,7 @@
         <v>16</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="T9" s="4" t="s">
         <v>106</v>
@@ -1985,16 +1997,16 @@
         <v>43</v>
       </c>
       <c r="AA9" s="3" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="AB9" s="4" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="AD9" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AE9" s="3" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="AF9" s="4" t="s">
         <v>124</v>
@@ -2003,7 +2015,7 @@
         <v>43</v>
       </c>
       <c r="AI9" s="3" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="AJ9" s="4" t="s">
         <v>134</v>
@@ -2012,7 +2024,7 @@
         <v>21</v>
       </c>
       <c r="AM9" s="3" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="AN9" s="4" t="s">
         <v>124</v>
@@ -2021,7 +2033,7 @@
         <v>19</v>
       </c>
       <c r="AQ9" s="3" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="AR9" s="4" t="s">
         <v>156</v>
@@ -2030,25 +2042,25 @@
         <v>30</v>
       </c>
       <c r="AY9" s="3" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="AZ9" s="3"/>
     </row>
     <row r="10" spans="2:52" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>79</v>
@@ -2057,7 +2069,7 @@
         <v>37</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="P10" s="4" t="s">
         <v>99</v>
@@ -2066,7 +2078,7 @@
         <v>30</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="T10" s="4" t="s">
         <v>107</v>
@@ -2075,7 +2087,7 @@
         <v>1</v>
       </c>
       <c r="AA10" s="3" t="s">
-        <v>168</v>
+        <v>243</v>
       </c>
       <c r="AB10" s="4" t="s">
         <v>68</v>
@@ -2084,7 +2096,7 @@
         <v>22</v>
       </c>
       <c r="AE10" s="3" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="AF10" s="4" t="s">
         <v>125</v>
@@ -2093,7 +2105,7 @@
         <v>52</v>
       </c>
       <c r="AI10" s="3" t="s">
-        <v>225</v>
+        <v>259</v>
       </c>
       <c r="AJ10" s="4" t="s">
         <v>135</v>
@@ -2102,7 +2114,7 @@
         <v>22</v>
       </c>
       <c r="AM10" s="3" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="AN10" s="4" t="s">
         <v>125</v>
@@ -2111,7 +2123,7 @@
         <v>63</v>
       </c>
       <c r="AQ10" s="3" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="AR10" s="4" t="s">
         <v>157</v>
@@ -2125,13 +2137,13 @@
         <v>166</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>19</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>80</v>
@@ -2140,7 +2152,7 @@
         <v>25</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>192</v>
+        <v>249</v>
       </c>
       <c r="P11" s="4" t="s">
         <v>100</v>
@@ -2149,7 +2161,7 @@
         <v>2</v>
       </c>
       <c r="AA11" s="3" t="s">
-        <v>169</v>
+        <v>244</v>
       </c>
       <c r="AB11" s="4" t="s">
         <v>162</v>
@@ -2158,7 +2170,7 @@
         <v>23</v>
       </c>
       <c r="AE11" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="AF11" s="4" t="s">
         <v>126</v>
@@ -2167,7 +2179,7 @@
         <v>53</v>
       </c>
       <c r="AI11" s="3" t="s">
-        <v>226</v>
+        <v>260</v>
       </c>
       <c r="AJ11" s="4" t="s">
         <v>136</v>
@@ -2176,7 +2188,7 @@
         <v>23</v>
       </c>
       <c r="AM11" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="AN11" s="4" t="s">
         <v>126</v>
@@ -2185,7 +2197,7 @@
         <v>43</v>
       </c>
       <c r="AQ11" s="3" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="AR11" s="4" t="s">
         <v>158</v>
@@ -2205,7 +2217,7 @@
         <v>20</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>81</v>
@@ -2214,7 +2226,7 @@
         <v>27</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>194</v>
+        <v>251</v>
       </c>
       <c r="P12" s="4" t="s">
         <v>101</v>
@@ -2232,16 +2244,16 @@
         <v>50</v>
       </c>
       <c r="AE12" s="3" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="AF12" s="4" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="AH12" s="3" t="s">
         <v>54</v>
       </c>
       <c r="AI12" s="3" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="AJ12" s="4" t="s">
         <v>137</v>
@@ -2250,7 +2262,7 @@
         <v>25</v>
       </c>
       <c r="AM12" s="3" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="AN12" s="4" t="s">
         <v>149</v>
@@ -2259,7 +2271,7 @@
         <v>25</v>
       </c>
       <c r="AQ12" s="3" t="s">
-        <v>192</v>
+        <v>249</v>
       </c>
       <c r="AR12" s="4" t="s">
         <v>159</v>
@@ -2270,16 +2282,16 @@
         <v>7</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>170</v>
+        <v>245</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>21</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>82</v>
@@ -2288,7 +2300,7 @@
         <v>30</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="P13" s="4" t="s">
         <v>102</v>
@@ -2306,7 +2318,7 @@
         <v>25</v>
       </c>
       <c r="AE13" s="3" t="s">
-        <v>192</v>
+        <v>249</v>
       </c>
       <c r="AF13" s="4" t="s">
         <v>127</v>
@@ -2315,7 +2327,7 @@
         <v>55</v>
       </c>
       <c r="AI13" s="3" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="AJ13" s="4" t="s">
         <v>138</v>
@@ -2324,7 +2336,7 @@
         <v>26</v>
       </c>
       <c r="AM13" s="3" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="AN13" s="4" t="s">
         <v>150</v>
@@ -2333,7 +2345,7 @@
         <v>26</v>
       </c>
       <c r="AQ13" s="3" t="s">
-        <v>193</v>
+        <v>250</v>
       </c>
       <c r="AR13" s="4" t="s">
         <v>160</v>
@@ -2344,7 +2356,7 @@
         <v>8</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>171</v>
+        <v>246</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>72</v>
@@ -2353,7 +2365,7 @@
         <v>22</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>83</v>
@@ -2362,16 +2374,16 @@
         <v>44</v>
       </c>
       <c r="AA14" s="3" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="AB14" s="4" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="AD14" s="3" t="s">
         <v>26</v>
       </c>
       <c r="AE14" s="3" t="s">
-        <v>193</v>
+        <v>250</v>
       </c>
       <c r="AF14" s="4" t="s">
         <v>128</v>
@@ -2380,7 +2392,7 @@
         <v>56</v>
       </c>
       <c r="AI14" s="3" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="AJ14" s="4" t="s">
         <v>139</v>
@@ -2389,7 +2401,7 @@
         <v>30</v>
       </c>
       <c r="AM14" s="3" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="AN14" s="4" t="s">
         <v>151</v>
@@ -2398,7 +2410,7 @@
         <v>30</v>
       </c>
       <c r="AQ14" s="3" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="AR14" s="4" t="s">
         <v>161</v>
@@ -2409,7 +2421,7 @@
         <v>9</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>73</v>
@@ -2418,7 +2430,7 @@
         <v>23</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>84</v>
@@ -2427,7 +2439,7 @@
         <v>45</v>
       </c>
       <c r="AA15" s="3" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="AB15" s="4" t="s">
         <v>116</v>
@@ -2436,7 +2448,7 @@
         <v>30</v>
       </c>
       <c r="AE15" s="3" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="AF15" s="4" t="s">
         <v>129</v>
@@ -2445,7 +2457,7 @@
         <v>57</v>
       </c>
       <c r="AI15" s="3" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="AJ15" s="4" t="s">
         <v>140</v>
@@ -2456,7 +2468,7 @@
         <v>10</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>74</v>
@@ -2465,25 +2477,25 @@
         <v>24</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>85</v>
       </c>
       <c r="Z16" s="3" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="AA16" s="3" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="AB16" s="4" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="AH16" s="3" t="s">
         <v>22</v>
       </c>
       <c r="AI16" s="3" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="AJ16" s="4" t="s">
         <v>141</v>
@@ -2494,25 +2506,25 @@
         <v>25</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>192</v>
+        <v>249</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>86</v>
       </c>
       <c r="Z17" s="3" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="AA17" s="3" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="AB17" s="4" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="AH17" s="3" t="s">
         <v>58</v>
       </c>
       <c r="AI17" s="3" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="AJ17" s="4" t="s">
         <v>142</v>
@@ -2523,7 +2535,7 @@
         <v>26</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>193</v>
+        <v>250</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>87</v>
@@ -2532,16 +2544,16 @@
         <v>46</v>
       </c>
       <c r="AA18" s="3" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="AB18" s="4" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="AH18" s="3" t="s">
         <v>1</v>
       </c>
       <c r="AI18" s="3" t="s">
-        <v>168</v>
+        <v>243</v>
       </c>
       <c r="AJ18" s="4" t="s">
         <v>68</v>
@@ -2552,25 +2564,25 @@
         <v>27</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>194</v>
+        <v>251</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="Z19" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AA19" s="3" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="AB19" s="4" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="AH19" s="3" t="s">
         <v>2</v>
       </c>
       <c r="AI19" s="3" t="s">
-        <v>169</v>
+        <v>244</v>
       </c>
       <c r="AJ19" s="4" t="s">
         <v>162</v>
@@ -2581,7 +2593,7 @@
         <v>28</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>195</v>
+        <v>252</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>88</v>
@@ -2590,7 +2602,7 @@
         <v>25</v>
       </c>
       <c r="AA20" s="3" t="s">
-        <v>192</v>
+        <v>249</v>
       </c>
       <c r="AB20" s="4" t="s">
         <v>117</v>
@@ -2610,7 +2622,7 @@
         <v>29</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>197</v>
+        <v>253</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>89</v>
@@ -2619,7 +2631,7 @@
         <v>26</v>
       </c>
       <c r="AA21" s="3" t="s">
-        <v>193</v>
+        <v>250</v>
       </c>
       <c r="AB21" s="4" t="s">
         <v>118</v>
@@ -2639,7 +2651,7 @@
         <v>30</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>90</v>
@@ -2648,7 +2660,7 @@
         <v>30</v>
       </c>
       <c r="AA22" s="3" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="AB22" s="4" t="s">
         <v>119</v>
@@ -2657,10 +2669,10 @@
         <v>44</v>
       </c>
       <c r="AI22" s="3" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="AJ22" s="4" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
     </row>
     <row r="23" spans="6:36" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -2668,7 +2680,7 @@
         <v>45</v>
       </c>
       <c r="AI23" s="3" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="AJ23" s="4" t="s">
         <v>116</v>
@@ -2676,24 +2688,24 @@
     </row>
     <row r="24" spans="6:36" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AH24" s="3" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="AI24" s="3" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="AJ24" s="4" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="6:36" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AH25" s="3" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="AI25" s="3" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="AJ25" s="4" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
     </row>
     <row r="26" spans="6:36" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -2701,10 +2713,10 @@
         <v>46</v>
       </c>
       <c r="AI26" s="3" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="AJ26" s="4" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
     </row>
     <row r="27" spans="6:36" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -2712,10 +2724,10 @@
         <v>47</v>
       </c>
       <c r="AI27" s="3" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="AJ27" s="4" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
     </row>
     <row r="28" spans="6:36" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -2723,7 +2735,7 @@
         <v>25</v>
       </c>
       <c r="AI28" s="3" t="s">
-        <v>192</v>
+        <v>249</v>
       </c>
       <c r="AJ28" s="4" t="s">
         <v>143</v>
@@ -2734,7 +2746,7 @@
         <v>26</v>
       </c>
       <c r="AI29" s="3" t="s">
-        <v>193</v>
+        <v>250</v>
       </c>
       <c r="AJ29" s="4" t="s">
         <v>144</v>
@@ -2745,7 +2757,7 @@
         <v>30</v>
       </c>
       <c r="AI30" s="3" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="AJ30" s="4" t="s">
         <v>145</v>

--- a/csdl-shopping-cart.xlsx
+++ b/csdl-shopping-cart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DEVMASTER\DEV2206LM_SpringBoot\shopping-cart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32243FB6-B0E7-49E2-9BFE-F66A01020EFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F92FC19-8181-4C19-B166-2F446AA74BFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{91351D13-8343-4BE5-AE49-126D9A46B319}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="291">
   <si>
     <t>Id</t>
   </si>
@@ -287,15 +287,9 @@
     <t>Giá của sản phẩm.</t>
   </si>
   <si>
-    <t>Giảm giá trên sản phẩm.</t>
-  </si>
-  <si>
     <t>Số lượng hiện có của sản phẩm.</t>
   </si>
   <si>
-    <t>Nó có thể được sử dụng để xác định xem sản phẩm có sẵn để mua sắm hay không.</t>
-  </si>
-  <si>
     <t>Nó lưu trữ ngày và thời gian mà sản phẩm được tạo ra.</t>
   </si>
   <si>
@@ -828,13 +822,102 @@
   </si>
   <si>
     <t>tag_id</t>
+  </si>
+  <si>
+    <t>bigint</t>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+  </si>
+  <si>
+    <t>varchar(15)</t>
+  </si>
+  <si>
+    <t>varchar(32)</t>
+  </si>
+  <si>
+    <t>tinyint(1)</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>tinytext</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>NOT NULL AUTO_INCREMENT</t>
+  </si>
+  <si>
+    <t>NULL DEFAULT NULL</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+  </si>
+  <si>
+    <t>NOT NULL DEFAULT 0</t>
+  </si>
+  <si>
+    <t>PRIMARY KEY (`id`)</t>
+  </si>
+  <si>
+    <t>UNIQUE INDEX `uq_mobile` (`mobile` ASC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> UNIQUE INDEX `uq_email` (`email` ASC)</t>
+  </si>
+  <si>
+    <t>Default</t>
+  </si>
+  <si>
+    <t>Storage</t>
+  </si>
+  <si>
+    <t>Column Name</t>
+  </si>
+  <si>
+    <t>varchar(75)</t>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+  </si>
+  <si>
+    <t>smallint</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NOT NULL DEFAULT 0</t>
+  </si>
+  <si>
+    <t>UNIQUE INDEX `uq_slug` (`slug` ASC),</t>
+  </si>
+  <si>
+    <t>CONSTRAINT `fk_product_user`
+    FOREIGN KEY (`user_id`)
+    REFERENCES `shop`.`user` (`id`)</t>
+  </si>
+  <si>
+    <t>Bỏ</t>
+  </si>
+  <si>
+    <t>Giảm giá trên sản phẩm(0.0-100.0).</t>
+  </si>
+  <si>
+    <t>Nó có thể được sử dụng để xác định xem sản phẩm có sẵn để mua sắm hay không(0-không || 1-có).</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -853,8 +936,19 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -873,8 +967,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -898,8 +1004,27 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF808080"/>
+      </right>
       <top/>
       <bottom style="medium">
         <color rgb="FF808080"/>
@@ -910,7 +1035,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -928,16 +1053,71 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1253,1533 +1433,1983 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E867DBF7-62FE-4C81-BE5B-4B051B3412A0}">
-  <dimension ref="B2:AZ30"/>
+  <dimension ref="B2:BS30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC13" workbookViewId="0">
-      <selection activeCell="AI16" sqref="AI16"/>
+    <sheetView tabSelected="1" topLeftCell="H16" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="1"/>
     <col min="2" max="2" width="17.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="36.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="1"/>
-    <col min="6" max="6" width="15.21875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15" style="1" customWidth="1"/>
-    <col min="8" max="8" width="35" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.6640625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="13" customWidth="1"/>
+    <col min="6" max="6" width="25.44140625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="36.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" style="1" customWidth="1"/>
     <col min="9" max="9" width="8.88671875" style="1"/>
-    <col min="10" max="10" width="13.109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="31.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.88671875" style="1"/>
-    <col min="14" max="14" width="14.5546875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="16.44140625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="40.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.21875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15" style="1" customWidth="1"/>
+    <col min="12" max="13" width="15" style="13" customWidth="1"/>
+    <col min="14" max="14" width="30.109375" style="13" customWidth="1"/>
+    <col min="15" max="15" width="35" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.44140625" style="1" customWidth="1"/>
     <col min="17" max="17" width="8.88671875" style="1"/>
-    <col min="18" max="18" width="11.5546875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="12.21875" style="1" customWidth="1"/>
-    <col min="20" max="20" width="32.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.88671875" style="1"/>
-    <col min="22" max="22" width="13.88671875" style="1" customWidth="1"/>
-    <col min="23" max="23" width="15" style="1" customWidth="1"/>
-    <col min="24" max="24" width="34" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.88671875" style="1"/>
-    <col min="26" max="26" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12" style="1" customWidth="1"/>
-    <col min="28" max="28" width="51.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="8.88671875" style="1"/>
-    <col min="30" max="30" width="13.6640625" style="1" customWidth="1"/>
-    <col min="31" max="31" width="16.33203125" style="1" customWidth="1"/>
-    <col min="32" max="32" width="45.21875" style="1" customWidth="1"/>
-    <col min="33" max="33" width="8.88671875" style="1"/>
-    <col min="34" max="34" width="16.21875" style="1" customWidth="1"/>
-    <col min="35" max="35" width="15.6640625" style="1" customWidth="1"/>
-    <col min="36" max="36" width="44.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.109375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="14.33203125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="31.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="31.5546875" style="1" customWidth="1"/>
+    <col min="22" max="22" width="8.88671875" style="1"/>
+    <col min="23" max="23" width="14.5546875" style="1" customWidth="1"/>
+    <col min="24" max="24" width="16.44140625" style="1" customWidth="1"/>
+    <col min="25" max="25" width="40.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="40.44140625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="8.88671875" style="1"/>
+    <col min="28" max="28" width="11.5546875" style="1" customWidth="1"/>
+    <col min="29" max="29" width="12.21875" style="1" customWidth="1"/>
+    <col min="30" max="30" width="32.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="32.5546875" style="1" customWidth="1"/>
+    <col min="32" max="32" width="8.88671875" style="1"/>
+    <col min="33" max="33" width="13.88671875" style="1" customWidth="1"/>
+    <col min="34" max="34" width="15" style="1" customWidth="1"/>
+    <col min="35" max="35" width="34" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="34" style="1" customWidth="1"/>
     <col min="37" max="37" width="8.88671875" style="1"/>
-    <col min="38" max="38" width="15.33203125" style="1" customWidth="1"/>
-    <col min="39" max="39" width="16.109375" style="1" customWidth="1"/>
-    <col min="40" max="40" width="33.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="8.88671875" style="1"/>
-    <col min="42" max="42" width="14.21875" style="1" customWidth="1"/>
-    <col min="43" max="43" width="13.88671875" style="1" customWidth="1"/>
-    <col min="44" max="44" width="39.33203125" style="1" customWidth="1"/>
-    <col min="45" max="45" width="8.88671875" style="1"/>
-    <col min="46" max="46" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="11.77734375" style="1" customWidth="1"/>
-    <col min="48" max="48" width="11.6640625" style="1" customWidth="1"/>
-    <col min="49" max="49" width="8.88671875" style="1"/>
-    <col min="50" max="50" width="11.88671875" style="1" customWidth="1"/>
-    <col min="51" max="51" width="13" style="1" customWidth="1"/>
-    <col min="52" max="16384" width="8.88671875" style="1"/>
+    <col min="38" max="38" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12" style="1" customWidth="1"/>
+    <col min="40" max="40" width="51.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="51.77734375" style="1" customWidth="1"/>
+    <col min="42" max="42" width="8.88671875" style="1"/>
+    <col min="43" max="43" width="13.6640625" style="1" customWidth="1"/>
+    <col min="44" max="44" width="16.33203125" style="1" customWidth="1"/>
+    <col min="45" max="46" width="45.21875" style="1" customWidth="1"/>
+    <col min="47" max="47" width="8.88671875" style="1"/>
+    <col min="48" max="48" width="16.21875" style="1" customWidth="1"/>
+    <col min="49" max="49" width="15.6640625" style="1" customWidth="1"/>
+    <col min="50" max="50" width="44.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="44.77734375" style="1" customWidth="1"/>
+    <col min="52" max="52" width="8.88671875" style="1"/>
+    <col min="53" max="53" width="15.33203125" style="1" customWidth="1"/>
+    <col min="54" max="54" width="16.109375" style="1" customWidth="1"/>
+    <col min="55" max="55" width="33.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="33.109375" style="1" customWidth="1"/>
+    <col min="57" max="57" width="8.88671875" style="1"/>
+    <col min="58" max="58" width="14.21875" style="1" customWidth="1"/>
+    <col min="59" max="59" width="13.88671875" style="1" customWidth="1"/>
+    <col min="60" max="61" width="39.33203125" style="1" customWidth="1"/>
+    <col min="62" max="62" width="8.88671875" style="1"/>
+    <col min="63" max="63" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="11.77734375" style="1" customWidth="1"/>
+    <col min="65" max="66" width="11.6640625" style="1" customWidth="1"/>
+    <col min="67" max="67" width="8.88671875" style="1"/>
+    <col min="68" max="68" width="11.88671875" style="1" customWidth="1"/>
+    <col min="69" max="69" width="13" style="1" customWidth="1"/>
+    <col min="70" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:52" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:71" x14ac:dyDescent="0.3">
       <c r="B2" s="11" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
-      <c r="F2" s="11" t="s">
-        <v>231</v>
-      </c>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
       <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
+      <c r="H2" s="9"/>
       <c r="J2" s="11" t="s">
         <v>229</v>
       </c>
       <c r="K2" s="11"/>
       <c r="L2" s="11"/>
-      <c r="N2" s="11" t="s">
-        <v>232</v>
-      </c>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
       <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
+      <c r="P2" s="9"/>
       <c r="R2" s="11" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="S2" s="11"/>
       <c r="T2" s="11"/>
-      <c r="V2" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="W2" s="11"/>
+      <c r="U2" s="9"/>
+      <c r="W2" s="11" t="s">
+        <v>230</v>
+      </c>
       <c r="X2" s="11"/>
-      <c r="Z2" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="AA2" s="11"/>
-      <c r="AB2" s="11"/>
-      <c r="AD2" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="AE2" s="11"/>
-      <c r="AF2" s="11"/>
-      <c r="AH2" s="11" t="s">
-        <v>237</v>
-      </c>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="9"/>
+      <c r="AB2" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="AC2" s="11"/>
+      <c r="AD2" s="11"/>
+      <c r="AE2" s="9"/>
+      <c r="AG2" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="AH2" s="11"/>
       <c r="AI2" s="11"/>
-      <c r="AJ2" s="11"/>
+      <c r="AJ2" s="9"/>
       <c r="AL2" s="11" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="AM2" s="11"/>
       <c r="AN2" s="11"/>
-      <c r="AP2" s="11" t="s">
+      <c r="AO2" s="9"/>
+      <c r="AQ2" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="AR2" s="11"/>
+      <c r="AS2" s="11"/>
+      <c r="AT2" s="9"/>
+      <c r="AV2" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="AW2" s="11"/>
+      <c r="AX2" s="11"/>
+      <c r="AY2" s="9"/>
+      <c r="BA2" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="BB2" s="11"/>
+      <c r="BC2" s="11"/>
+      <c r="BD2" s="9"/>
+      <c r="BF2" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="BG2" s="11"/>
+      <c r="BH2" s="11"/>
+      <c r="BI2" s="9"/>
+      <c r="BK2" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="AQ2" s="11"/>
-      <c r="AR2" s="11"/>
-      <c r="AT2" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="AU2" s="11"/>
-      <c r="AV2" s="11"/>
-      <c r="AX2" s="11" t="s">
+      <c r="BL2" s="11"/>
+      <c r="BM2" s="11"/>
+      <c r="BN2" s="9"/>
+      <c r="BP2" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="BQ2" s="11"/>
+      <c r="BR2" s="11"/>
+      <c r="BS2" s="9"/>
+    </row>
+    <row r="3" spans="2:71" x14ac:dyDescent="0.3">
+      <c r="B3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="H3" s="15"/>
+      <c r="J3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="7"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P3" s="7"/>
+      <c r="R3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="U3" s="7"/>
+      <c r="W3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="Z3" s="7"/>
+      <c r="AB3" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC3" s="7"/>
+      <c r="AD3" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="AE3" s="7"/>
+      <c r="AG3" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="AH3" s="7"/>
+      <c r="AI3" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="AJ3" s="7"/>
+      <c r="AL3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AM3" s="7"/>
+      <c r="AN3" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="AO3" s="7"/>
+      <c r="AQ3" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="AR3" s="7"/>
+      <c r="AS3" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="AT3" s="7"/>
+      <c r="AV3" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AW3" s="8"/>
+      <c r="AX3" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="AY3" s="8"/>
+      <c r="BA3" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="BB3" s="7"/>
+      <c r="BC3" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="BD3" s="7"/>
+      <c r="BF3" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="BG3" s="7"/>
+      <c r="BH3" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="BI3" s="7"/>
+      <c r="BK3" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="BL3" s="10"/>
+      <c r="BM3" s="10"/>
+      <c r="BN3" s="2"/>
+      <c r="BP3" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ3" s="10"/>
+      <c r="BR3" s="10"/>
+      <c r="BS3" s="2"/>
+    </row>
+    <row r="4" spans="2:71" s="6" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="21"/>
+      <c r="C4" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>278</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>279</v>
+      </c>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="L4" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="22" t="s">
+        <v>278</v>
+      </c>
+      <c r="N4" s="22" t="s">
+        <v>279</v>
+      </c>
+      <c r="O4" s="21"/>
+      <c r="P4" s="24"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="24"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="21"/>
+      <c r="Y4" s="21"/>
+      <c r="Z4" s="24"/>
+      <c r="AB4" s="21"/>
+      <c r="AC4" s="21"/>
+      <c r="AD4" s="21"/>
+      <c r="AE4" s="24"/>
+      <c r="AG4" s="21"/>
+      <c r="AH4" s="21"/>
+      <c r="AI4" s="21"/>
+      <c r="AJ4" s="24"/>
+      <c r="AL4" s="21"/>
+      <c r="AM4" s="21"/>
+      <c r="AN4" s="21"/>
+      <c r="AO4" s="24"/>
+      <c r="AQ4" s="21"/>
+      <c r="AR4" s="21"/>
+      <c r="AS4" s="21"/>
+      <c r="AT4" s="24"/>
+      <c r="AV4" s="23"/>
+      <c r="AW4" s="23"/>
+      <c r="AX4" s="23"/>
+      <c r="AY4" s="26"/>
+      <c r="BA4" s="21"/>
+      <c r="BB4" s="21"/>
+      <c r="BC4" s="21"/>
+      <c r="BD4" s="24"/>
+      <c r="BF4" s="21"/>
+      <c r="BG4" s="21"/>
+      <c r="BH4" s="21"/>
+      <c r="BI4" s="24"/>
+      <c r="BK4" s="21"/>
+      <c r="BL4" s="21"/>
+      <c r="BM4" s="21"/>
+      <c r="BN4" s="24"/>
+      <c r="BP4" s="21"/>
+      <c r="BQ4" s="21"/>
+      <c r="BR4" s="21"/>
+      <c r="BS4" s="24"/>
+    </row>
+    <row r="5" spans="2:71" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H5" s="17"/>
+      <c r="J5" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="O5" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="P5" s="12"/>
+      <c r="R5" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="S5" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="T5" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="U5" s="25"/>
+      <c r="W5" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="X5" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y5" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z5" s="12"/>
+      <c r="AB5" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD5" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE5" s="12"/>
+      <c r="AG5" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="AI5" s="20" t="s">
         <v>240</v>
       </c>
-      <c r="AY2" s="11"/>
-      <c r="AZ2" s="11"/>
+      <c r="AJ5" s="12"/>
+      <c r="AL5" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="AN5" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="AO5" s="12"/>
+      <c r="AQ5" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR5" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="AS5" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="AT5" s="12"/>
+      <c r="AV5" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW5" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="AX5" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="AY5" s="25"/>
+      <c r="BA5" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB5" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="BC5" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="BD5" s="25"/>
+      <c r="BF5" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG5" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="BH5" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="BI5" s="25"/>
+      <c r="BK5" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="BL5" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="BM5" s="17"/>
+      <c r="BN5" s="27"/>
+      <c r="BP5" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="BQ5" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="BR5" s="17"/>
+      <c r="BS5" s="27"/>
     </row>
-    <row r="3" spans="2:52" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="R3" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="V3" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="W3" s="8"/>
-      <c r="X3" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="Z3" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA3" s="8"/>
-      <c r="AB3" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="AD3" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE3" s="8"/>
-      <c r="AF3" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="AH3" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="AI3" s="9"/>
-      <c r="AJ3" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="AL3" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM3" s="8"/>
-      <c r="AN3" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="AP3" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="AQ3" s="8"/>
-      <c r="AR3" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="AT3" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="AU3" s="10"/>
-      <c r="AV3" s="10"/>
-      <c r="AX3" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="AY3" s="10"/>
-      <c r="AZ3" s="10"/>
-    </row>
-    <row r="4" spans="2:52" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="8"/>
-      <c r="Z4" s="8"/>
-      <c r="AA4" s="8"/>
-      <c r="AB4" s="8"/>
-      <c r="AD4" s="8"/>
-      <c r="AE4" s="8"/>
-      <c r="AF4" s="8"/>
-      <c r="AH4" s="9"/>
-      <c r="AI4" s="9"/>
-      <c r="AJ4" s="9"/>
-      <c r="AL4" s="8"/>
-      <c r="AM4" s="8"/>
-      <c r="AN4" s="8"/>
-      <c r="AP4" s="8"/>
-      <c r="AQ4" s="8"/>
-      <c r="AR4" s="8"/>
-      <c r="AT4" s="2"/>
-      <c r="AU4" s="2"/>
-      <c r="AV4" s="2"/>
-      <c r="AX4" s="2"/>
-      <c r="AY4" s="2"/>
-      <c r="AZ4" s="2"/>
-    </row>
-    <row r="5" spans="2:52" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="T5" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="V5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="W5" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="X5" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="Z5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="AB5" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="AD5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="AF5" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AH5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="AJ5" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="AL5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM5" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="AN5" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="AP5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ5" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="AR5" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="AT5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU5" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="AV5" s="3"/>
-      <c r="AX5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY5" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="AZ5" s="3"/>
-    </row>
-    <row r="6" spans="2:52" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:71" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="D6" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="F6" s="12"/>
+      <c r="G6" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="H6" s="3"/>
+      <c r="J6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="H6" s="4" t="s">
+      <c r="K6" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="O6" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="P6" s="12"/>
+      <c r="R6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K6" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="N6" s="3" t="s">
+      <c r="S6" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="U6" s="25"/>
+      <c r="W6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="O6" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="R6" s="3" t="s">
+      <c r="X6" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="Y6" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z6" s="12"/>
+      <c r="AB6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="S6" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="T6" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="V6" s="3" t="s">
+      <c r="AC6" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="AD6" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE6" s="12"/>
+      <c r="AG6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="W6" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="X6" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="Z6" s="3" t="s">
+      <c r="AH6" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="AI6" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AJ6" s="12"/>
+      <c r="AL6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="AA6" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="AB6" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="AD6" s="3" t="s">
+      <c r="AM6" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="AN6" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="AO6" s="12"/>
+      <c r="AQ6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AE6" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="AF6" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="AH6" s="3" t="s">
+      <c r="AR6" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="AS6" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT6" s="12"/>
+      <c r="AV6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="AI6" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="AJ6" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="AL6" s="3" t="s">
+      <c r="AW6" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="AX6" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="AY6" s="25"/>
+      <c r="BA6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AM6" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="AN6" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="AP6" s="3" t="s">
+      <c r="BB6" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="BC6" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="BD6" s="25"/>
+      <c r="BF6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="AQ6" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="AR6" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="AT6" s="3" t="s">
+      <c r="BG6" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="BH6" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="BI6" s="25"/>
+      <c r="BK6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AU6" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="AV6" s="3"/>
-      <c r="AX6" s="3" t="s">
+      <c r="BL6" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="BM6" s="3"/>
+      <c r="BN6" s="27"/>
+      <c r="BP6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AY6" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="AZ6" s="3"/>
+      <c r="BQ6" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="BR6" s="3"/>
+      <c r="BS6" s="27"/>
     </row>
-    <row r="7" spans="2:52" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:71" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="F7" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="F7" s="12"/>
+      <c r="G7" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="J7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="H7" s="4" t="s">
+      <c r="K7" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="N7" s="12"/>
+      <c r="O7" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="P7" s="12"/>
+      <c r="R7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="K7" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="N7" s="3" t="s">
+      <c r="S7" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="U7" s="25"/>
+      <c r="W7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="O7" s="3" t="s">
+      <c r="X7" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="Y7" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z7" s="12"/>
+      <c r="AB7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC7" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="AD7" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE7" s="12"/>
+      <c r="AG7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH7" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="AI7" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="AJ7" s="12"/>
+      <c r="AL7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM7" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="P7" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="R7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="S7" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="T7" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="V7" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="W7" s="3" t="s">
+      <c r="AN7" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AO7" s="12"/>
+      <c r="AQ7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AR7" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="X7" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z7" s="3" t="s">
+      <c r="AS7" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AT7" s="12"/>
+      <c r="AV7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AA7" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="AB7" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="AD7" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AE7" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="AF7" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="AH7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AI7" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="AJ7" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="AL7" s="3" t="s">
+      <c r="AW7" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="AX7" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="AY7" s="25"/>
+      <c r="BA7" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AM7" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="AN7" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="AP7" s="3" t="s">
+      <c r="BB7" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="BC7" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="BD7" s="25"/>
+      <c r="BF7" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AQ7" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="AR7" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="AT7" s="3" t="s">
+      <c r="BG7" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="BH7" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="BI7" s="25"/>
+      <c r="BK7" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="AU7" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="AV7" s="3"/>
-      <c r="AX7" s="3" t="s">
+      <c r="BL7" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="BM7" s="3"/>
+      <c r="BN7" s="27"/>
+      <c r="BP7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AY7" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="AZ7" s="3"/>
+      <c r="BQ7" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="BR7" s="3"/>
+      <c r="BS7" s="27"/>
     </row>
-    <row r="8" spans="2:52" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:71" ht="63" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="D8" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="H8" s="17"/>
+      <c r="J8" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="H8" s="4" t="s">
+      <c r="K8" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="L8" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="M8" s="29" t="s">
+        <v>272</v>
+      </c>
+      <c r="N8" s="29"/>
+      <c r="O8" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="P8" s="29" t="s">
+        <v>288</v>
+      </c>
+      <c r="R8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="N8" s="3" t="s">
+      <c r="S8" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="U8" s="25"/>
+      <c r="W8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="P8" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="R8" s="3" t="s">
+      <c r="X8" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y8" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z8" s="12"/>
+      <c r="AB8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="S8" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="T8" s="4" t="s">
+      <c r="AC8" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="AD8" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="Z8" s="3" t="s">
+      <c r="AE8" s="12"/>
+      <c r="AL8" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AA8" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="AB8" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD8" s="3" t="s">
+      <c r="AM8" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="AN8" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AO8" s="12"/>
+      <c r="AQ8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="AE8" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="AF8" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="AH8" s="3" t="s">
+      <c r="AR8" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="AS8" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AT8" s="12"/>
+      <c r="AV8" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AI8" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="AJ8" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="AL8" s="3" t="s">
+      <c r="AW8" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="AX8" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="AY8" s="25"/>
+      <c r="BA8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="AM8" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="AN8" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="AP8" s="3" t="s">
+      <c r="BB8" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="BC8" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="BD8" s="25"/>
+      <c r="BF8" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="AQ8" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="AR8" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="AX8" s="3" t="s">
+      <c r="BG8" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="BH8" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="BI8" s="25"/>
+      <c r="BP8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="AY8" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="AZ8" s="3"/>
+      <c r="BQ8" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="BR8" s="3"/>
+      <c r="BS8" s="27"/>
     </row>
-    <row r="9" spans="2:52" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:71" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="D9" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="H9" s="3"/>
+      <c r="J9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="K9" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="M9" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="N9" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P9" s="12"/>
+      <c r="W9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="Y9" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z9" s="12"/>
+      <c r="AB9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC9" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="AD9" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE9" s="12"/>
+      <c r="AL9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM9" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="AN9" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="AO9" s="12"/>
+      <c r="AQ9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AR9" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="AS9" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="AT9" s="12"/>
+      <c r="AV9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW9" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="AX9" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="AY9" s="25"/>
+      <c r="BA9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="BB9" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="BC9" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="BD9" s="25"/>
+      <c r="BF9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="BG9" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="H9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="R9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="T9" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="Z9" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA9" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="AB9" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="AD9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="AE9" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="AF9" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="AH9" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AI9" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="AJ9" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="AL9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="AM9" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="AN9" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="AP9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="AQ9" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="AR9" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="AX9" s="3" t="s">
+      <c r="BH9" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="BI9" s="25"/>
+      <c r="BP9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AY9" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="AZ9" s="3"/>
+      <c r="BQ9" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="BR9" s="3"/>
+      <c r="BS9" s="27"/>
     </row>
-    <row r="10" spans="2:52" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:71" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="F10" s="3" t="s">
+      <c r="D10" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="F10" s="12"/>
+      <c r="G10" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="J10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="H10" s="4" t="s">
+      <c r="K10" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="N10" s="12"/>
+      <c r="O10" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="N10" s="3" t="s">
+      <c r="P10" s="12"/>
+      <c r="W10" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="P10" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="R10" s="3" t="s">
+      <c r="X10" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y10" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z10" s="12"/>
+      <c r="AB10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="T10" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="Z10" s="3" t="s">
+      <c r="AC10" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="AD10" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="AE10" s="12"/>
+      <c r="AL10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="AA10" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="AB10" s="4" t="s">
+      <c r="AM10" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="AN10" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="AD10" s="3" t="s">
+      <c r="AO10" s="12"/>
+      <c r="AQ10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="AE10" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="AF10" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="AH10" s="3" t="s">
+      <c r="AR10" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="AS10" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="AT10" s="12"/>
+      <c r="AV10" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AI10" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="AJ10" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="AL10" s="3" t="s">
+      <c r="AW10" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="AX10" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="AY10" s="25"/>
+      <c r="BA10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="AM10" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="AN10" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="AP10" s="3" t="s">
+      <c r="BB10" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="BC10" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="BD10" s="25"/>
+      <c r="BF10" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AQ10" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="AR10" s="4" t="s">
-        <v>157</v>
-      </c>
+      <c r="BG10" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="BH10" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="BI10" s="25"/>
     </row>
-    <row r="11" spans="2:52" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:71" ht="63" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="F11" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="H11" s="17"/>
+      <c r="J11" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="H11" s="4" t="s">
+      <c r="K11" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="L11" s="29" t="s">
+        <v>283</v>
+      </c>
+      <c r="M11" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="N11" s="29"/>
+      <c r="O11" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="N11" s="3" t="s">
+      <c r="P11" s="29" t="s">
+        <v>288</v>
+      </c>
+      <c r="W11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="O11" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="P11" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="Z11" s="3" t="s">
+      <c r="X11" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="Y11" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z11" s="12"/>
+      <c r="AL11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="AA11" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="AB11" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="AD11" s="3" t="s">
+      <c r="AM11" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="AN11" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO11" s="12"/>
+      <c r="AQ11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AE11" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="AF11" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="AH11" s="3" t="s">
+      <c r="AR11" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="AS11" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="AT11" s="12"/>
+      <c r="AV11" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="AI11" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="AJ11" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="AL11" s="3" t="s">
+      <c r="AW11" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="AX11" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="AY11" s="25"/>
+      <c r="BA11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AM11" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="AN11" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="AP11" s="3" t="s">
+      <c r="BB11" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="BC11" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="BD11" s="25"/>
+      <c r="BF11" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AQ11" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="AR11" s="4" t="s">
-        <v>158</v>
-      </c>
+      <c r="BG11" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="BH11" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="BI11" s="25"/>
     </row>
-    <row r="12" spans="2:52" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:71" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="D12" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="H12" s="3"/>
+      <c r="J12" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="H12" s="4" t="s">
+      <c r="K12" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="L12" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="M12" s="29" t="s">
+        <v>273</v>
+      </c>
+      <c r="N12" s="29"/>
+      <c r="O12" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="N12" s="3" t="s">
+      <c r="P12" s="29" t="s">
+        <v>288</v>
+      </c>
+      <c r="W12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="P12" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="Z12" s="3" t="s">
+      <c r="X12" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y12" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z12" s="12"/>
+      <c r="AL12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AA12" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="AB12" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="AD12" s="3" t="s">
+      <c r="AM12" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="AN12" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="AO12" s="12"/>
+      <c r="AQ12" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AE12" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="AF12" s="4" t="s">
+      <c r="AR12" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="AS12" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="AT12" s="12"/>
+      <c r="AV12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AW12" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="AH12" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI12" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="AJ12" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="AL12" s="3" t="s">
+      <c r="AX12" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="AY12" s="25"/>
+      <c r="BA12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AM12" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="AN12" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="AP12" s="3" t="s">
+      <c r="BB12" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="BC12" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="BD12" s="25"/>
+      <c r="BF12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AQ12" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="AR12" s="4" t="s">
-        <v>159</v>
-      </c>
+      <c r="BG12" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="BH12" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="BI12" s="25"/>
     </row>
-    <row r="13" spans="2:52" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:71" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="F13" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="H13" s="3"/>
+      <c r="J13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="H13" s="4" t="s">
+      <c r="K13" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="L13" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="M13" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="N13" s="12"/>
+      <c r="O13" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="N13" s="3" t="s">
+      <c r="P13" s="12"/>
+      <c r="W13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="O13" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="P13" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="Z13" s="3" t="s">
+      <c r="X13" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y13" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z13" s="12"/>
+      <c r="AL13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA13" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="AB13" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="AD13" s="3" t="s">
+      <c r="AM13" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="AN13" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="AO13" s="12"/>
+      <c r="AQ13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AE13" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="AF13" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="AH13" s="3" t="s">
+      <c r="AR13" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="AS13" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AT13" s="12"/>
+      <c r="AV13" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="AI13" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="AJ13" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="AL13" s="3" t="s">
+      <c r="AW13" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="AX13" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="AY13" s="25"/>
+      <c r="BA13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AM13" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="AN13" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="AP13" s="3" t="s">
+      <c r="BB13" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="BC13" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="BD13" s="25"/>
+      <c r="BF13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AQ13" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="AR13" s="4" t="s">
-        <v>160</v>
-      </c>
+      <c r="BG13" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="BH13" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="BI13" s="25"/>
     </row>
-    <row r="14" spans="2:52" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:71" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="D14" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="F14" s="12"/>
+      <c r="G14" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="H14" s="17"/>
+      <c r="J14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="Z14" s="3" t="s">
+      <c r="K14" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="M14" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="N14" s="12"/>
+      <c r="O14" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="P14" s="12"/>
+      <c r="Z14" s="12"/>
+      <c r="AL14" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AA14" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="AB14" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="AD14" s="3" t="s">
+      <c r="AM14" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="AN14" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="AO14" s="12"/>
+      <c r="AQ14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AE14" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="AF14" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="AH14" s="3" t="s">
+      <c r="AR14" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="AS14" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="AT14" s="12"/>
+      <c r="AV14" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AI14" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="AJ14" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="AL14" s="3" t="s">
+      <c r="AW14" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="AX14" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="AY14" s="25"/>
+      <c r="BA14" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AM14" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="AN14" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="AP14" s="3" t="s">
+      <c r="BB14" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="BC14" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="BD14" s="25"/>
+      <c r="BF14" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AQ14" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="AR14" s="4" t="s">
-        <v>161</v>
-      </c>
+      <c r="BG14" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="BH14" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="BI14" s="25"/>
     </row>
-    <row r="15" spans="2:52" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:71" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="D15" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="F15" s="12"/>
+      <c r="G15" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="H15" s="3"/>
+      <c r="J15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z15" s="3" t="s">
+      <c r="K15" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="L15" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="M15" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="N15" s="12"/>
+      <c r="O15" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="P15" s="12"/>
+      <c r="AL15" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AA15" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="AB15" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="AD15" s="3" t="s">
+      <c r="AM15" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="AN15" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="AO15" s="12"/>
+      <c r="AQ15" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AE15" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="AF15" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AH15" s="3" t="s">
+      <c r="AR15" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="AS15" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="AT15" s="12"/>
+      <c r="AV15" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AI15" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="AJ15" s="4" t="s">
-        <v>140</v>
-      </c>
+      <c r="AW15" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="AX15" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="AY15" s="25"/>
     </row>
-    <row r="16" spans="2:52" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:71" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="D16" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="F16" s="12"/>
+      <c r="G16" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="H16" s="3"/>
+      <c r="J16" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="H16" s="4" t="s">
+      <c r="K16" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="L16" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="M16" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="N16" s="12"/>
+      <c r="O16" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="P16" s="12"/>
+      <c r="AL16" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="AM16" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="AN16" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="AO16" s="12"/>
+      <c r="AV16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AW16" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="AX16" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="AY16" s="25"/>
+    </row>
+    <row r="17" spans="10:51" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="L17" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="M17" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="N17" s="12"/>
+      <c r="O17" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="P17" s="12"/>
+      <c r="AL17" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="AM17" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="AN17" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="AO17" s="12"/>
+      <c r="AV17" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW17" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="AX17" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AY17" s="25"/>
+    </row>
+    <row r="18" spans="10:51" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="L18" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="M18" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="N18" s="12"/>
+      <c r="O18" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="Z16" s="3" t="s">
+      <c r="P18" s="12"/>
+      <c r="AL18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM18" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="AN18" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="AO18" s="12"/>
+      <c r="AV18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW18" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="AX18" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AY18" s="25"/>
+    </row>
+    <row r="19" spans="10:51" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="L19" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="M19" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="N19" s="12"/>
+      <c r="O19" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="P19" s="12"/>
+      <c r="AL19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM19" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="AN19" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="AO19" s="12"/>
+      <c r="AV19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW19" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="AX19" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="AY19" s="25"/>
+    </row>
+    <row r="20" spans="10:51" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="L20" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="M20" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="N20" s="12"/>
+      <c r="O20" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="P20" s="12"/>
+      <c r="AL20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM20" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="AN20" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="AO20" s="12"/>
+      <c r="AV20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AW20" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="AX20" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="AY20" s="25"/>
+    </row>
+    <row r="21" spans="10:51" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="L21" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="M21" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="N21" s="12"/>
+      <c r="O21" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="P21" s="12"/>
+      <c r="AL21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AM21" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="AN21" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AO21" s="12"/>
+      <c r="AV21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AW21" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="AX21" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="AY21" s="25"/>
+    </row>
+    <row r="22" spans="10:51" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="L22" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="M22" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="N22" s="12"/>
+      <c r="O22" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="P22" s="12"/>
+      <c r="AL22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AM22" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="AN22" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="AO22" s="12"/>
+      <c r="AV22" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AW22" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="AX22" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="AY22" s="25"/>
+    </row>
+    <row r="23" spans="10:51" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AV23" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AW23" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="AX23" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="AY23" s="25"/>
+    </row>
+    <row r="24" spans="10:51" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AV24" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="AW24" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="AX24" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="AY24" s="25"/>
+    </row>
+    <row r="25" spans="10:51" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AV25" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="AA16" s="3" t="s">
+      <c r="AW25" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="AB16" s="4" t="s">
+      <c r="AX25" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="AY25" s="25"/>
+    </row>
+    <row r="26" spans="10:51" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AV26" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW26" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="AX26" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="AH16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="AI16" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="AJ16" s="4" t="s">
+      <c r="AY26" s="25"/>
+    </row>
+    <row r="27" spans="10:51" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AV27" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW27" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="AX27" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="AY27" s="25"/>
+    </row>
+    <row r="28" spans="10:51" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AV28" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AW28" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="AX28" s="4" t="s">
         <v>141</v>
       </c>
+      <c r="AY28" s="25"/>
     </row>
-    <row r="17" spans="6:36" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F17" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z17" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="AA17" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="AB17" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="AH17" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI17" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="AJ17" s="4" t="s">
+    <row r="29" spans="10:51" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AV29" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AW29" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="AX29" s="4" t="s">
         <v>142</v>
       </c>
+      <c r="AY29" s="25"/>
     </row>
-    <row r="18" spans="6:36" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F18" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z18" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA18" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="AB18" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="AH18" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="AI18" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="AJ18" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="6:36" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F19" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="Z19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA19" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="AB19" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="AH19" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="AI19" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="AJ19" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="20" spans="6:36" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F20" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="Z20" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA20" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="AB20" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="AH20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AI20" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="AJ20" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="21" spans="6:36" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F21" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="Z21" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA21" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="AB21" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="AH21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AI21" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="AJ21" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="22" spans="6:36" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F22" s="3" t="s">
+    <row r="30" spans="10:51" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AV30" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z22" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA22" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="AB22" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="AH22" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI22" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="AJ22" s="4" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="23" spans="6:36" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="AH23" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AI23" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="AJ23" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="24" spans="6:36" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="AH24" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="AI24" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="AJ24" s="4" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="25" spans="6:36" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="AH25" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="AI25" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="AJ25" s="4" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="26" spans="6:36" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="AH26" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AI26" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="AJ26" s="4" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="27" spans="6:36" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="AH27" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AI27" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="AJ27" s="4" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="28" spans="6:36" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="AH28" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="AI28" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="AJ28" s="4" t="s">
+      <c r="AW30" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="AX30" s="4" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="29" spans="6:36" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="AH29" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="AI29" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="AJ29" s="4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="30" spans="6:36" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="AH30" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AI30" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="AJ30" s="4" t="s">
-        <v>145</v>
-      </c>
+      <c r="AY30" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="AX3:AZ3"/>
-    <mergeCell ref="AT3:AV3"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="BP3:BR3"/>
+    <mergeCell ref="BK3:BM3"/>
+    <mergeCell ref="W2:Y2"/>
     <mergeCell ref="R2:T2"/>
-    <mergeCell ref="V2:X2"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="AD2:AF2"/>
-    <mergeCell ref="AH2:AJ2"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="J2:O2"/>
+    <mergeCell ref="AB2:AD2"/>
+    <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="AL2:AN2"/>
-    <mergeCell ref="AP2:AR2"/>
-    <mergeCell ref="AT2:AV2"/>
-    <mergeCell ref="AX2:AZ2"/>
+    <mergeCell ref="AQ2:AS2"/>
+    <mergeCell ref="AV2:AX2"/>
+    <mergeCell ref="BA2:BC2"/>
+    <mergeCell ref="BF2:BH2"/>
+    <mergeCell ref="BK2:BM2"/>
+    <mergeCell ref="BP2:BR2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/csdl-shopping-cart.xlsx
+++ b/csdl-shopping-cart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DEVMASTER\DEV2206LM_SpringBoot\shopping-cart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F92FC19-8181-4C19-B166-2F446AA74BFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57CDCED1-58D1-4B50-BBBB-AB2C30E12AC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{91351D13-8343-4BE5-AE49-126D9A46B319}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="295">
   <si>
     <t>Id</t>
   </si>
@@ -911,6 +911,20 @@
   </si>
   <si>
     <t>Nó có thể được sử dụng để xác định xem sản phẩm có sẵn để mua sắm hay không(0-không || 1-có).</t>
+  </si>
+  <si>
+    <t>bỏ</t>
+  </si>
+  <si>
+    <t>ghi địa chỉ chính xác.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NULL DEFAULT NULL</t>
+  </si>
+  <si>
+    <t>CONSTRAINT `fk_cart_user`
+    FOREIGN KEY (`user_id`)
+    REFERENCES `shop`.`user` (`id`)</t>
   </si>
 </sst>
 </file>
@@ -948,7 +962,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -976,6 +990,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1060,12 +1080,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1075,8 +1089,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1098,16 +1111,16 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1118,6 +1131,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1433,10 +1455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E867DBF7-62FE-4C81-BE5B-4B051B3412A0}">
-  <dimension ref="B2:BS30"/>
+  <dimension ref="B2:CB30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H16" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView tabSelected="1" topLeftCell="AQ1" workbookViewId="0">
+      <selection activeCell="AV7" sqref="AV7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1444,175 +1466,190 @@
     <col min="1" max="1" width="8.88671875" style="1"/>
     <col min="2" max="2" width="17.44140625" style="1" customWidth="1"/>
     <col min="3" max="4" width="14.6640625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" style="13" customWidth="1"/>
-    <col min="6" max="6" width="25.44140625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="25.44140625" style="11" customWidth="1"/>
     <col min="7" max="7" width="36.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" style="1" customWidth="1"/>
     <col min="9" max="9" width="8.88671875" style="1"/>
     <col min="10" max="10" width="15.21875" style="1" customWidth="1"/>
     <col min="11" max="11" width="15" style="1" customWidth="1"/>
-    <col min="12" max="13" width="15" style="13" customWidth="1"/>
-    <col min="14" max="14" width="30.109375" style="13" customWidth="1"/>
+    <col min="12" max="13" width="15" style="11" customWidth="1"/>
+    <col min="14" max="14" width="30.109375" style="11" customWidth="1"/>
     <col min="15" max="15" width="35" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="17.44140625" style="1" customWidth="1"/>
     <col min="17" max="17" width="8.88671875" style="1"/>
     <col min="18" max="18" width="13.109375" style="1" customWidth="1"/>
-    <col min="19" max="19" width="14.33203125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="31.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="31.5546875" style="1" customWidth="1"/>
-    <col min="22" max="22" width="8.88671875" style="1"/>
-    <col min="23" max="23" width="14.5546875" style="1" customWidth="1"/>
-    <col min="24" max="24" width="16.44140625" style="1" customWidth="1"/>
-    <col min="25" max="25" width="40.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="40.44140625" style="1" customWidth="1"/>
-    <col min="27" max="27" width="8.88671875" style="1"/>
-    <col min="28" max="28" width="11.5546875" style="1" customWidth="1"/>
-    <col min="29" max="29" width="12.21875" style="1" customWidth="1"/>
-    <col min="30" max="30" width="32.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="32.5546875" style="1" customWidth="1"/>
-    <col min="32" max="32" width="8.88671875" style="1"/>
-    <col min="33" max="33" width="13.88671875" style="1" customWidth="1"/>
-    <col min="34" max="34" width="15" style="1" customWidth="1"/>
-    <col min="35" max="35" width="34" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="34" style="1" customWidth="1"/>
-    <col min="37" max="37" width="8.88671875" style="1"/>
-    <col min="38" max="38" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="12" style="1" customWidth="1"/>
-    <col min="40" max="40" width="51.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="51.77734375" style="1" customWidth="1"/>
-    <col min="42" max="42" width="8.88671875" style="1"/>
-    <col min="43" max="43" width="13.6640625" style="1" customWidth="1"/>
-    <col min="44" max="44" width="16.33203125" style="1" customWidth="1"/>
-    <col min="45" max="46" width="45.21875" style="1" customWidth="1"/>
-    <col min="47" max="47" width="8.88671875" style="1"/>
-    <col min="48" max="48" width="16.21875" style="1" customWidth="1"/>
-    <col min="49" max="49" width="15.6640625" style="1" customWidth="1"/>
-    <col min="50" max="50" width="44.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="44.77734375" style="1" customWidth="1"/>
-    <col min="52" max="52" width="8.88671875" style="1"/>
-    <col min="53" max="53" width="15.33203125" style="1" customWidth="1"/>
-    <col min="54" max="54" width="16.109375" style="1" customWidth="1"/>
-    <col min="55" max="55" width="33.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="33.109375" style="1" customWidth="1"/>
-    <col min="57" max="57" width="8.88671875" style="1"/>
-    <col min="58" max="58" width="14.21875" style="1" customWidth="1"/>
-    <col min="59" max="59" width="13.88671875" style="1" customWidth="1"/>
-    <col min="60" max="61" width="39.33203125" style="1" customWidth="1"/>
-    <col min="62" max="62" width="8.88671875" style="1"/>
-    <col min="63" max="63" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="11.77734375" style="1" customWidth="1"/>
-    <col min="65" max="66" width="11.6640625" style="1" customWidth="1"/>
-    <col min="67" max="67" width="8.88671875" style="1"/>
-    <col min="68" max="68" width="11.88671875" style="1" customWidth="1"/>
-    <col min="69" max="69" width="13" style="1" customWidth="1"/>
-    <col min="70" max="16384" width="8.88671875" style="1"/>
+    <col min="19" max="22" width="14.33203125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="31.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="31.5546875" style="1" customWidth="1"/>
+    <col min="25" max="25" width="8.88671875" style="1"/>
+    <col min="26" max="26" width="14.5546875" style="1" customWidth="1"/>
+    <col min="27" max="27" width="16.44140625" style="1" customWidth="1"/>
+    <col min="28" max="28" width="40.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="40.44140625" style="1" customWidth="1"/>
+    <col min="30" max="30" width="8.88671875" style="1"/>
+    <col min="31" max="31" width="11.5546875" style="1" customWidth="1"/>
+    <col min="32" max="32" width="15" style="1" customWidth="1"/>
+    <col min="33" max="33" width="15.21875" style="11" customWidth="1"/>
+    <col min="34" max="34" width="19.33203125" style="11" customWidth="1"/>
+    <col min="35" max="35" width="19.77734375" style="11" customWidth="1"/>
+    <col min="36" max="36" width="32.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="32.5546875" style="1" customWidth="1"/>
+    <col min="38" max="38" width="8.88671875" style="1"/>
+    <col min="39" max="39" width="13.88671875" style="1" customWidth="1"/>
+    <col min="40" max="40" width="15" style="1" customWidth="1"/>
+    <col min="41" max="41" width="34" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="34" style="1" customWidth="1"/>
+    <col min="43" max="43" width="8.88671875" style="1"/>
+    <col min="44" max="44" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="15.109375" style="1" customWidth="1"/>
+    <col min="46" max="46" width="19" style="11" customWidth="1"/>
+    <col min="47" max="47" width="22.6640625" style="11" customWidth="1"/>
+    <col min="48" max="48" width="32.33203125" style="11" customWidth="1"/>
+    <col min="49" max="49" width="51.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="51.77734375" style="1" customWidth="1"/>
+    <col min="51" max="51" width="8.88671875" style="1"/>
+    <col min="52" max="52" width="13.6640625" style="1" customWidth="1"/>
+    <col min="53" max="53" width="16.33203125" style="1" customWidth="1"/>
+    <col min="54" max="55" width="45.21875" style="1" customWidth="1"/>
+    <col min="56" max="56" width="8.88671875" style="1"/>
+    <col min="57" max="57" width="16.21875" style="1" customWidth="1"/>
+    <col min="58" max="58" width="15.6640625" style="1" customWidth="1"/>
+    <col min="59" max="59" width="44.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="44.77734375" style="1" customWidth="1"/>
+    <col min="61" max="61" width="8.88671875" style="1"/>
+    <col min="62" max="62" width="15.33203125" style="1" customWidth="1"/>
+    <col min="63" max="63" width="16.109375" style="1" customWidth="1"/>
+    <col min="64" max="64" width="33.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="33.109375" style="1" customWidth="1"/>
+    <col min="66" max="66" width="8.88671875" style="1"/>
+    <col min="67" max="67" width="14.21875" style="1" customWidth="1"/>
+    <col min="68" max="68" width="13.88671875" style="1" customWidth="1"/>
+    <col min="69" max="70" width="39.33203125" style="1" customWidth="1"/>
+    <col min="71" max="71" width="8.88671875" style="1"/>
+    <col min="72" max="72" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="11.77734375" style="1" customWidth="1"/>
+    <col min="74" max="75" width="11.6640625" style="1" customWidth="1"/>
+    <col min="76" max="76" width="8.88671875" style="1"/>
+    <col min="77" max="77" width="11.88671875" style="1" customWidth="1"/>
+    <col min="78" max="78" width="13" style="1" customWidth="1"/>
+    <col min="79" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:71" x14ac:dyDescent="0.3">
-      <c r="B2" s="11" t="s">
+    <row r="2" spans="2:80" x14ac:dyDescent="0.3">
+      <c r="B2" s="29" t="s">
         <v>228</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
       <c r="H2" s="9"/>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="29" t="s">
         <v>229</v>
       </c>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
       <c r="P2" s="9"/>
-      <c r="R2" s="11" t="s">
+      <c r="R2" s="30" t="s">
         <v>227</v>
       </c>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="9"/>
-      <c r="W2" s="11" t="s">
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="30"/>
+      <c r="X2" s="30"/>
+      <c r="Z2" s="30" t="s">
         <v>230</v>
       </c>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="9"/>
-      <c r="AB2" s="11" t="s">
+      <c r="AA2" s="30"/>
+      <c r="AB2" s="30"/>
+      <c r="AC2" s="30"/>
+      <c r="AE2" s="29" t="s">
         <v>231</v>
       </c>
-      <c r="AC2" s="11"/>
-      <c r="AD2" s="11"/>
-      <c r="AE2" s="9"/>
-      <c r="AG2" s="11" t="s">
+      <c r="AF2" s="29"/>
+      <c r="AG2" s="29"/>
+      <c r="AH2" s="29"/>
+      <c r="AI2" s="29"/>
+      <c r="AJ2" s="29"/>
+      <c r="AK2" s="29"/>
+      <c r="AM2" s="29" t="s">
         <v>232</v>
       </c>
-      <c r="AH2" s="11"/>
-      <c r="AI2" s="11"/>
-      <c r="AJ2" s="9"/>
-      <c r="AL2" s="11" t="s">
+      <c r="AN2" s="29"/>
+      <c r="AO2" s="29"/>
+      <c r="AP2" s="9"/>
+      <c r="AR2" s="29" t="s">
         <v>233</v>
       </c>
-      <c r="AM2" s="11"/>
-      <c r="AN2" s="11"/>
-      <c r="AO2" s="9"/>
-      <c r="AQ2" s="11" t="s">
+      <c r="AS2" s="29"/>
+      <c r="AT2" s="29"/>
+      <c r="AU2" s="29"/>
+      <c r="AV2" s="29"/>
+      <c r="AW2" s="29"/>
+      <c r="AX2" s="29"/>
+      <c r="AZ2" s="29" t="s">
         <v>234</v>
       </c>
-      <c r="AR2" s="11"/>
-      <c r="AS2" s="11"/>
-      <c r="AT2" s="9"/>
-      <c r="AV2" s="11" t="s">
+      <c r="BA2" s="29"/>
+      <c r="BB2" s="29"/>
+      <c r="BC2" s="9"/>
+      <c r="BE2" s="29" t="s">
         <v>235</v>
       </c>
-      <c r="AW2" s="11"/>
-      <c r="AX2" s="11"/>
-      <c r="AY2" s="9"/>
-      <c r="BA2" s="11" t="s">
+      <c r="BF2" s="29"/>
+      <c r="BG2" s="29"/>
+      <c r="BH2" s="9"/>
+      <c r="BJ2" s="29" t="s">
         <v>236</v>
       </c>
-      <c r="BB2" s="11"/>
-      <c r="BC2" s="11"/>
-      <c r="BD2" s="9"/>
-      <c r="BF2" s="11" t="s">
+      <c r="BK2" s="29"/>
+      <c r="BL2" s="29"/>
+      <c r="BM2" s="9"/>
+      <c r="BO2" s="29" t="s">
         <v>237</v>
       </c>
-      <c r="BG2" s="11"/>
-      <c r="BH2" s="11"/>
-      <c r="BI2" s="9"/>
-      <c r="BK2" s="11" t="s">
+      <c r="BP2" s="29"/>
+      <c r="BQ2" s="29"/>
+      <c r="BR2" s="9"/>
+      <c r="BT2" s="29" t="s">
         <v>239</v>
       </c>
-      <c r="BL2" s="11"/>
-      <c r="BM2" s="11"/>
-      <c r="BN2" s="9"/>
-      <c r="BP2" s="11" t="s">
+      <c r="BU2" s="29"/>
+      <c r="BV2" s="29"/>
+      <c r="BW2" s="9"/>
+      <c r="BY2" s="29" t="s">
         <v>238</v>
       </c>
-      <c r="BQ2" s="11"/>
-      <c r="BR2" s="11"/>
-      <c r="BS2" s="9"/>
+      <c r="BZ2" s="29"/>
+      <c r="CA2" s="29"/>
+      <c r="CB2" s="9"/>
     </row>
-    <row r="3" spans="2:71" x14ac:dyDescent="0.3">
-      <c r="B3" s="15" t="s">
+    <row r="3" spans="2:80" x14ac:dyDescent="0.3">
+      <c r="B3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="15" t="s">
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="H3" s="15"/>
+      <c r="H3" s="7"/>
       <c r="J3" s="7" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="7"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
       <c r="O3" s="7" t="s">
         <v>174</v>
       </c>
@@ -1621,310 +1658,373 @@
         <v>31</v>
       </c>
       <c r="S3" s="7"/>
-      <c r="T3" s="7" t="s">
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="U3" s="7"/>
-      <c r="W3" s="7" t="s">
+      <c r="X3" s="7"/>
+      <c r="Z3" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7" t="s">
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="Z3" s="7"/>
-      <c r="AB3" s="7" t="s">
+      <c r="AC3" s="7"/>
+      <c r="AE3" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="AC3" s="7"/>
-      <c r="AD3" s="7" t="s">
+      <c r="AF3" s="7"/>
+      <c r="AG3" s="12"/>
+      <c r="AH3" s="12"/>
+      <c r="AI3" s="12"/>
+      <c r="AJ3" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="AE3" s="7"/>
-      <c r="AG3" s="7" t="s">
+      <c r="AK3" s="7"/>
+      <c r="AM3" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="AH3" s="7"/>
-      <c r="AI3" s="7" t="s">
+      <c r="AN3" s="7"/>
+      <c r="AO3" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="AJ3" s="7"/>
-      <c r="AL3" s="7" t="s">
+      <c r="AP3" s="7"/>
+      <c r="AR3" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AM3" s="7"/>
-      <c r="AN3" s="7" t="s">
+      <c r="AS3" s="7"/>
+      <c r="AT3" s="12"/>
+      <c r="AU3" s="12"/>
+      <c r="AV3" s="12"/>
+      <c r="AW3" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="AO3" s="7"/>
-      <c r="AQ3" s="7" t="s">
+      <c r="AX3" s="7"/>
+      <c r="AZ3" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="AR3" s="7"/>
-      <c r="AS3" s="7" t="s">
+      <c r="BA3" s="7"/>
+      <c r="BB3" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="AT3" s="7"/>
-      <c r="AV3" s="8" t="s">
+      <c r="BC3" s="7"/>
+      <c r="BE3" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AW3" s="8"/>
-      <c r="AX3" s="8" t="s">
+      <c r="BF3" s="8"/>
+      <c r="BG3" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="AY3" s="8"/>
-      <c r="BA3" s="7" t="s">
+      <c r="BH3" s="8"/>
+      <c r="BJ3" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="BB3" s="7"/>
-      <c r="BC3" s="7" t="s">
+      <c r="BK3" s="7"/>
+      <c r="BL3" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="BD3" s="7"/>
-      <c r="BF3" s="7" t="s">
+      <c r="BM3" s="7"/>
+      <c r="BO3" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="BG3" s="7"/>
-      <c r="BH3" s="7" t="s">
+      <c r="BP3" s="7"/>
+      <c r="BQ3" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="BI3" s="7"/>
-      <c r="BK3" s="10" t="s">
+      <c r="BR3" s="7"/>
+      <c r="BT3" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="BL3" s="10"/>
-      <c r="BM3" s="10"/>
-      <c r="BN3" s="2"/>
-      <c r="BP3" s="10" t="s">
+      <c r="BU3" s="28"/>
+      <c r="BV3" s="28"/>
+      <c r="BW3" s="2"/>
+      <c r="BY3" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="BQ3" s="10"/>
-      <c r="BR3" s="10"/>
-      <c r="BS3" s="2"/>
+      <c r="BZ3" s="28"/>
+      <c r="CA3" s="28"/>
+      <c r="CB3" s="2"/>
     </row>
-    <row r="4" spans="2:71" s="6" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="21"/>
-      <c r="C4" s="21" t="s">
+    <row r="4" spans="2:80" s="6" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="18"/>
+      <c r="C4" s="18" t="s">
         <v>280</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="19" t="s">
         <v>278</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="19" t="s">
         <v>279</v>
       </c>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21" t="s">
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18" t="s">
         <v>280</v>
       </c>
-      <c r="L4" s="22" t="s">
+      <c r="L4" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="M4" s="22" t="s">
+      <c r="M4" s="19" t="s">
         <v>278</v>
       </c>
-      <c r="N4" s="22" t="s">
+      <c r="N4" s="19" t="s">
         <v>279</v>
       </c>
-      <c r="O4" s="21"/>
-      <c r="P4" s="24"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="21"/>
-      <c r="U4" s="24"/>
-      <c r="W4" s="21"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="21"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="T4" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="U4" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="V4" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="W4" s="18"/>
       <c r="X4" s="21"/>
-      <c r="Y4" s="21"/>
-      <c r="Z4" s="24"/>
-      <c r="AB4" s="21"/>
+      <c r="Z4" s="18"/>
+      <c r="AA4" s="18"/>
+      <c r="AB4" s="18"/>
       <c r="AC4" s="21"/>
-      <c r="AD4" s="21"/>
-      <c r="AE4" s="24"/>
-      <c r="AG4" s="21"/>
-      <c r="AH4" s="21"/>
-      <c r="AI4" s="21"/>
-      <c r="AJ4" s="24"/>
-      <c r="AL4" s="21"/>
-      <c r="AM4" s="21"/>
-      <c r="AN4" s="21"/>
-      <c r="AO4" s="24"/>
-      <c r="AQ4" s="21"/>
-      <c r="AR4" s="21"/>
-      <c r="AS4" s="21"/>
-      <c r="AT4" s="24"/>
-      <c r="AV4" s="23"/>
-      <c r="AW4" s="23"/>
-      <c r="AX4" s="23"/>
-      <c r="AY4" s="26"/>
-      <c r="BA4" s="21"/>
-      <c r="BB4" s="21"/>
+      <c r="AE4" s="18"/>
+      <c r="AF4" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="AG4" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH4" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="AI4" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="AJ4" s="18"/>
+      <c r="AK4" s="21"/>
+      <c r="AM4" s="18"/>
+      <c r="AN4" s="18"/>
+      <c r="AO4" s="18"/>
+      <c r="AP4" s="21"/>
+      <c r="AR4" s="18"/>
+      <c r="AS4" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="AT4" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="AU4" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="AV4" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="AW4" s="18"/>
+      <c r="AX4" s="21"/>
+      <c r="AZ4" s="18"/>
+      <c r="BA4" s="18"/>
+      <c r="BB4" s="18"/>
       <c r="BC4" s="21"/>
-      <c r="BD4" s="24"/>
-      <c r="BF4" s="21"/>
-      <c r="BG4" s="21"/>
-      <c r="BH4" s="21"/>
-      <c r="BI4" s="24"/>
-      <c r="BK4" s="21"/>
-      <c r="BL4" s="21"/>
+      <c r="BE4" s="20"/>
+      <c r="BF4" s="20"/>
+      <c r="BG4" s="20"/>
+      <c r="BH4" s="23"/>
+      <c r="BJ4" s="18"/>
+      <c r="BK4" s="18"/>
+      <c r="BL4" s="18"/>
       <c r="BM4" s="21"/>
-      <c r="BN4" s="24"/>
-      <c r="BP4" s="21"/>
-      <c r="BQ4" s="21"/>
+      <c r="BO4" s="18"/>
+      <c r="BP4" s="18"/>
+      <c r="BQ4" s="18"/>
       <c r="BR4" s="21"/>
-      <c r="BS4" s="24"/>
+      <c r="BT4" s="18"/>
+      <c r="BU4" s="18"/>
+      <c r="BV4" s="18"/>
+      <c r="BW4" s="21"/>
+      <c r="BY4" s="18"/>
+      <c r="BZ4" s="18"/>
+      <c r="CA4" s="18"/>
+      <c r="CB4" s="21"/>
     </row>
-    <row r="5" spans="2:71" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="17" t="s">
+    <row r="5" spans="2:80" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="16" t="s">
         <v>270</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="16" t="s">
         <v>275</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="H5" s="17"/>
-      <c r="J5" s="17" t="s">
+      <c r="H5" s="14"/>
+      <c r="J5" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="K5" s="17" t="s">
+      <c r="K5" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="L5" s="19" t="s">
+      <c r="L5" s="16" t="s">
         <v>262</v>
       </c>
-      <c r="M5" s="19" t="s">
+      <c r="M5" s="16" t="s">
         <v>270</v>
       </c>
-      <c r="N5" s="19" t="s">
+      <c r="N5" s="16" t="s">
         <v>275</v>
       </c>
-      <c r="O5" s="20" t="s">
+      <c r="O5" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="P5" s="12"/>
-      <c r="R5" s="17" t="s">
+      <c r="P5" s="10"/>
+      <c r="R5" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="S5" s="17" t="s">
+      <c r="S5" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="T5" s="20" t="s">
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="U5" s="25"/>
-      <c r="W5" s="17" t="s">
+      <c r="X5" s="10"/>
+      <c r="Z5" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="X5" s="17" t="s">
+      <c r="AA5" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="Y5" s="20" t="s">
+      <c r="AB5" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="Z5" s="12"/>
-      <c r="AB5" s="17" t="s">
+      <c r="AC5" s="10"/>
+      <c r="AE5" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="AC5" s="17" t="s">
+      <c r="AF5" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="AD5" s="20" t="s">
+      <c r="AG5" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="AH5" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="AI5" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="AJ5" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="AE5" s="12"/>
-      <c r="AG5" s="17" t="s">
+      <c r="AK5" s="10"/>
+      <c r="AM5" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="AH5" s="17" t="s">
+      <c r="AN5" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="AI5" s="20" t="s">
+      <c r="AO5" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="AJ5" s="12"/>
-      <c r="AL5" s="17" t="s">
+      <c r="AP5" s="10"/>
+      <c r="AR5" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="AM5" s="17" t="s">
+      <c r="AS5" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="AN5" s="20" t="s">
+      <c r="AT5" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="AU5" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="AV5" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="AW5" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="AO5" s="12"/>
-      <c r="AQ5" s="17" t="s">
+      <c r="AX5" s="10"/>
+      <c r="AZ5" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="AR5" s="17" t="s">
+      <c r="BA5" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="AS5" s="20" t="s">
+      <c r="BB5" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="AT5" s="12"/>
-      <c r="AV5" s="17" t="s">
+      <c r="BC5" s="10"/>
+      <c r="BE5" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="AW5" s="17" t="s">
+      <c r="BF5" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="AX5" s="20" t="s">
+      <c r="BG5" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="AY5" s="25"/>
-      <c r="BA5" s="17" t="s">
+      <c r="BH5" s="22"/>
+      <c r="BJ5" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="BB5" s="17" t="s">
+      <c r="BK5" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="BC5" s="20" t="s">
+      <c r="BL5" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="BD5" s="25"/>
-      <c r="BF5" s="17" t="s">
+      <c r="BM5" s="22"/>
+      <c r="BO5" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="BG5" s="17" t="s">
+      <c r="BP5" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="BH5" s="20" t="s">
+      <c r="BQ5" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="BI5" s="25"/>
-      <c r="BK5" s="17" t="s">
+      <c r="BR5" s="22"/>
+      <c r="BT5" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="BL5" s="17" t="s">
+      <c r="BU5" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="BM5" s="17"/>
-      <c r="BN5" s="27"/>
-      <c r="BP5" s="17" t="s">
+      <c r="BV5" s="14"/>
+      <c r="BW5" s="24"/>
+      <c r="BY5" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="BQ5" s="17" t="s">
+      <c r="BZ5" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="BR5" s="17"/>
-      <c r="BS5" s="27"/>
+      <c r="CA5" s="14"/>
+      <c r="CB5" s="24"/>
     </row>
-    <row r="6" spans="2:71" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:80" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
@@ -1934,10 +2034,10 @@
       <c r="D6" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="F6" s="12"/>
+      <c r="F6" s="10"/>
       <c r="G6" s="4" t="s">
         <v>68</v>
       </c>
@@ -1948,127 +2048,144 @@
       <c r="K6" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="L6" s="12" t="s">
+      <c r="L6" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="M6" s="12" t="s">
+      <c r="M6" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="N6" s="12" t="s">
+      <c r="N6" s="10" t="s">
         <v>287</v>
       </c>
       <c r="O6" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="P6" s="12"/>
+      <c r="P6" s="10"/>
       <c r="R6" s="3" t="s">
         <v>32</v>
       </c>
       <c r="S6" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="T6" s="4" t="s">
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="U6" s="25"/>
-      <c r="W6" s="3" t="s">
+      <c r="X6" s="10"/>
+      <c r="Z6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="X6" s="3" t="s">
+      <c r="AA6" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="Y6" s="4" t="s">
+      <c r="AB6" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="Z6" s="12"/>
-      <c r="AB6" s="3" t="s">
+      <c r="AC6" s="10"/>
+      <c r="AE6" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="AC6" s="3" t="s">
+      <c r="AF6" s="25" t="s">
         <v>253</v>
       </c>
-      <c r="AD6" s="4" t="s">
+      <c r="AG6" s="26"/>
+      <c r="AH6" s="26"/>
+      <c r="AI6" s="26"/>
+      <c r="AJ6" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="AE6" s="12"/>
-      <c r="AG6" s="3" t="s">
+      <c r="AK6" s="26" t="s">
+        <v>291</v>
+      </c>
+      <c r="AM6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AH6" s="3" t="s">
+      <c r="AN6" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="AI6" s="4" t="s">
+      <c r="AO6" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="AJ6" s="12"/>
-      <c r="AL6" s="3" t="s">
+      <c r="AP6" s="10"/>
+      <c r="AR6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="AM6" s="3" t="s">
+      <c r="AS6" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="AN6" s="4" t="s">
+      <c r="AT6" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="AU6" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="AV6" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="AW6" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="AO6" s="12"/>
-      <c r="AQ6" s="3" t="s">
+      <c r="AX6" s="10"/>
+      <c r="AZ6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AR6" s="3" t="s">
+      <c r="BA6" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="AS6" s="4" t="s">
+      <c r="BB6" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="AT6" s="12"/>
-      <c r="AV6" s="3" t="s">
+      <c r="BC6" s="10"/>
+      <c r="BE6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="AW6" s="3" t="s">
+      <c r="BF6" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="AX6" s="4" t="s">
+      <c r="BG6" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="AY6" s="25"/>
-      <c r="BA6" s="3" t="s">
+      <c r="BH6" s="22"/>
+      <c r="BJ6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="BB6" s="3" t="s">
+      <c r="BK6" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="BC6" s="4" t="s">
+      <c r="BL6" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="BD6" s="25"/>
-      <c r="BF6" s="3" t="s">
+      <c r="BM6" s="22"/>
+      <c r="BO6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="BG6" s="3" t="s">
+      <c r="BP6" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="BH6" s="4" t="s">
+      <c r="BQ6" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="BI6" s="25"/>
-      <c r="BK6" s="3" t="s">
+      <c r="BR6" s="22"/>
+      <c r="BT6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="BL6" s="3" t="s">
+      <c r="BU6" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="BM6" s="3"/>
-      <c r="BN6" s="27"/>
-      <c r="BP6" s="3" t="s">
+      <c r="BV6" s="3"/>
+      <c r="BW6" s="24"/>
+      <c r="BY6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="BQ6" s="3" t="s">
+      <c r="BZ6" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="BR6" s="3"/>
-      <c r="BS6" s="27"/>
+      <c r="CA6" s="3"/>
+      <c r="CB6" s="24"/>
     </row>
-    <row r="7" spans="2:71" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:80" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="3" t="s">
         <v>2</v>
       </c>
@@ -2078,10 +2195,10 @@
       <c r="D7" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="F7" s="12"/>
+      <c r="F7" s="10"/>
       <c r="G7" s="4" t="s">
         <v>160</v>
       </c>
@@ -2092,125 +2209,142 @@
       <c r="K7" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="L7" s="12" t="s">
+      <c r="L7" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="M7" s="12" t="s">
+      <c r="M7" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="N7" s="12"/>
+      <c r="N7" s="10"/>
       <c r="O7" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="P7" s="12"/>
+      <c r="P7" s="10"/>
       <c r="R7" s="3" t="s">
         <v>33</v>
       </c>
       <c r="S7" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="T7" s="4" t="s">
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="U7" s="25"/>
-      <c r="W7" s="3" t="s">
+      <c r="X7" s="10"/>
+      <c r="Z7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="X7" s="3" t="s">
+      <c r="AA7" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="Y7" s="4" t="s">
+      <c r="AB7" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="Z7" s="12"/>
-      <c r="AB7" s="3" t="s">
+      <c r="AC7" s="10"/>
+      <c r="AE7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AC7" s="3" t="s">
+      <c r="AF7" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="AD7" s="4" t="s">
+      <c r="AG7" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="AH7" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="AI7" s="10"/>
+      <c r="AJ7" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="AE7" s="12"/>
-      <c r="AG7" s="3" t="s">
+      <c r="AK7" s="10"/>
+      <c r="AM7" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AH7" s="3" t="s">
+      <c r="AN7" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="AI7" s="4" t="s">
+      <c r="AO7" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="AJ7" s="12"/>
-      <c r="AL7" s="3" t="s">
+      <c r="AP7" s="10"/>
+      <c r="AR7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AM7" s="3" t="s">
+      <c r="AS7" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="AN7" s="4" t="s">
+      <c r="AT7" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="AU7" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="AV7" s="10"/>
+      <c r="AW7" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="AO7" s="12"/>
-      <c r="AQ7" s="3" t="s">
+      <c r="AX7" s="10"/>
+      <c r="AZ7" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AR7" s="3" t="s">
+      <c r="BA7" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="AS7" s="4" t="s">
+      <c r="BB7" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="AT7" s="12"/>
-      <c r="AV7" s="3" t="s">
+      <c r="BC7" s="10"/>
+      <c r="BE7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AW7" s="3" t="s">
+      <c r="BF7" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="AX7" s="4" t="s">
+      <c r="BG7" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="AY7" s="25"/>
-      <c r="BA7" s="3" t="s">
+      <c r="BH7" s="22"/>
+      <c r="BJ7" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="BB7" s="3" t="s">
+      <c r="BK7" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="BC7" s="4" t="s">
+      <c r="BL7" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="BD7" s="25"/>
-      <c r="BF7" s="3" t="s">
+      <c r="BM7" s="22"/>
+      <c r="BO7" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="BG7" s="3" t="s">
+      <c r="BP7" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="BH7" s="4" t="s">
+      <c r="BQ7" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="BI7" s="25"/>
-      <c r="BK7" s="3" t="s">
+      <c r="BR7" s="22"/>
+      <c r="BT7" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="BL7" s="3" t="s">
+      <c r="BU7" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="BM7" s="3"/>
-      <c r="BN7" s="27"/>
-      <c r="BP7" s="3" t="s">
+      <c r="BV7" s="3"/>
+      <c r="BW7" s="24"/>
+      <c r="BY7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="BQ7" s="3" t="s">
+      <c r="BZ7" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="BR7" s="3"/>
-      <c r="BS7" s="27"/>
+      <c r="CA7" s="3"/>
+      <c r="CB7" s="24"/>
     </row>
-    <row r="8" spans="2:71" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:80" ht="63" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="3" t="s">
         <v>3</v>
       </c>
@@ -2220,33 +2354,33 @@
       <c r="D8" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="10" t="s">
         <v>276</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="H8" s="17"/>
-      <c r="J8" s="28" t="s">
+      <c r="H8" s="14"/>
+      <c r="J8" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="28" t="s">
+      <c r="K8" s="25" t="s">
         <v>246</v>
       </c>
-      <c r="L8" s="29" t="s">
+      <c r="L8" s="26" t="s">
         <v>282</v>
       </c>
-      <c r="M8" s="29" t="s">
+      <c r="M8" s="26" t="s">
         <v>272</v>
       </c>
-      <c r="N8" s="29"/>
-      <c r="O8" s="30" t="s">
+      <c r="N8" s="26"/>
+      <c r="O8" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="P8" s="29" t="s">
+      <c r="P8" s="26" t="s">
         <v>288</v>
       </c>
       <c r="R8" s="3" t="s">
@@ -2255,90 +2389,109 @@
       <c r="S8" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="T8" s="4" t="s">
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="U8" s="25"/>
-      <c r="W8" s="3" t="s">
+      <c r="X8" s="10"/>
+      <c r="Z8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="X8" s="3" t="s">
+      <c r="AA8" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="Y8" s="4" t="s">
+      <c r="AB8" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="Z8" s="12"/>
-      <c r="AB8" s="3" t="s">
+      <c r="AC8" s="10"/>
+      <c r="AE8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AC8" s="3" t="s">
+      <c r="AF8" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="AD8" s="4" t="s">
+      <c r="AG8" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="AH8" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="AI8" s="10"/>
+      <c r="AJ8" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="AE8" s="12"/>
-      <c r="AL8" s="3" t="s">
+      <c r="AK8" s="10"/>
+      <c r="AR8" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="AM8" s="3" t="s">
+      <c r="AS8" s="25" t="s">
         <v>198</v>
       </c>
-      <c r="AN8" s="4" t="s">
+      <c r="AT8" s="26" t="s">
+        <v>282</v>
+      </c>
+      <c r="AU8" s="26" t="s">
+        <v>273</v>
+      </c>
+      <c r="AV8" s="26"/>
+      <c r="AW8" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="AO8" s="12"/>
-      <c r="AQ8" s="3" t="s">
+      <c r="AX8" s="26" t="s">
+        <v>291</v>
+      </c>
+      <c r="AZ8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="AR8" s="3" t="s">
+      <c r="BA8" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="AS8" s="4" t="s">
+      <c r="BB8" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="AT8" s="12"/>
-      <c r="AV8" s="3" t="s">
+      <c r="BC8" s="10"/>
+      <c r="BE8" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AW8" s="3" t="s">
+      <c r="BF8" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="AX8" s="4" t="s">
+      <c r="BG8" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="AY8" s="25"/>
-      <c r="BA8" s="3" t="s">
+      <c r="BH8" s="22"/>
+      <c r="BJ8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="BB8" s="3" t="s">
+      <c r="BK8" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="BC8" s="4" t="s">
+      <c r="BL8" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="BD8" s="25"/>
-      <c r="BF8" s="3" t="s">
+      <c r="BM8" s="22"/>
+      <c r="BO8" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="BG8" s="3" t="s">
+      <c r="BP8" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="BH8" s="4" t="s">
+      <c r="BQ8" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="BI8" s="25"/>
-      <c r="BP8" s="3" t="s">
+      <c r="BR8" s="22"/>
+      <c r="BY8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="BQ8" s="3" t="s">
+      <c r="BZ8" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="BR8" s="3"/>
-      <c r="BS8" s="27"/>
+      <c r="CA8" s="3"/>
+      <c r="CB8" s="24"/>
     </row>
-    <row r="9" spans="2:71" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:80" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="3" t="s">
         <v>4</v>
       </c>
@@ -2348,10 +2501,10 @@
       <c r="D9" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="10" t="s">
         <v>277</v>
       </c>
       <c r="G9" s="4" t="s">
@@ -2364,99 +2517,113 @@
       <c r="K9" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="L9" s="12" t="s">
+      <c r="L9" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="M9" s="12" t="s">
+      <c r="M9" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="N9" s="12" t="s">
+      <c r="N9" s="10" t="s">
         <v>286</v>
       </c>
       <c r="O9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="P9" s="12"/>
-      <c r="W9" s="3" t="s">
+      <c r="P9" s="10"/>
+      <c r="Z9" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="X9" s="3" t="s">
+      <c r="AA9" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="Y9" s="4" t="s">
+      <c r="AB9" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="Z9" s="12"/>
-      <c r="AB9" s="3" t="s">
+      <c r="AC9" s="10"/>
+      <c r="AE9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="AC9" s="3" t="s">
+      <c r="AF9" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="AD9" s="4" t="s">
+      <c r="AG9" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="AH9" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="AI9" s="10"/>
+      <c r="AJ9" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="AE9" s="12"/>
-      <c r="AL9" s="3" t="s">
+      <c r="AK9" s="10"/>
+      <c r="AR9" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AM9" s="3" t="s">
+      <c r="AS9" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="AN9" s="4" t="s">
+      <c r="AT9" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="AU9" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="AV9" s="10"/>
+      <c r="AW9" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="AO9" s="12"/>
-      <c r="AQ9" s="3" t="s">
+      <c r="AX9" s="10"/>
+      <c r="AZ9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="AR9" s="3" t="s">
+      <c r="BA9" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="AS9" s="4" t="s">
+      <c r="BB9" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="AT9" s="12"/>
-      <c r="AV9" s="3" t="s">
+      <c r="BC9" s="10"/>
+      <c r="BE9" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AW9" s="3" t="s">
+      <c r="BF9" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="AX9" s="4" t="s">
+      <c r="BG9" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="AY9" s="25"/>
-      <c r="BA9" s="3" t="s">
+      <c r="BH9" s="22"/>
+      <c r="BJ9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="BB9" s="3" t="s">
+      <c r="BK9" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="BC9" s="4" t="s">
+      <c r="BL9" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="BD9" s="25"/>
-      <c r="BF9" s="3" t="s">
+      <c r="BM9" s="22"/>
+      <c r="BO9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="BG9" s="3" t="s">
+      <c r="BP9" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="BH9" s="4" t="s">
+      <c r="BQ9" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="BI9" s="25"/>
-      <c r="BP9" s="3" t="s">
+      <c r="BR9" s="22"/>
+      <c r="BY9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="BQ9" s="3" t="s">
+      <c r="BZ9" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="BR9" s="3"/>
-      <c r="BS9" s="27"/>
+      <c r="CA9" s="3"/>
+      <c r="CB9" s="24"/>
     </row>
-    <row r="10" spans="2:71" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:80" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="3" t="s">
         <v>167</v>
       </c>
@@ -2466,10 +2633,10 @@
       <c r="D10" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="F10" s="12"/>
+      <c r="F10" s="10"/>
       <c r="G10" s="4" t="s">
         <v>168</v>
       </c>
@@ -2480,89 +2647,103 @@
       <c r="K10" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="L10" s="12" t="s">
+      <c r="L10" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="M10" s="12" t="s">
+      <c r="M10" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="N10" s="12"/>
+      <c r="N10" s="10"/>
       <c r="O10" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="P10" s="12"/>
-      <c r="W10" s="3" t="s">
+      <c r="P10" s="10"/>
+      <c r="Z10" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X10" s="3" t="s">
+      <c r="AA10" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="Y10" s="4" t="s">
+      <c r="AB10" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="Z10" s="12"/>
-      <c r="AB10" s="3" t="s">
+      <c r="AC10" s="10"/>
+      <c r="AE10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AC10" s="3" t="s">
+      <c r="AF10" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="AD10" s="4" t="s">
+      <c r="AG10" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="AH10" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="AI10" s="10"/>
+      <c r="AJ10" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="AE10" s="12"/>
-      <c r="AL10" s="3" t="s">
+      <c r="AK10" s="10"/>
+      <c r="AR10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="AM10" s="3" t="s">
+      <c r="AS10" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="AN10" s="4" t="s">
+      <c r="AT10" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="AU10" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="AV10" s="10"/>
+      <c r="AW10" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="AO10" s="12"/>
-      <c r="AQ10" s="3" t="s">
+      <c r="AX10" s="10"/>
+      <c r="AZ10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="AR10" s="3" t="s">
+      <c r="BA10" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="AS10" s="4" t="s">
+      <c r="BB10" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="AT10" s="12"/>
-      <c r="AV10" s="3" t="s">
+      <c r="BC10" s="10"/>
+      <c r="BE10" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AW10" s="3" t="s">
+      <c r="BF10" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="AX10" s="4" t="s">
+      <c r="BG10" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="AY10" s="25"/>
-      <c r="BA10" s="3" t="s">
+      <c r="BH10" s="22"/>
+      <c r="BJ10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="BB10" s="3" t="s">
+      <c r="BK10" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="BC10" s="4" t="s">
+      <c r="BL10" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="BD10" s="25"/>
-      <c r="BF10" s="3" t="s">
+      <c r="BM10" s="22"/>
+      <c r="BO10" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="BG10" s="3" t="s">
+      <c r="BP10" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="BH10" s="4" t="s">
+      <c r="BQ10" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="BI10" s="25"/>
+      <c r="BR10" s="22"/>
     </row>
-    <row r="11" spans="2:71" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:80" ht="63" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="3" t="s">
         <v>5</v>
       </c>
@@ -2572,95 +2753,102 @@
       <c r="D11" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="F11" s="12"/>
+      <c r="F11" s="10"/>
       <c r="G11" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="H11" s="17"/>
-      <c r="J11" s="28" t="s">
+      <c r="H11" s="14"/>
+      <c r="J11" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="K11" s="28" t="s">
+      <c r="K11" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="L11" s="29" t="s">
+      <c r="L11" s="26" t="s">
         <v>283</v>
       </c>
-      <c r="M11" s="29" t="s">
+      <c r="M11" s="26" t="s">
         <v>274</v>
       </c>
-      <c r="N11" s="29"/>
-      <c r="O11" s="30" t="s">
+      <c r="N11" s="26"/>
+      <c r="O11" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="P11" s="29" t="s">
+      <c r="P11" s="26" t="s">
         <v>288</v>
       </c>
-      <c r="W11" s="3" t="s">
+      <c r="Z11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="X11" s="3" t="s">
+      <c r="AA11" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="Y11" s="4" t="s">
+      <c r="AB11" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Z11" s="12"/>
-      <c r="AL11" s="3" t="s">
+      <c r="AC11" s="10"/>
+      <c r="AR11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="AM11" s="3" t="s">
+      <c r="AS11" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="AN11" s="4" t="s">
+      <c r="AT11" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="AU11" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="AV11" s="10"/>
+      <c r="AW11" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="AO11" s="12"/>
-      <c r="AQ11" s="3" t="s">
+      <c r="AX11" s="10"/>
+      <c r="AZ11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AR11" s="3" t="s">
+      <c r="BA11" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="AS11" s="4" t="s">
+      <c r="BB11" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="AT11" s="12"/>
-      <c r="AV11" s="3" t="s">
+      <c r="BC11" s="10"/>
+      <c r="BE11" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="AW11" s="3" t="s">
+      <c r="BF11" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="AX11" s="4" t="s">
+      <c r="BG11" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="AY11" s="25"/>
-      <c r="BA11" s="3" t="s">
+      <c r="BH11" s="22"/>
+      <c r="BJ11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="BB11" s="3" t="s">
+      <c r="BK11" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="BC11" s="4" t="s">
+      <c r="BL11" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="BD11" s="25"/>
-      <c r="BF11" s="3" t="s">
+      <c r="BM11" s="22"/>
+      <c r="BO11" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="BG11" s="3" t="s">
+      <c r="BP11" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="BH11" s="4" t="s">
+      <c r="BQ11" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="BI11" s="25"/>
+      <c r="BR11" s="22"/>
     </row>
-    <row r="12" spans="2:71" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:80" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="3" t="s">
         <v>6</v>
       </c>
@@ -2670,95 +2858,102 @@
       <c r="D12" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="F12" s="12"/>
+      <c r="F12" s="10"/>
       <c r="G12" s="4" t="s">
         <v>71</v>
       </c>
       <c r="H12" s="3"/>
-      <c r="J12" s="28" t="s">
+      <c r="J12" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="28" t="s">
+      <c r="K12" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="L12" s="29" t="s">
+      <c r="L12" s="26" t="s">
         <v>282</v>
       </c>
-      <c r="M12" s="29" t="s">
+      <c r="M12" s="26" t="s">
         <v>273</v>
       </c>
-      <c r="N12" s="29"/>
-      <c r="O12" s="30" t="s">
+      <c r="N12" s="26"/>
+      <c r="O12" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="P12" s="29" t="s">
+      <c r="P12" s="26" t="s">
         <v>288</v>
       </c>
-      <c r="W12" s="3" t="s">
+      <c r="Z12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="X12" s="3" t="s">
+      <c r="AA12" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="Y12" s="4" t="s">
+      <c r="AB12" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="Z12" s="12"/>
-      <c r="AL12" s="3" t="s">
+      <c r="AC12" s="10"/>
+      <c r="AR12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AM12" s="3" t="s">
+      <c r="AS12" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="AN12" s="4" t="s">
+      <c r="AT12" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="AU12" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="AV12" s="10"/>
+      <c r="AW12" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="AO12" s="12"/>
-      <c r="AQ12" s="3" t="s">
+      <c r="AX12" s="10"/>
+      <c r="AZ12" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AR12" s="3" t="s">
+      <c r="BA12" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="AS12" s="4" t="s">
+      <c r="BB12" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="AT12" s="12"/>
-      <c r="AV12" s="3" t="s">
+      <c r="BC12" s="10"/>
+      <c r="BE12" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AW12" s="3" t="s">
+      <c r="BF12" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="AX12" s="4" t="s">
+      <c r="BG12" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="AY12" s="25"/>
-      <c r="BA12" s="3" t="s">
+      <c r="BH12" s="22"/>
+      <c r="BJ12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="BB12" s="3" t="s">
+      <c r="BK12" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="BC12" s="4" t="s">
+      <c r="BL12" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="BD12" s="25"/>
-      <c r="BF12" s="3" t="s">
+      <c r="BM12" s="22"/>
+      <c r="BO12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="BG12" s="3" t="s">
+      <c r="BP12" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="BH12" s="4" t="s">
+      <c r="BQ12" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="BI12" s="25"/>
+      <c r="BR12" s="22"/>
     </row>
-    <row r="13" spans="2:71" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:80" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="3" t="s">
         <v>7</v>
       </c>
@@ -2768,10 +2963,10 @@
       <c r="D13" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="F13" s="12"/>
+      <c r="F13" s="10"/>
       <c r="G13" s="4" t="s">
         <v>172</v>
       </c>
@@ -2782,79 +2977,86 @@
       <c r="K13" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="L13" s="12" t="s">
+      <c r="L13" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="M13" s="12" t="s">
+      <c r="M13" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="N13" s="12"/>
+      <c r="N13" s="10"/>
       <c r="O13" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="P13" s="12"/>
-      <c r="W13" s="3" t="s">
+      <c r="P13" s="10"/>
+      <c r="Z13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="X13" s="3" t="s">
+      <c r="AA13" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="Y13" s="4" t="s">
+      <c r="AB13" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="Z13" s="12"/>
-      <c r="AL13" s="3" t="s">
+      <c r="AC13" s="10"/>
+      <c r="AR13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AM13" s="3" t="s">
+      <c r="AS13" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="AN13" s="4" t="s">
+      <c r="AT13" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="AU13" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="AV13" s="10"/>
+      <c r="AW13" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="AO13" s="12"/>
-      <c r="AQ13" s="3" t="s">
+      <c r="AX13" s="10"/>
+      <c r="AZ13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AR13" s="3" t="s">
+      <c r="BA13" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="AS13" s="4" t="s">
+      <c r="BB13" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="AT13" s="12"/>
-      <c r="AV13" s="3" t="s">
+      <c r="BC13" s="10"/>
+      <c r="BE13" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="AW13" s="3" t="s">
+      <c r="BF13" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="AX13" s="4" t="s">
+      <c r="BG13" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="AY13" s="25"/>
-      <c r="BA13" s="3" t="s">
+      <c r="BH13" s="22"/>
+      <c r="BJ13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="BB13" s="3" t="s">
+      <c r="BK13" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="BC13" s="4" t="s">
+      <c r="BL13" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="BD13" s="25"/>
-      <c r="BF13" s="3" t="s">
+      <c r="BM13" s="22"/>
+      <c r="BO13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="BG13" s="3" t="s">
+      <c r="BP13" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="BH13" s="4" t="s">
+      <c r="BQ13" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="BI13" s="25"/>
+      <c r="BR13" s="22"/>
     </row>
-    <row r="14" spans="2:71" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:80" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="3" t="s">
         <v>8</v>
       </c>
@@ -2864,84 +3066,93 @@
       <c r="D14" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="F14" s="12"/>
+      <c r="F14" s="10"/>
       <c r="G14" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="H14" s="17"/>
+      <c r="H14" s="14"/>
       <c r="J14" s="3" t="s">
         <v>22</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="L14" s="12" t="s">
+      <c r="L14" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="M14" s="12" t="s">
+      <c r="M14" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="N14" s="12"/>
+      <c r="N14" s="10"/>
       <c r="O14" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="P14" s="12"/>
-      <c r="Z14" s="12"/>
-      <c r="AL14" s="3" t="s">
+      <c r="P14" s="10"/>
+      <c r="AC14" s="10"/>
+      <c r="AR14" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AM14" s="3" t="s">
+      <c r="AS14" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="AN14" s="4" t="s">
+      <c r="AT14" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="AU14" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="AV14" s="10"/>
+      <c r="AW14" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="AO14" s="12"/>
-      <c r="AQ14" s="3" t="s">
+      <c r="AX14" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="AZ14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AR14" s="3" t="s">
+      <c r="BA14" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="AS14" s="4" t="s">
+      <c r="BB14" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="AT14" s="12"/>
-      <c r="AV14" s="3" t="s">
+      <c r="BC14" s="10"/>
+      <c r="BE14" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AW14" s="3" t="s">
+      <c r="BF14" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="AX14" s="4" t="s">
+      <c r="BG14" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="AY14" s="25"/>
-      <c r="BA14" s="3" t="s">
+      <c r="BH14" s="22"/>
+      <c r="BJ14" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="BB14" s="3" t="s">
+      <c r="BK14" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="BC14" s="4" t="s">
+      <c r="BL14" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="BD14" s="25"/>
-      <c r="BF14" s="3" t="s">
+      <c r="BM14" s="22"/>
+      <c r="BO14" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="BG14" s="3" t="s">
+      <c r="BP14" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="BH14" s="4" t="s">
+      <c r="BQ14" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="BI14" s="25"/>
+      <c r="BR14" s="22"/>
     </row>
-    <row r="15" spans="2:71" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:80" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="3" t="s">
         <v>9</v>
       </c>
@@ -2951,10 +3162,10 @@
       <c r="D15" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="F15" s="12"/>
+      <c r="F15" s="10"/>
       <c r="G15" s="4" t="s">
         <v>73</v>
       </c>
@@ -2965,49 +3176,56 @@
       <c r="K15" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="L15" s="12" t="s">
+      <c r="L15" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="M15" s="12" t="s">
+      <c r="M15" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="N15" s="12"/>
+      <c r="N15" s="10"/>
       <c r="O15" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="P15" s="12"/>
-      <c r="AL15" s="3" t="s">
+      <c r="P15" s="10"/>
+      <c r="AR15" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="AM15" s="3" t="s">
+      <c r="AS15" s="25" t="s">
         <v>204</v>
       </c>
-      <c r="AN15" s="4" t="s">
+      <c r="AT15" s="26" t="s">
+        <v>263</v>
+      </c>
+      <c r="AU15" s="26" t="s">
+        <v>271</v>
+      </c>
+      <c r="AV15" s="26"/>
+      <c r="AW15" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="AO15" s="12"/>
-      <c r="AQ15" s="3" t="s">
+      <c r="AX15" s="26"/>
+      <c r="AZ15" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AR15" s="3" t="s">
+      <c r="BA15" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="AS15" s="4" t="s">
+      <c r="BB15" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="AT15" s="12"/>
-      <c r="AV15" s="3" t="s">
+      <c r="BC15" s="10"/>
+      <c r="BE15" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AW15" s="3" t="s">
+      <c r="BF15" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="AX15" s="4" t="s">
+      <c r="BG15" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="AY15" s="25"/>
+      <c r="BH15" s="22"/>
     </row>
-    <row r="16" spans="2:71" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:80" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="3" t="s">
         <v>10</v>
       </c>
@@ -3017,10 +3235,10 @@
       <c r="D16" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="F16" s="12"/>
+      <c r="F16" s="10"/>
       <c r="G16" s="4" t="s">
         <v>74</v>
       </c>
@@ -3031,385 +3249,438 @@
       <c r="K16" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="L16" s="12" t="s">
+      <c r="L16" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="M16" s="12" t="s">
+      <c r="M16" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="N16" s="12"/>
+      <c r="N16" s="10"/>
       <c r="O16" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="P16" s="12"/>
-      <c r="AL16" s="3" t="s">
+      <c r="P16" s="10"/>
+      <c r="AR16" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="AM16" s="3" t="s">
+      <c r="AS16" s="25" t="s">
         <v>219</v>
       </c>
-      <c r="AN16" s="4" t="s">
+      <c r="AT16" s="26" t="s">
+        <v>263</v>
+      </c>
+      <c r="AU16" s="26" t="s">
+        <v>271</v>
+      </c>
+      <c r="AV16" s="26"/>
+      <c r="AW16" s="27" t="s">
         <v>223</v>
       </c>
-      <c r="AO16" s="12"/>
-      <c r="AV16" s="3" t="s">
+      <c r="AX16" s="26" t="s">
+        <v>291</v>
+      </c>
+      <c r="BE16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="AW16" s="3" t="s">
+      <c r="BF16" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="AX16" s="4" t="s">
+      <c r="BG16" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="AY16" s="25"/>
+      <c r="BH16" s="22"/>
     </row>
-    <row r="17" spans="10:51" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="10:60" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J17" s="3" t="s">
         <v>25</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="L17" s="12" t="s">
+      <c r="L17" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="M17" s="12" t="s">
+      <c r="M17" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="N17" s="12"/>
+      <c r="N17" s="10"/>
       <c r="O17" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="P17" s="12"/>
-      <c r="AL17" s="3" t="s">
+      <c r="P17" s="10"/>
+      <c r="AR17" s="25" t="s">
         <v>220</v>
       </c>
-      <c r="AM17" s="3" t="s">
+      <c r="AS17" s="25" t="s">
         <v>221</v>
       </c>
-      <c r="AN17" s="4" t="s">
+      <c r="AT17" s="26" t="s">
+        <v>263</v>
+      </c>
+      <c r="AU17" s="26" t="s">
+        <v>271</v>
+      </c>
+      <c r="AV17" s="26"/>
+      <c r="AW17" s="27" t="s">
         <v>222</v>
       </c>
-      <c r="AO17" s="12"/>
-      <c r="AV17" s="3" t="s">
+      <c r="AX17" s="26" t="s">
+        <v>291</v>
+      </c>
+      <c r="BE17" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AW17" s="3" t="s">
+      <c r="BF17" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="AX17" s="4" t="s">
+      <c r="BG17" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="AY17" s="25"/>
+      <c r="BH17" s="22"/>
     </row>
-    <row r="18" spans="10:51" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="10:60" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J18" s="3" t="s">
         <v>26</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="L18" s="12" t="s">
+      <c r="L18" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="M18" s="12" t="s">
+      <c r="M18" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="N18" s="12"/>
+      <c r="N18" s="10"/>
       <c r="O18" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="P18" s="12"/>
-      <c r="AL18" s="3" t="s">
+      <c r="P18" s="10"/>
+      <c r="AR18" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AM18" s="3" t="s">
+      <c r="AS18" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="AN18" s="4" t="s">
+      <c r="AT18" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="AU18" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="AV18" s="10"/>
+      <c r="AW18" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="AO18" s="12"/>
-      <c r="AV18" s="3" t="s">
+      <c r="AX18" s="10"/>
+      <c r="BE18" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="AW18" s="3" t="s">
+      <c r="BF18" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="AX18" s="4" t="s">
+      <c r="BG18" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="AY18" s="25"/>
+      <c r="BH18" s="22"/>
     </row>
-    <row r="19" spans="10:51" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="10:60" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J19" s="3" t="s">
         <v>27</v>
       </c>
       <c r="K19" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="L19" s="12" t="s">
+      <c r="L19" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="M19" s="12" t="s">
+      <c r="M19" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="N19" s="12"/>
+      <c r="N19" s="10"/>
       <c r="O19" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="P19" s="12"/>
-      <c r="AL19" s="3" t="s">
+      <c r="P19" s="10"/>
+      <c r="AR19" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AM19" s="3" t="s">
+      <c r="AS19" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="AN19" s="4" t="s">
+      <c r="AT19" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="AU19" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="AV19" s="10"/>
+      <c r="AW19" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="AO19" s="12"/>
-      <c r="AV19" s="3" t="s">
+      <c r="AX19" s="10"/>
+      <c r="BE19" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="AW19" s="3" t="s">
+      <c r="BF19" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="AX19" s="4" t="s">
+      <c r="BG19" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="AY19" s="25"/>
+      <c r="BH19" s="22"/>
     </row>
-    <row r="20" spans="10:51" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="10:60" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J20" s="3" t="s">
         <v>28</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="L20" s="12" t="s">
+      <c r="L20" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="M20" s="12" t="s">
+      <c r="M20" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="N20" s="12"/>
+      <c r="N20" s="10"/>
       <c r="O20" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="P20" s="12"/>
-      <c r="AL20" s="3" t="s">
+      <c r="P20" s="10"/>
+      <c r="AR20" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AM20" s="3" t="s">
+      <c r="AS20" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="AN20" s="4" t="s">
+      <c r="AT20" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="AU20" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="AV20" s="10"/>
+      <c r="AW20" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="AO20" s="12"/>
-      <c r="AV20" s="3" t="s">
+      <c r="AX20" s="10"/>
+      <c r="BE20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AW20" s="3" t="s">
+      <c r="BF20" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="AX20" s="4" t="s">
+      <c r="BG20" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="AY20" s="25"/>
+      <c r="BH20" s="22"/>
     </row>
-    <row r="21" spans="10:51" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="10:60" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J21" s="3" t="s">
         <v>29</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="L21" s="12" t="s">
+      <c r="L21" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="M21" s="12" t="s">
+      <c r="M21" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="N21" s="12"/>
+      <c r="N21" s="10"/>
       <c r="O21" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="P21" s="12"/>
-      <c r="AL21" s="3" t="s">
+      <c r="P21" s="10"/>
+      <c r="AR21" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AM21" s="3" t="s">
+      <c r="AS21" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="AN21" s="4" t="s">
+      <c r="AT21" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="AU21" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="AV21" s="10"/>
+      <c r="AW21" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="AO21" s="12"/>
-      <c r="AV21" s="3" t="s">
+      <c r="AX21" s="10"/>
+      <c r="BE21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AW21" s="3" t="s">
+      <c r="BF21" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="AX21" s="4" t="s">
+      <c r="BG21" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="AY21" s="25"/>
+      <c r="BH21" s="22"/>
     </row>
-    <row r="22" spans="10:51" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="10:60" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J22" s="3" t="s">
         <v>30</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="L22" s="12" t="s">
+      <c r="L22" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="M22" s="12" t="s">
+      <c r="M22" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="N22" s="12"/>
+      <c r="N22" s="10"/>
       <c r="O22" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="P22" s="12"/>
-      <c r="AL22" s="3" t="s">
+      <c r="P22" s="10"/>
+      <c r="AR22" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AM22" s="3" t="s">
+      <c r="AS22" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="AN22" s="4" t="s">
+      <c r="AT22" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="AU22" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="AV22" s="10"/>
+      <c r="AW22" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="AO22" s="12"/>
-      <c r="AV22" s="3" t="s">
+      <c r="AX22" s="10"/>
+      <c r="BE22" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AW22" s="3" t="s">
+      <c r="BF22" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="AX22" s="4" t="s">
+      <c r="BG22" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="AY22" s="25"/>
+      <c r="BH22" s="22"/>
     </row>
-    <row r="23" spans="10:51" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="AV23" s="3" t="s">
+    <row r="23" spans="10:60" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BE23" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AW23" s="3" t="s">
+      <c r="BF23" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="AX23" s="4" t="s">
+      <c r="BG23" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="AY23" s="25"/>
+      <c r="BH23" s="22"/>
     </row>
-    <row r="24" spans="10:51" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="AV24" s="3" t="s">
+    <row r="24" spans="10:60" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BE24" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="AW24" s="3" t="s">
+      <c r="BF24" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="AX24" s="4" t="s">
+      <c r="BG24" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="AY24" s="25"/>
+      <c r="BH24" s="22"/>
     </row>
-    <row r="25" spans="10:51" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="AV25" s="3" t="s">
+    <row r="25" spans="10:60" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BE25" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="AW25" s="3" t="s">
+      <c r="BF25" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="AX25" s="4" t="s">
+      <c r="BG25" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="AY25" s="25"/>
+      <c r="BH25" s="22"/>
     </row>
-    <row r="26" spans="10:51" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="AV26" s="3" t="s">
+    <row r="26" spans="10:60" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BE26" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AW26" s="3" t="s">
+      <c r="BF26" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="AX26" s="4" t="s">
+      <c r="BG26" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="AY26" s="25"/>
+      <c r="BH26" s="22"/>
     </row>
-    <row r="27" spans="10:51" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="AV27" s="3" t="s">
+    <row r="27" spans="10:60" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BE27" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AW27" s="3" t="s">
+      <c r="BF27" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="AX27" s="4" t="s">
+      <c r="BG27" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="AY27" s="25"/>
+      <c r="BH27" s="22"/>
     </row>
-    <row r="28" spans="10:51" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="AV28" s="3" t="s">
+    <row r="28" spans="10:60" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BE28" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AW28" s="3" t="s">
+      <c r="BF28" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="AX28" s="4" t="s">
+      <c r="BG28" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="AY28" s="25"/>
+      <c r="BH28" s="22"/>
     </row>
-    <row r="29" spans="10:51" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="AV29" s="3" t="s">
+    <row r="29" spans="10:60" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BE29" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AW29" s="3" t="s">
+      <c r="BF29" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="AX29" s="4" t="s">
+      <c r="BG29" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="AY29" s="25"/>
+      <c r="BH29" s="22"/>
     </row>
-    <row r="30" spans="10:51" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="AV30" s="3" t="s">
+    <row r="30" spans="10:60" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BE30" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AW30" s="3" t="s">
+      <c r="BF30" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="AX30" s="4" t="s">
+      <c r="BG30" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="AY30" s="25"/>
+      <c r="BH30" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="BP3:BR3"/>
-    <mergeCell ref="BK3:BM3"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="Z2:AC2"/>
+    <mergeCell ref="AE2:AK2"/>
+    <mergeCell ref="AR2:AX2"/>
+    <mergeCell ref="BY3:CA3"/>
+    <mergeCell ref="BT3:BV3"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="J2:O2"/>
-    <mergeCell ref="AB2:AD2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AL2:AN2"/>
-    <mergeCell ref="AQ2:AS2"/>
-    <mergeCell ref="AV2:AX2"/>
-    <mergeCell ref="BA2:BC2"/>
-    <mergeCell ref="BF2:BH2"/>
-    <mergeCell ref="BK2:BM2"/>
-    <mergeCell ref="BP2:BR2"/>
+    <mergeCell ref="AM2:AO2"/>
+    <mergeCell ref="AZ2:BB2"/>
+    <mergeCell ref="BE2:BG2"/>
+    <mergeCell ref="BJ2:BL2"/>
+    <mergeCell ref="BO2:BQ2"/>
+    <mergeCell ref="BT2:BV2"/>
+    <mergeCell ref="BY2:CA2"/>
+    <mergeCell ref="R2:X2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/csdl-shopping-cart.xlsx
+++ b/csdl-shopping-cart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DEVMASTER\DEV2206LM_SpringBoot\shopping-cart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57CDCED1-58D1-4B50-BBBB-AB2C30E12AC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93DE9F80-2CAA-4FBF-93E0-0ED4509DBC94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{91351D13-8343-4BE5-AE49-126D9A46B319}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="299">
   <si>
     <t>Id</t>
   </si>
@@ -925,6 +925,22 @@
     <t>CONSTRAINT `fk_cart_user`
     FOREIGN KEY (`user_id`)
     REFERENCES `shop`.`user` (`id`)</t>
+  </si>
+  <si>
+    <t>BIGINT NOT NULL</t>
+  </si>
+  <si>
+    <t>CONSTRAINT `fk_cart_item_product`
+    FOREIGN KEY (`product_id`)
+    REFERENCES `shop`.`product` (`id`)</t>
+  </si>
+  <si>
+    <t>CONSTRAINT `fk_cart_item_cart`
+  FOREIGN KEY (`cart_id`)
+  REFERENCES `shop`.`cart` (`id`)</t>
+  </si>
+  <si>
+    <t>thay sessionId thành cartId</t>
   </si>
 </sst>
 </file>
@@ -1055,7 +1071,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1132,14 +1148,17 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1455,10 +1474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E867DBF7-62FE-4C81-BE5B-4B051B3412A0}">
-  <dimension ref="B2:CB30"/>
+  <dimension ref="B2:CE30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AQ1" workbookViewId="0">
-      <selection activeCell="AV7" sqref="AV7"/>
+    <sheetView tabSelected="1" topLeftCell="BG7" workbookViewId="0">
+      <selection activeCell="BK9" sqref="BK9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1507,36 +1526,40 @@
     <col min="47" max="47" width="22.6640625" style="11" customWidth="1"/>
     <col min="48" max="48" width="32.33203125" style="11" customWidth="1"/>
     <col min="49" max="49" width="51.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="51.77734375" style="1" customWidth="1"/>
+    <col min="50" max="50" width="16.109375" style="1" customWidth="1"/>
     <col min="51" max="51" width="8.88671875" style="1"/>
     <col min="52" max="52" width="13.6640625" style="1" customWidth="1"/>
-    <col min="53" max="53" width="16.33203125" style="1" customWidth="1"/>
-    <col min="54" max="55" width="45.21875" style="1" customWidth="1"/>
-    <col min="56" max="56" width="8.88671875" style="1"/>
-    <col min="57" max="57" width="16.21875" style="1" customWidth="1"/>
-    <col min="58" max="58" width="15.6640625" style="1" customWidth="1"/>
-    <col min="59" max="59" width="44.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="44.77734375" style="1" customWidth="1"/>
-    <col min="61" max="61" width="8.88671875" style="1"/>
-    <col min="62" max="62" width="15.33203125" style="1" customWidth="1"/>
-    <col min="63" max="63" width="16.109375" style="1" customWidth="1"/>
-    <col min="64" max="64" width="33.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="33.109375" style="1" customWidth="1"/>
-    <col min="66" max="66" width="8.88671875" style="1"/>
-    <col min="67" max="67" width="14.21875" style="1" customWidth="1"/>
-    <col min="68" max="68" width="13.88671875" style="1" customWidth="1"/>
-    <col min="69" max="70" width="39.33203125" style="1" customWidth="1"/>
-    <col min="71" max="71" width="8.88671875" style="1"/>
-    <col min="72" max="72" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="11.77734375" style="1" customWidth="1"/>
-    <col min="74" max="75" width="11.6640625" style="1" customWidth="1"/>
-    <col min="76" max="76" width="8.88671875" style="1"/>
-    <col min="77" max="77" width="11.88671875" style="1" customWidth="1"/>
-    <col min="78" max="78" width="13" style="1" customWidth="1"/>
-    <col min="79" max="16384" width="8.88671875" style="1"/>
+    <col min="53" max="53" width="16.33203125" style="6" customWidth="1"/>
+    <col min="54" max="54" width="15.44140625" style="11" customWidth="1"/>
+    <col min="55" max="55" width="28.5546875" style="11" customWidth="1"/>
+    <col min="56" max="56" width="32.5546875" style="11" customWidth="1"/>
+    <col min="57" max="57" width="45.21875" style="1" customWidth="1"/>
+    <col min="58" max="58" width="12.88671875" style="1" customWidth="1"/>
+    <col min="59" max="59" width="8.88671875" style="1"/>
+    <col min="60" max="60" width="16.21875" style="1" customWidth="1"/>
+    <col min="61" max="61" width="15.6640625" style="1" customWidth="1"/>
+    <col min="62" max="62" width="44.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="44.77734375" style="1" customWidth="1"/>
+    <col min="64" max="64" width="8.88671875" style="1"/>
+    <col min="65" max="65" width="15.33203125" style="1" customWidth="1"/>
+    <col min="66" max="66" width="16.109375" style="1" customWidth="1"/>
+    <col min="67" max="67" width="33.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="33.109375" style="1" customWidth="1"/>
+    <col min="69" max="69" width="8.88671875" style="1"/>
+    <col min="70" max="70" width="14.21875" style="1" customWidth="1"/>
+    <col min="71" max="71" width="13.88671875" style="1" customWidth="1"/>
+    <col min="72" max="73" width="39.33203125" style="1" customWidth="1"/>
+    <col min="74" max="74" width="8.88671875" style="1"/>
+    <col min="75" max="75" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="11.77734375" style="1" customWidth="1"/>
+    <col min="77" max="78" width="11.6640625" style="1" customWidth="1"/>
+    <col min="79" max="79" width="8.88671875" style="1"/>
+    <col min="80" max="80" width="11.88671875" style="1" customWidth="1"/>
+    <col min="81" max="81" width="13" style="1" customWidth="1"/>
+    <col min="82" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:80" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:83" x14ac:dyDescent="0.3">
       <c r="B2" s="29" t="s">
         <v>228</v>
       </c>
@@ -1555,21 +1578,21 @@
       <c r="N2" s="29"/>
       <c r="O2" s="29"/>
       <c r="P2" s="9"/>
-      <c r="R2" s="30" t="s">
+      <c r="R2" s="28" t="s">
         <v>227</v>
       </c>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30"/>
-      <c r="U2" s="30"/>
-      <c r="V2" s="30"/>
-      <c r="W2" s="30"/>
-      <c r="X2" s="30"/>
-      <c r="Z2" s="30" t="s">
+      <c r="S2" s="28"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="28"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="28"/>
+      <c r="X2" s="28"/>
+      <c r="Z2" s="28" t="s">
         <v>230</v>
       </c>
-      <c r="AA2" s="30"/>
-      <c r="AB2" s="30"/>
-      <c r="AC2" s="30"/>
+      <c r="AA2" s="28"/>
+      <c r="AB2" s="28"/>
+      <c r="AC2" s="28"/>
       <c r="AE2" s="29" t="s">
         <v>231</v>
       </c>
@@ -1599,39 +1622,42 @@
       </c>
       <c r="BA2" s="29"/>
       <c r="BB2" s="29"/>
-      <c r="BC2" s="9"/>
-      <c r="BE2" s="29" t="s">
+      <c r="BC2" s="29"/>
+      <c r="BD2" s="29"/>
+      <c r="BE2" s="29"/>
+      <c r="BF2" s="9"/>
+      <c r="BH2" s="29" t="s">
         <v>235</v>
       </c>
-      <c r="BF2" s="29"/>
-      <c r="BG2" s="29"/>
-      <c r="BH2" s="9"/>
-      <c r="BJ2" s="29" t="s">
+      <c r="BI2" s="29"/>
+      <c r="BJ2" s="29"/>
+      <c r="BK2" s="9"/>
+      <c r="BM2" s="29" t="s">
         <v>236</v>
       </c>
-      <c r="BK2" s="29"/>
-      <c r="BL2" s="29"/>
-      <c r="BM2" s="9"/>
-      <c r="BO2" s="29" t="s">
+      <c r="BN2" s="29"/>
+      <c r="BO2" s="29"/>
+      <c r="BP2" s="9"/>
+      <c r="BR2" s="29" t="s">
         <v>237</v>
       </c>
-      <c r="BP2" s="29"/>
-      <c r="BQ2" s="29"/>
-      <c r="BR2" s="9"/>
-      <c r="BT2" s="29" t="s">
+      <c r="BS2" s="29"/>
+      <c r="BT2" s="29"/>
+      <c r="BU2" s="9"/>
+      <c r="BW2" s="29" t="s">
         <v>239</v>
       </c>
-      <c r="BU2" s="29"/>
-      <c r="BV2" s="29"/>
-      <c r="BW2" s="9"/>
-      <c r="BY2" s="29" t="s">
+      <c r="BX2" s="29"/>
+      <c r="BY2" s="29"/>
+      <c r="BZ2" s="9"/>
+      <c r="CB2" s="29" t="s">
         <v>238</v>
       </c>
-      <c r="BZ2" s="29"/>
-      <c r="CA2" s="29"/>
-      <c r="CB2" s="9"/>
+      <c r="CC2" s="29"/>
+      <c r="CD2" s="29"/>
+      <c r="CE2" s="9"/>
     </row>
-    <row r="3" spans="2:80" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:83" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
         <v>11</v>
       </c>
@@ -1706,49 +1732,52 @@
       <c r="AZ3" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="BA3" s="7"/>
-      <c r="BB3" s="7" t="s">
+      <c r="BA3" s="31"/>
+      <c r="BB3" s="12"/>
+      <c r="BC3" s="12"/>
+      <c r="BD3" s="12"/>
+      <c r="BE3" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="BC3" s="7"/>
-      <c r="BE3" s="8" t="s">
+      <c r="BF3" s="7"/>
+      <c r="BH3" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="BF3" s="8"/>
-      <c r="BG3" s="8" t="s">
+      <c r="BI3" s="8"/>
+      <c r="BJ3" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="BH3" s="8"/>
-      <c r="BJ3" s="7" t="s">
+      <c r="BK3" s="8"/>
+      <c r="BM3" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="BK3" s="7"/>
-      <c r="BL3" s="7" t="s">
+      <c r="BN3" s="7"/>
+      <c r="BO3" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="BM3" s="7"/>
-      <c r="BO3" s="7" t="s">
+      <c r="BP3" s="7"/>
+      <c r="BR3" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="BP3" s="7"/>
-      <c r="BQ3" s="7" t="s">
+      <c r="BS3" s="7"/>
+      <c r="BT3" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="BR3" s="7"/>
-      <c r="BT3" s="28" t="s">
+      <c r="BU3" s="7"/>
+      <c r="BW3" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="BU3" s="28"/>
-      <c r="BV3" s="28"/>
-      <c r="BW3" s="2"/>
-      <c r="BY3" s="28" t="s">
+      <c r="BX3" s="30"/>
+      <c r="BY3" s="30"/>
+      <c r="BZ3" s="2"/>
+      <c r="CB3" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="BZ3" s="28"/>
-      <c r="CA3" s="28"/>
-      <c r="CB3" s="2"/>
+      <c r="CC3" s="30"/>
+      <c r="CD3" s="30"/>
+      <c r="CE3" s="2"/>
     </row>
-    <row r="4" spans="2:80" s="6" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:83" s="6" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="18"/>
       <c r="C4" s="18" t="s">
         <v>280</v>
@@ -1833,31 +1862,42 @@
       <c r="AW4" s="18"/>
       <c r="AX4" s="21"/>
       <c r="AZ4" s="18"/>
-      <c r="BA4" s="18"/>
-      <c r="BB4" s="18"/>
-      <c r="BC4" s="21"/>
-      <c r="BE4" s="20"/>
-      <c r="BF4" s="20"/>
-      <c r="BG4" s="20"/>
-      <c r="BH4" s="23"/>
-      <c r="BJ4" s="18"/>
-      <c r="BK4" s="18"/>
-      <c r="BL4" s="18"/>
-      <c r="BM4" s="21"/>
+      <c r="BA4" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="BB4" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="BC4" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="BD4" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="BE4" s="18"/>
+      <c r="BF4" s="21"/>
+      <c r="BH4" s="20"/>
+      <c r="BI4" s="20"/>
+      <c r="BJ4" s="20"/>
+      <c r="BK4" s="23"/>
+      <c r="BM4" s="18"/>
+      <c r="BN4" s="18"/>
       <c r="BO4" s="18"/>
-      <c r="BP4" s="18"/>
-      <c r="BQ4" s="18"/>
-      <c r="BR4" s="21"/>
+      <c r="BP4" s="21"/>
+      <c r="BR4" s="18"/>
+      <c r="BS4" s="18"/>
       <c r="BT4" s="18"/>
-      <c r="BU4" s="18"/>
-      <c r="BV4" s="18"/>
-      <c r="BW4" s="21"/>
+      <c r="BU4" s="21"/>
+      <c r="BW4" s="18"/>
+      <c r="BX4" s="18"/>
       <c r="BY4" s="18"/>
-      <c r="BZ4" s="18"/>
-      <c r="CA4" s="18"/>
-      <c r="CB4" s="21"/>
+      <c r="BZ4" s="21"/>
+      <c r="CB4" s="18"/>
+      <c r="CC4" s="18"/>
+      <c r="CD4" s="18"/>
+      <c r="CE4" s="21"/>
     </row>
-    <row r="5" spans="2:80" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:83" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="14" t="s">
         <v>0</v>
       </c>
@@ -1970,61 +2010,70 @@
       <c r="AZ5" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="BA5" s="14" t="s">
+      <c r="BA5" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="BB5" s="17" t="s">
+      <c r="BB5" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="BC5" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="BD5" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="BE5" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="BC5" s="10"/>
-      <c r="BE5" s="14" t="s">
+      <c r="BF5" s="10"/>
+      <c r="BH5" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="BF5" s="14" t="s">
+      <c r="BI5" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="BG5" s="17" t="s">
+      <c r="BJ5" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="BH5" s="22"/>
-      <c r="BJ5" s="14" t="s">
+      <c r="BK5" s="10"/>
+      <c r="BM5" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="BK5" s="14" t="s">
+      <c r="BN5" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="BL5" s="17" t="s">
+      <c r="BO5" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="BM5" s="22"/>
-      <c r="BO5" s="14" t="s">
+      <c r="BP5" s="22"/>
+      <c r="BR5" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="BP5" s="14" t="s">
+      <c r="BS5" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="BQ5" s="17" t="s">
+      <c r="BT5" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="BR5" s="22"/>
-      <c r="BT5" s="14" t="s">
+      <c r="BU5" s="22"/>
+      <c r="BW5" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="BU5" s="14" t="s">
+      <c r="BX5" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="BV5" s="14"/>
-      <c r="BW5" s="24"/>
-      <c r="BY5" s="14" t="s">
+      <c r="BY5" s="14"/>
+      <c r="BZ5" s="24"/>
+      <c r="CB5" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="BZ5" s="14" t="s">
+      <c r="CC5" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="CA5" s="14"/>
-      <c r="CB5" s="24"/>
+      <c r="CD5" s="14"/>
+      <c r="CE5" s="24"/>
     </row>
-    <row r="6" spans="2:80" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:83" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
@@ -2131,61 +2180,70 @@
       <c r="AZ6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="BA6" s="3" t="s">
+      <c r="BA6" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="BB6" s="4" t="s">
+      <c r="BB6" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="BC6" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="BD6" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="BE6" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="BC6" s="10"/>
-      <c r="BE6" s="3" t="s">
+      <c r="BF6" s="10"/>
+      <c r="BH6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="BF6" s="3" t="s">
+      <c r="BI6" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="BG6" s="4" t="s">
+      <c r="BJ6" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="BH6" s="22"/>
-      <c r="BJ6" s="3" t="s">
+      <c r="BK6" s="10"/>
+      <c r="BM6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="BK6" s="3" t="s">
+      <c r="BN6" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="BL6" s="4" t="s">
+      <c r="BO6" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="BM6" s="22"/>
-      <c r="BO6" s="3" t="s">
+      <c r="BP6" s="22"/>
+      <c r="BR6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="BP6" s="3" t="s">
+      <c r="BS6" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="BQ6" s="4" t="s">
+      <c r="BT6" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="BR6" s="22"/>
-      <c r="BT6" s="3" t="s">
+      <c r="BU6" s="22"/>
+      <c r="BW6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="BU6" s="3" t="s">
+      <c r="BX6" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="BV6" s="3"/>
-      <c r="BW6" s="24"/>
-      <c r="BY6" s="3" t="s">
+      <c r="BY6" s="3"/>
+      <c r="BZ6" s="24"/>
+      <c r="CB6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="BZ6" s="3" t="s">
+      <c r="CC6" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="CA6" s="3"/>
-      <c r="CB6" s="24"/>
+      <c r="CD6" s="3"/>
+      <c r="CE6" s="24"/>
     </row>
-    <row r="7" spans="2:80" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:83" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="3" t="s">
         <v>2</v>
       </c>
@@ -2270,81 +2328,94 @@
         <v>107</v>
       </c>
       <c r="AP7" s="10"/>
-      <c r="AR7" s="3" t="s">
+      <c r="AR7" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="AS7" s="3" t="s">
+      <c r="AS7" s="25" t="s">
         <v>255</v>
       </c>
-      <c r="AT7" s="10" t="s">
+      <c r="AT7" s="26" t="s">
         <v>282</v>
       </c>
-      <c r="AU7" s="10" t="s">
+      <c r="AU7" s="26" t="s">
         <v>273</v>
       </c>
-      <c r="AV7" s="10"/>
-      <c r="AW7" s="4" t="s">
+      <c r="AV7" s="26"/>
+      <c r="AW7" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="AX7" s="10"/>
+      <c r="AX7" s="26" t="s">
+        <v>291</v>
+      </c>
       <c r="AZ7" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="BA7" s="3" t="s">
+      <c r="BA7" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="BB7" s="4" t="s">
+      <c r="BB7" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="BC7" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="BD7" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="BE7" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="BC7" s="10"/>
-      <c r="BE7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="BF7" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="BG7" s="4" t="s">
+      <c r="BF7" s="10"/>
+      <c r="BH7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="BI7" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="BJ7" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="BH7" s="22"/>
-      <c r="BJ7" s="3" t="s">
+      <c r="BK7" s="26" t="s">
+        <v>298</v>
+      </c>
+      <c r="BM7" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="BK7" s="3" t="s">
+      <c r="BN7" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="BL7" s="4" t="s">
+      <c r="BO7" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="BM7" s="22"/>
-      <c r="BO7" s="3" t="s">
+      <c r="BP7" s="22"/>
+      <c r="BR7" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="BP7" s="3" t="s">
+      <c r="BS7" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="BQ7" s="4" t="s">
+      <c r="BT7" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="BR7" s="22"/>
-      <c r="BT7" s="3" t="s">
+      <c r="BU7" s="22"/>
+      <c r="BW7" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="BU7" s="3" t="s">
+      <c r="BX7" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="BV7" s="3"/>
-      <c r="BW7" s="24"/>
-      <c r="BY7" s="3" t="s">
+      <c r="BY7" s="3"/>
+      <c r="BZ7" s="24"/>
+      <c r="CB7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="BZ7" s="3" t="s">
+      <c r="CC7" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="CA7" s="3"/>
-      <c r="CB7" s="24"/>
+      <c r="CD7" s="3"/>
+      <c r="CE7" s="24"/>
     </row>
-    <row r="8" spans="2:80" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:83" ht="63" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="3" t="s">
         <v>3</v>
       </c>
@@ -2445,53 +2516,62 @@
       <c r="AZ8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="BA8" s="3" t="s">
+      <c r="BA8" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="BB8" s="4" t="s">
+      <c r="BB8" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="BC8" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="BD8" s="10"/>
+      <c r="BE8" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="BC8" s="10"/>
-      <c r="BE8" s="3" t="s">
+      <c r="BF8" s="10"/>
+      <c r="BH8" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="BF8" s="3" t="s">
+      <c r="BI8" s="25" t="s">
         <v>198</v>
       </c>
-      <c r="BG8" s="4" t="s">
+      <c r="BJ8" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="BH8" s="22"/>
-      <c r="BJ8" s="3" t="s">
+      <c r="BK8" s="26" t="s">
+        <v>291</v>
+      </c>
+      <c r="BM8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="BK8" s="3" t="s">
+      <c r="BN8" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="BL8" s="4" t="s">
+      <c r="BO8" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="BM8" s="22"/>
-      <c r="BO8" s="3" t="s">
+      <c r="BP8" s="22"/>
+      <c r="BR8" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="BP8" s="3" t="s">
+      <c r="BS8" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="BQ8" s="4" t="s">
+      <c r="BT8" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="BR8" s="22"/>
-      <c r="BY8" s="3" t="s">
+      <c r="BU8" s="22"/>
+      <c r="CB8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="BZ8" s="3" t="s">
+      <c r="CC8" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="CA8" s="3"/>
-      <c r="CB8" s="24"/>
+      <c r="CD8" s="3"/>
+      <c r="CE8" s="24"/>
     </row>
-    <row r="9" spans="2:80" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:83" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="3" t="s">
         <v>4</v>
       </c>
@@ -2577,53 +2657,60 @@
       <c r="AZ9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="BA9" s="3" t="s">
+      <c r="BA9" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="BB9" s="4" t="s">
+      <c r="BB9" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="BC9" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="BD9" s="10"/>
+      <c r="BE9" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="BC9" s="10"/>
-      <c r="BE9" s="3" t="s">
+      <c r="BF9" s="10"/>
+      <c r="BH9" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="BF9" s="3" t="s">
+      <c r="BI9" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="BG9" s="4" t="s">
+      <c r="BJ9" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="BH9" s="22"/>
-      <c r="BJ9" s="3" t="s">
+      <c r="BK9" s="10"/>
+      <c r="BM9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="BK9" s="3" t="s">
+      <c r="BN9" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="BL9" s="4" t="s">
+      <c r="BO9" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="BM9" s="22"/>
-      <c r="BO9" s="3" t="s">
+      <c r="BP9" s="22"/>
+      <c r="BR9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="BP9" s="3" t="s">
+      <c r="BS9" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="BQ9" s="4" t="s">
+      <c r="BT9" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="BR9" s="22"/>
-      <c r="BY9" s="3" t="s">
+      <c r="BU9" s="22"/>
+      <c r="CB9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="BZ9" s="3" t="s">
+      <c r="CC9" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="CA9" s="3"/>
-      <c r="CB9" s="24"/>
+      <c r="CD9" s="3"/>
+      <c r="CE9" s="24"/>
     </row>
-    <row r="10" spans="2:80" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:83" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="3" t="s">
         <v>167</v>
       </c>
@@ -2705,45 +2792,52 @@
       <c r="AZ10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="BA10" s="3" t="s">
+      <c r="BA10" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="BB10" s="4" t="s">
+      <c r="BB10" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="BC10" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="BD10" s="10"/>
+      <c r="BE10" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="BC10" s="10"/>
-      <c r="BE10" s="3" t="s">
+      <c r="BF10" s="10"/>
+      <c r="BH10" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="BF10" s="3" t="s">
+      <c r="BI10" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="BG10" s="4" t="s">
+      <c r="BJ10" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="BH10" s="22"/>
-      <c r="BJ10" s="3" t="s">
+      <c r="BK10" s="10"/>
+      <c r="BM10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="BK10" s="3" t="s">
+      <c r="BN10" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="BL10" s="4" t="s">
+      <c r="BO10" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="BM10" s="22"/>
-      <c r="BO10" s="3" t="s">
+      <c r="BP10" s="22"/>
+      <c r="BR10" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="BP10" s="3" t="s">
+      <c r="BS10" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="BQ10" s="4" t="s">
+      <c r="BT10" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="BR10" s="22"/>
+      <c r="BU10" s="22"/>
     </row>
-    <row r="11" spans="2:80" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:83" ht="63" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="3" t="s">
         <v>5</v>
       </c>
@@ -2810,45 +2904,52 @@
       <c r="AZ11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="BA11" s="3" t="s">
+      <c r="BA11" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="BB11" s="4" t="s">
+      <c r="BB11" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="BC11" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="BD11" s="10"/>
+      <c r="BE11" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="BC11" s="10"/>
-      <c r="BE11" s="3" t="s">
+      <c r="BF11" s="10"/>
+      <c r="BH11" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="BF11" s="3" t="s">
+      <c r="BI11" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="BG11" s="4" t="s">
+      <c r="BJ11" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="BH11" s="22"/>
-      <c r="BJ11" s="3" t="s">
+      <c r="BK11" s="10"/>
+      <c r="BM11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="BK11" s="3" t="s">
+      <c r="BN11" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="BL11" s="4" t="s">
+      <c r="BO11" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="BM11" s="22"/>
-      <c r="BO11" s="3" t="s">
+      <c r="BP11" s="22"/>
+      <c r="BR11" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="BP11" s="3" t="s">
+      <c r="BS11" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="BQ11" s="4" t="s">
+      <c r="BT11" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="BR11" s="22"/>
+      <c r="BU11" s="22"/>
     </row>
-    <row r="12" spans="2:80" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:83" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="3" t="s">
         <v>6</v>
       </c>
@@ -2915,45 +3016,54 @@
       <c r="AZ12" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="BA12" s="3" t="s">
+      <c r="BA12" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="BB12" s="4" t="s">
+      <c r="BB12" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="BC12" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="BD12" s="10"/>
+      <c r="BE12" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="BC12" s="10"/>
-      <c r="BE12" s="3" t="s">
+      <c r="BF12" s="10"/>
+      <c r="BH12" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="BF12" s="3" t="s">
+      <c r="BI12" s="25" t="s">
         <v>209</v>
       </c>
-      <c r="BG12" s="4" t="s">
+      <c r="BJ12" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="BH12" s="22"/>
-      <c r="BJ12" s="3" t="s">
+      <c r="BK12" s="26" t="s">
+        <v>288</v>
+      </c>
+      <c r="BM12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="BK12" s="3" t="s">
+      <c r="BN12" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="BL12" s="4" t="s">
+      <c r="BO12" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="BM12" s="22"/>
-      <c r="BO12" s="3" t="s">
+      <c r="BP12" s="22"/>
+      <c r="BR12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="BP12" s="3" t="s">
+      <c r="BS12" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="BQ12" s="4" t="s">
+      <c r="BT12" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="BR12" s="22"/>
+      <c r="BU12" s="22"/>
     </row>
-    <row r="13" spans="2:80" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:83" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="3" t="s">
         <v>7</v>
       </c>
@@ -3018,45 +3128,54 @@
       <c r="AZ13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="BA13" s="3" t="s">
+      <c r="BA13" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="BB13" s="4" t="s">
+      <c r="BB13" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="BC13" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="BD13" s="10"/>
+      <c r="BE13" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="BC13" s="10"/>
-      <c r="BE13" s="3" t="s">
+      <c r="BF13" s="10"/>
+      <c r="BH13" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="BF13" s="3" t="s">
+      <c r="BI13" s="25" t="s">
         <v>210</v>
       </c>
-      <c r="BG13" s="4" t="s">
+      <c r="BJ13" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="BH13" s="22"/>
-      <c r="BJ13" s="3" t="s">
+      <c r="BK13" s="26" t="s">
+        <v>288</v>
+      </c>
+      <c r="BM13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="BK13" s="3" t="s">
+      <c r="BN13" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="BL13" s="4" t="s">
+      <c r="BO13" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="BM13" s="22"/>
-      <c r="BO13" s="3" t="s">
+      <c r="BP13" s="22"/>
+      <c r="BR13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="BP13" s="3" t="s">
+      <c r="BS13" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="BQ13" s="4" t="s">
+      <c r="BT13" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="BR13" s="22"/>
+      <c r="BU13" s="22"/>
     </row>
-    <row r="14" spans="2:80" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:83" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="3" t="s">
         <v>8</v>
       </c>
@@ -3114,45 +3233,52 @@
       <c r="AZ14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="BA14" s="3" t="s">
+      <c r="BA14" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="BB14" s="4" t="s">
+      <c r="BB14" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="BC14" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="BD14" s="10"/>
+      <c r="BE14" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="BC14" s="10"/>
-      <c r="BE14" s="3" t="s">
+      <c r="BF14" s="10"/>
+      <c r="BH14" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="BF14" s="3" t="s">
+      <c r="BI14" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="BG14" s="4" t="s">
+      <c r="BJ14" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="BH14" s="22"/>
-      <c r="BJ14" s="3" t="s">
+      <c r="BK14" s="10"/>
+      <c r="BM14" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="BK14" s="3" t="s">
+      <c r="BN14" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="BL14" s="4" t="s">
+      <c r="BO14" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="BM14" s="22"/>
-      <c r="BO14" s="3" t="s">
+      <c r="BP14" s="22"/>
+      <c r="BR14" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="BP14" s="3" t="s">
+      <c r="BS14" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="BQ14" s="4" t="s">
+      <c r="BT14" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="BR14" s="22"/>
+      <c r="BU14" s="22"/>
     </row>
-    <row r="15" spans="2:80" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:83" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="3" t="s">
         <v>9</v>
       </c>
@@ -3207,25 +3333,34 @@
       <c r="AZ15" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="BA15" s="3" t="s">
+      <c r="BA15" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="BB15" s="4" t="s">
+      <c r="BB15" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="BC15" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="BD15" s="10"/>
+      <c r="BE15" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="BC15" s="10"/>
-      <c r="BE15" s="3" t="s">
+      <c r="BF15" s="10"/>
+      <c r="BH15" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="BF15" s="3" t="s">
+      <c r="BI15" s="25" t="s">
         <v>212</v>
       </c>
-      <c r="BG15" s="4" t="s">
+      <c r="BJ15" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="BH15" s="22"/>
+      <c r="BK15" s="26" t="s">
+        <v>288</v>
+      </c>
     </row>
-    <row r="16" spans="2:80" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:83" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="3" t="s">
         <v>10</v>
       </c>
@@ -3279,18 +3414,20 @@
       <c r="AX16" s="26" t="s">
         <v>291</v>
       </c>
-      <c r="BE16" s="3" t="s">
+      <c r="BH16" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="BF16" s="3" t="s">
+      <c r="BI16" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="BG16" s="4" t="s">
+      <c r="BJ16" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="BH16" s="22"/>
+      <c r="BK16" s="26" t="s">
+        <v>288</v>
+      </c>
     </row>
-    <row r="17" spans="10:60" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="10:63" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J17" s="3" t="s">
         <v>25</v>
       </c>
@@ -3327,18 +3464,20 @@
       <c r="AX17" s="26" t="s">
         <v>291</v>
       </c>
-      <c r="BE17" s="3" t="s">
+      <c r="BH17" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="BF17" s="3" t="s">
+      <c r="BI17" s="25" t="s">
         <v>259</v>
       </c>
-      <c r="BG17" s="4" t="s">
+      <c r="BJ17" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="BH17" s="22"/>
+      <c r="BK17" s="26" t="s">
+        <v>288</v>
+      </c>
     </row>
-    <row r="18" spans="10:60" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="10:63" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J18" s="3" t="s">
         <v>26</v>
       </c>
@@ -3373,18 +3512,18 @@
         <v>225</v>
       </c>
       <c r="AX18" s="10"/>
-      <c r="BE18" s="3" t="s">
+      <c r="BH18" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="BF18" s="3" t="s">
+      <c r="BI18" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="BG18" s="4" t="s">
+      <c r="BJ18" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="BH18" s="22"/>
+      <c r="BK18" s="10"/>
     </row>
-    <row r="19" spans="10:60" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="10:63" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J19" s="3" t="s">
         <v>27</v>
       </c>
@@ -3419,18 +3558,18 @@
         <v>224</v>
       </c>
       <c r="AX19" s="10"/>
-      <c r="BE19" s="3" t="s">
+      <c r="BH19" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="BF19" s="3" t="s">
+      <c r="BI19" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="BG19" s="4" t="s">
+      <c r="BJ19" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="BH19" s="22"/>
+      <c r="BK19" s="10"/>
     </row>
-    <row r="20" spans="10:60" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="10:63" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J20" s="3" t="s">
         <v>28</v>
       </c>
@@ -3465,18 +3604,18 @@
         <v>115</v>
       </c>
       <c r="AX20" s="10"/>
-      <c r="BE20" s="3" t="s">
+      <c r="BH20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="BF20" s="3" t="s">
+      <c r="BI20" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="BG20" s="4" t="s">
+      <c r="BJ20" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="BH20" s="22"/>
+      <c r="BK20" s="10"/>
     </row>
-    <row r="21" spans="10:60" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="10:63" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J21" s="3" t="s">
         <v>29</v>
       </c>
@@ -3511,18 +3650,18 @@
         <v>116</v>
       </c>
       <c r="AX21" s="10"/>
-      <c r="BE21" s="3" t="s">
+      <c r="BH21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="BF21" s="3" t="s">
+      <c r="BI21" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="BG21" s="4" t="s">
+      <c r="BJ21" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="BH21" s="22"/>
+      <c r="BK21" s="10"/>
     </row>
-    <row r="22" spans="10:60" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="10:63" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J22" s="3" t="s">
         <v>30</v>
       </c>
@@ -3557,130 +3696,136 @@
         <v>117</v>
       </c>
       <c r="AX22" s="10"/>
-      <c r="BE22" s="3" t="s">
+      <c r="BH22" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="BF22" s="3" t="s">
+      <c r="BI22" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="BG22" s="4" t="s">
+      <c r="BJ22" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="BH22" s="22"/>
+      <c r="BK22" s="10"/>
     </row>
-    <row r="23" spans="10:60" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="BE23" s="3" t="s">
+    <row r="23" spans="10:63" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BH23" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="BF23" s="3" t="s">
+      <c r="BI23" s="25" t="s">
         <v>204</v>
       </c>
-      <c r="BG23" s="4" t="s">
+      <c r="BJ23" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="BH23" s="22"/>
+      <c r="BK23" s="26" t="s">
+        <v>291</v>
+      </c>
     </row>
-    <row r="24" spans="10:60" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="BE24" s="3" t="s">
+    <row r="24" spans="10:63" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BH24" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="BF24" s="3" t="s">
+      <c r="BI24" s="25" t="s">
         <v>219</v>
       </c>
-      <c r="BG24" s="4" t="s">
+      <c r="BJ24" s="27" t="s">
         <v>223</v>
       </c>
-      <c r="BH24" s="22"/>
+      <c r="BK24" s="26" t="s">
+        <v>291</v>
+      </c>
     </row>
-    <row r="25" spans="10:60" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="BE25" s="3" t="s">
+    <row r="25" spans="10:63" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BH25" s="25" t="s">
         <v>220</v>
       </c>
-      <c r="BF25" s="3" t="s">
+      <c r="BI25" s="25" t="s">
         <v>221</v>
       </c>
-      <c r="BG25" s="4" t="s">
+      <c r="BJ25" s="27" t="s">
         <v>222</v>
       </c>
-      <c r="BH25" s="22"/>
+      <c r="BK25" s="26" t="s">
+        <v>291</v>
+      </c>
     </row>
-    <row r="26" spans="10:60" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="BE26" s="3" t="s">
+    <row r="26" spans="10:63" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BH26" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="BF26" s="3" t="s">
+      <c r="BI26" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="BG26" s="4" t="s">
+      <c r="BJ26" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="BH26" s="22"/>
+      <c r="BK26" s="10"/>
     </row>
-    <row r="27" spans="10:60" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="BE27" s="3" t="s">
+    <row r="27" spans="10:63" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BH27" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="BF27" s="3" t="s">
+      <c r="BI27" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="BG27" s="4" t="s">
+      <c r="BJ27" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="BH27" s="22"/>
+      <c r="BK27" s="10"/>
     </row>
-    <row r="28" spans="10:60" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="BE28" s="3" t="s">
+    <row r="28" spans="10:63" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BH28" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="BF28" s="3" t="s">
+      <c r="BI28" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="BG28" s="4" t="s">
+      <c r="BJ28" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="BH28" s="22"/>
+      <c r="BK28" s="10"/>
     </row>
-    <row r="29" spans="10:60" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="BE29" s="3" t="s">
+    <row r="29" spans="10:63" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BH29" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="BF29" s="3" t="s">
+      <c r="BI29" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="BG29" s="4" t="s">
+      <c r="BJ29" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="BH29" s="22"/>
+      <c r="BK29" s="10"/>
     </row>
-    <row r="30" spans="10:60" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="BE30" s="3" t="s">
+    <row r="30" spans="10:63" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BH30" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="BF30" s="3" t="s">
+      <c r="BI30" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="BG30" s="4" t="s">
+      <c r="BJ30" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="BH30" s="22"/>
+      <c r="BK30" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="J2:O2"/>
+    <mergeCell ref="AM2:AO2"/>
+    <mergeCell ref="AZ2:BE2"/>
+    <mergeCell ref="BH2:BJ2"/>
+    <mergeCell ref="R2:X2"/>
     <mergeCell ref="Z2:AC2"/>
     <mergeCell ref="AE2:AK2"/>
     <mergeCell ref="AR2:AX2"/>
-    <mergeCell ref="BY3:CA3"/>
-    <mergeCell ref="BT3:BV3"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="J2:O2"/>
-    <mergeCell ref="AM2:AO2"/>
-    <mergeCell ref="AZ2:BB2"/>
-    <mergeCell ref="BE2:BG2"/>
-    <mergeCell ref="BJ2:BL2"/>
-    <mergeCell ref="BO2:BQ2"/>
-    <mergeCell ref="BT2:BV2"/>
-    <mergeCell ref="BY2:CA2"/>
-    <mergeCell ref="R2:X2"/>
+    <mergeCell ref="CB3:CD3"/>
+    <mergeCell ref="BW3:BY3"/>
+    <mergeCell ref="BM2:BO2"/>
+    <mergeCell ref="BR2:BT2"/>
+    <mergeCell ref="BW2:BY2"/>
+    <mergeCell ref="CB2:CD2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/csdl-shopping-cart.xlsx
+++ b/csdl-shopping-cart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DEVMASTER\DEV2206LM_SpringBoot\shopping-cart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93DE9F80-2CAA-4FBF-93E0-0ED4509DBC94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C5E8241-0E99-4BFB-8C88-988AEE3AC81C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{91351D13-8343-4BE5-AE49-126D9A46B319}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="301">
   <si>
     <t>Id</t>
   </si>
@@ -59,9 +59,6 @@
     <t>Vendor</t>
   </si>
   <si>
-    <t>Registered At</t>
-  </si>
-  <si>
     <t>Last Login</t>
   </si>
   <si>
@@ -251,9 +248,6 @@
     <t>Email của người dùng. Nó có thể được sử dụng cho mục đích đăng nhập và đăng ký.</t>
   </si>
   <si>
-    <t>Cờ để xác định liệu người dùng có thể lưu trữ sản phẩm trong cửa hàng hay không. Không bắt buộc nếu các bảng RBAC được tạo bằng cách làm theo thiết kế cơ sở dữ liệu RBAC.</t>
-  </si>
-  <si>
     <t>Nó có thể được sử dụng để xác định lần đăng nhập cuối cùng của người dùng.</t>
   </si>
   <si>
@@ -554,9 +548,6 @@
     <t>profile</t>
   </si>
   <si>
-    <t>Cột này có thể được sử dụng để tính thời gian đã sử dụng của người dùng (với web, ứng dụng. . .).</t>
-  </si>
-  <si>
     <t>user</t>
   </si>
   <si>
@@ -765,9 +756,6 @@
   </si>
   <si>
     <t>last_name</t>
-  </si>
-  <si>
-    <t>registered_at</t>
   </si>
   <si>
     <t>last_login</t>
@@ -941,6 +929,24 @@
   </si>
   <si>
     <t>thay sessionId thành cartId</t>
+  </si>
+  <si>
+    <t>Create At</t>
+  </si>
+  <si>
+    <t>create_at</t>
+  </si>
+  <si>
+    <t>Thời gian đăng ký của user</t>
+  </si>
+  <si>
+    <t>Cờ để xác định liệu người dùng có thể lưu trữ sản phẩm trong cửa hàng hay không.</t>
+  </si>
+  <si>
+    <t>Photos</t>
+  </si>
+  <si>
+    <t>photos</t>
   </si>
 </sst>
 </file>
@@ -1148,17 +1154,17 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1476,8 +1482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E867DBF7-62FE-4C81-BE5B-4B051B3412A0}">
   <dimension ref="B2:CE30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BG7" workbookViewId="0">
-      <selection activeCell="BK9" sqref="BK9"/>
+    <sheetView tabSelected="1" topLeftCell="B12" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1561,7 +1567,7 @@
   <sheetData>
     <row r="2" spans="2:83" x14ac:dyDescent="0.3">
       <c r="B2" s="29" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C2" s="29"/>
       <c r="D2" s="29"/>
@@ -1570,7 +1576,7 @@
       <c r="G2" s="29"/>
       <c r="H2" s="9"/>
       <c r="J2" s="29" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="K2" s="29"/>
       <c r="L2" s="29"/>
@@ -1578,23 +1584,23 @@
       <c r="N2" s="29"/>
       <c r="O2" s="29"/>
       <c r="P2" s="9"/>
-      <c r="R2" s="28" t="s">
+      <c r="R2" s="30" t="s">
+        <v>224</v>
+      </c>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="30"/>
+      <c r="X2" s="30"/>
+      <c r="Z2" s="30" t="s">
         <v>227</v>
       </c>
-      <c r="S2" s="28"/>
-      <c r="T2" s="28"/>
-      <c r="U2" s="28"/>
-      <c r="V2" s="28"/>
-      <c r="W2" s="28"/>
-      <c r="X2" s="28"/>
-      <c r="Z2" s="28" t="s">
-        <v>230</v>
-      </c>
-      <c r="AA2" s="28"/>
-      <c r="AB2" s="28"/>
-      <c r="AC2" s="28"/>
+      <c r="AA2" s="30"/>
+      <c r="AB2" s="30"/>
+      <c r="AC2" s="30"/>
       <c r="AE2" s="29" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="AF2" s="29"/>
       <c r="AG2" s="29"/>
@@ -1603,13 +1609,13 @@
       <c r="AJ2" s="29"/>
       <c r="AK2" s="29"/>
       <c r="AM2" s="29" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="AN2" s="29"/>
       <c r="AO2" s="29"/>
       <c r="AP2" s="9"/>
       <c r="AR2" s="29" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="AS2" s="29"/>
       <c r="AT2" s="29"/>
@@ -1618,7 +1624,7 @@
       <c r="AW2" s="29"/>
       <c r="AX2" s="29"/>
       <c r="AZ2" s="29" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="BA2" s="29"/>
       <c r="BB2" s="29"/>
@@ -1627,31 +1633,31 @@
       <c r="BE2" s="29"/>
       <c r="BF2" s="9"/>
       <c r="BH2" s="29" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="BI2" s="29"/>
       <c r="BJ2" s="29"/>
       <c r="BK2" s="9"/>
       <c r="BM2" s="29" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="BN2" s="29"/>
       <c r="BO2" s="29"/>
       <c r="BP2" s="9"/>
       <c r="BR2" s="29" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="BS2" s="29"/>
       <c r="BT2" s="29"/>
       <c r="BU2" s="9"/>
       <c r="BW2" s="29" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="BX2" s="29"/>
       <c r="BY2" s="29"/>
       <c r="BZ2" s="9"/>
       <c r="CB2" s="29" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="CC2" s="29"/>
       <c r="CD2" s="29"/>
@@ -1659,167 +1665,167 @@
     </row>
     <row r="3" spans="2:83" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H3" s="7"/>
       <c r="J3" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K3" s="7"/>
       <c r="L3" s="12"/>
       <c r="M3" s="12"/>
       <c r="N3" s="12"/>
       <c r="O3" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="P3" s="7"/>
       <c r="R3" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S3" s="7"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
       <c r="V3" s="7"/>
       <c r="W3" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="X3" s="7"/>
       <c r="Z3" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AA3" s="7"/>
       <c r="AB3" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="AC3" s="7"/>
       <c r="AE3" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AF3" s="7"/>
       <c r="AG3" s="12"/>
       <c r="AH3" s="12"/>
       <c r="AI3" s="12"/>
       <c r="AJ3" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="AK3" s="7"/>
       <c r="AM3" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="AN3" s="7"/>
       <c r="AO3" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="AP3" s="7"/>
       <c r="AR3" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AS3" s="7"/>
       <c r="AT3" s="12"/>
       <c r="AU3" s="12"/>
       <c r="AV3" s="12"/>
       <c r="AW3" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="AX3" s="7"/>
       <c r="AZ3" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="BA3" s="31"/>
+        <v>47</v>
+      </c>
+      <c r="BA3" s="28"/>
       <c r="BB3" s="12"/>
       <c r="BC3" s="12"/>
       <c r="BD3" s="12"/>
       <c r="BE3" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="BF3" s="7"/>
       <c r="BH3" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="BI3" s="8"/>
       <c r="BJ3" s="8" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="BK3" s="8"/>
       <c r="BM3" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="BN3" s="7"/>
       <c r="BO3" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="BP3" s="7"/>
       <c r="BR3" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="BS3" s="7"/>
       <c r="BT3" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="BU3" s="7"/>
-      <c r="BW3" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="BX3" s="30"/>
-      <c r="BY3" s="30"/>
+      <c r="BW3" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="BX3" s="31"/>
+      <c r="BY3" s="31"/>
       <c r="BZ3" s="2"/>
-      <c r="CB3" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="CC3" s="30"/>
-      <c r="CD3" s="30"/>
+      <c r="CB3" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="CC3" s="31"/>
+      <c r="CD3" s="31"/>
       <c r="CE3" s="2"/>
     </row>
     <row r="4" spans="2:83" s="6" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="18"/>
       <c r="C4" s="18" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
       <c r="J4" s="18"/>
       <c r="K4" s="18" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="L4" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M4" s="19" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="N4" s="19" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="O4" s="18"/>
       <c r="P4" s="21"/>
       <c r="R4" s="18"/>
       <c r="S4" s="18" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="T4" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="U4" s="19" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="V4" s="19" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="W4" s="18"/>
       <c r="X4" s="21"/>
@@ -1829,16 +1835,16 @@
       <c r="AC4" s="21"/>
       <c r="AE4" s="18"/>
       <c r="AF4" s="18" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="AG4" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AH4" s="19" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="AI4" s="19" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="AJ4" s="18"/>
       <c r="AK4" s="21"/>
@@ -1848,31 +1854,31 @@
       <c r="AP4" s="21"/>
       <c r="AR4" s="18"/>
       <c r="AS4" s="18" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="AT4" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AU4" s="19" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="AV4" s="19" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="AW4" s="18"/>
       <c r="AX4" s="21"/>
       <c r="AZ4" s="18"/>
       <c r="BA4" s="18" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="BB4" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BC4" s="19" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="BD4" s="19" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="BE4" s="18"/>
       <c r="BF4" s="21"/>
@@ -1902,165 +1908,165 @@
         <v>0</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H5" s="14"/>
       <c r="J5" s="14" t="s">
         <v>0</v>
       </c>
       <c r="K5" s="14" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="L5" s="16" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="M5" s="16" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="N5" s="16" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="O5" s="17" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P5" s="10"/>
       <c r="R5" s="14" t="s">
         <v>0</v>
       </c>
       <c r="S5" s="14" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="T5" s="14"/>
       <c r="U5" s="14"/>
       <c r="V5" s="14"/>
       <c r="W5" s="17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="X5" s="10"/>
       <c r="Z5" s="14" t="s">
         <v>0</v>
       </c>
       <c r="AA5" s="14" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AB5" s="17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AC5" s="10"/>
       <c r="AE5" s="14" t="s">
         <v>0</v>
       </c>
       <c r="AF5" s="14" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AG5" s="16" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="AH5" s="16" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="AI5" s="16" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="AJ5" s="17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AK5" s="10"/>
       <c r="AM5" s="14" t="s">
         <v>0</v>
       </c>
       <c r="AN5" s="14" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AO5" s="17" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="AP5" s="10"/>
       <c r="AR5" s="14" t="s">
         <v>0</v>
       </c>
       <c r="AS5" s="14" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AT5" s="16" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="AU5" s="16" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="AV5" s="16" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="AW5" s="17" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AX5" s="10"/>
       <c r="AZ5" s="14" t="s">
         <v>0</v>
       </c>
       <c r="BA5" s="15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="BB5" s="16" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="BC5" s="16" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="BD5" s="16" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="BE5" s="17" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="BF5" s="10"/>
       <c r="BH5" s="14" t="s">
         <v>0</v>
       </c>
       <c r="BI5" s="14" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="BJ5" s="17" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="BK5" s="10"/>
       <c r="BM5" s="14" t="s">
         <v>0</v>
       </c>
       <c r="BN5" s="14" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="BO5" s="17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="BP5" s="22"/>
       <c r="BR5" s="14" t="s">
         <v>0</v>
       </c>
       <c r="BS5" s="14" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="BT5" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="BU5" s="22"/>
       <c r="BW5" s="14" t="s">
         <v>0</v>
       </c>
       <c r="BX5" s="14" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="BY5" s="14"/>
       <c r="BZ5" s="24"/>
@@ -2068,7 +2074,7 @@
         <v>0</v>
       </c>
       <c r="CC5" s="14" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="CD5" s="14"/>
       <c r="CE5" s="24"/>
@@ -2078,167 +2084,167 @@
         <v>1</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H6" s="3"/>
       <c r="J6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P6" s="10"/>
       <c r="R6" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
       <c r="W6" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="X6" s="10"/>
       <c r="Z6" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AA6" s="3" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="AB6" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AC6" s="10"/>
       <c r="AE6" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AF6" s="25" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="AG6" s="26"/>
       <c r="AH6" s="26"/>
       <c r="AI6" s="26"/>
       <c r="AJ6" s="27" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AK6" s="26" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="AM6" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AN6" s="3" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="AO6" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AP6" s="10"/>
       <c r="AR6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AS6" s="3" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="AT6" s="10" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="AU6" s="10" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="AV6" s="10" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="AW6" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AX6" s="10"/>
       <c r="AZ6" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="BA6" s="5" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="BB6" s="10" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="BC6" s="10" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="BD6" s="10" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="BE6" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BF6" s="10"/>
       <c r="BH6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BI6" s="3" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="BJ6" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="BK6" s="10"/>
       <c r="BM6" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="BN6" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="BO6" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="BP6" s="22"/>
       <c r="BR6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BS6" s="3" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="BT6" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="BU6" s="22"/>
       <c r="BW6" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="BX6" s="3" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="BY6" s="3"/>
       <c r="BZ6" s="24"/>
       <c r="CB6" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="CC6" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="CD6" s="3"/>
       <c r="CE6" s="24"/>
@@ -2248,169 +2254,169 @@
         <v>2</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H7" s="3"/>
       <c r="J7" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="N7" s="10"/>
       <c r="O7" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="P7" s="10"/>
       <c r="R7" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
       <c r="W7" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="X7" s="10"/>
       <c r="Z7" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AA7" s="3" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="AB7" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AC7" s="10"/>
       <c r="AE7" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF7" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AG7" s="10" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="AH7" s="10" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="AI7" s="10"/>
       <c r="AJ7" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AK7" s="10"/>
       <c r="AM7" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AN7" s="3" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AO7" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AP7" s="10"/>
       <c r="AR7" s="25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AS7" s="25" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="AT7" s="26" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="AU7" s="26" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="AV7" s="26"/>
       <c r="AW7" s="27" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AX7" s="26" t="s">
+        <v>287</v>
+      </c>
+      <c r="AZ7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="BA7" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="BB7" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="BC7" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="AZ7" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="BA7" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="BB7" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="BC7" s="10" t="s">
-        <v>295</v>
-      </c>
       <c r="BD7" s="10" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="BE7" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="BF7" s="10"/>
       <c r="BH7" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="BI7" s="3" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="BJ7" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="BK7" s="26" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="BM7" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="BN7" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="BO7" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="BP7" s="22"/>
       <c r="BR7" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="BS7" s="3" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="BT7" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="BU7" s="22"/>
       <c r="BW7" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="BX7" s="3" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="BY7" s="3"/>
       <c r="BZ7" s="24"/>
       <c r="CB7" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="CC7" s="3" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="CD7" s="3"/>
       <c r="CE7" s="24"/>
@@ -2420,153 +2426,153 @@
         <v>3</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="E8" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="F8" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="F8" s="10" t="s">
-        <v>276</v>
-      </c>
       <c r="G8" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H8" s="14"/>
       <c r="J8" s="25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K8" s="25" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="L8" s="26" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="M8" s="26" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="N8" s="26"/>
       <c r="O8" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="P8" s="26" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
       <c r="W8" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="X8" s="10"/>
       <c r="Z8" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AA8" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AB8" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AC8" s="10"/>
       <c r="AE8" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF8" s="3" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="AG8" s="10" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="AH8" s="10" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="AI8" s="10"/>
       <c r="AJ8" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AK8" s="10"/>
       <c r="AR8" s="25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AS8" s="25" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="AT8" s="26" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="AU8" s="26" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="AV8" s="26"/>
       <c r="AW8" s="27" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AX8" s="26" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="AZ8" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BA8" s="5" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="BB8" s="10" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="BC8" s="10" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="BD8" s="10"/>
       <c r="BE8" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="BF8" s="10"/>
       <c r="BH8" s="25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="BI8" s="25" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="BJ8" s="27" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="BK8" s="26" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="BM8" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BN8" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="BO8" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="BP8" s="22"/>
       <c r="BR8" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BS8" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="BT8" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="BU8" s="22"/>
       <c r="CB8" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="CC8" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="CD8" s="3"/>
       <c r="CE8" s="24"/>
@@ -2576,264 +2582,264 @@
         <v>4</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H9" s="3"/>
       <c r="J9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="N9" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="O9" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="L9" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="M9" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="N9" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="P9" s="10"/>
       <c r="Z9" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AA9" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="AB9" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AC9" s="10"/>
       <c r="AE9" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF9" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AG9" s="10" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="AH9" s="10" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="AI9" s="10"/>
       <c r="AJ9" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AK9" s="10"/>
       <c r="AR9" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AS9" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AT9" s="10" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="AU9" s="10" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="AV9" s="10"/>
       <c r="AW9" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="AX9" s="10"/>
       <c r="AZ9" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA9" s="5" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="BB9" s="10" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="BC9" s="10" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="BD9" s="10"/>
       <c r="BE9" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="BF9" s="10"/>
       <c r="BH9" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="BI9" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="BJ9" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="BK9" s="10"/>
       <c r="BM9" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BN9" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="BO9" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="BP9" s="22"/>
       <c r="BR9" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BS9" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="BT9" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BU9" s="22"/>
       <c r="CB9" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="CC9" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="CD9" s="3"/>
       <c r="CE9" s="24"/>
     </row>
     <row r="10" spans="2:83" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>169</v>
-      </c>
       <c r="D10" s="5" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="L10" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="M10" s="10" t="s">
         <v>268</v>
-      </c>
-      <c r="M10" s="10" t="s">
-        <v>272</v>
       </c>
       <c r="N10" s="10"/>
       <c r="O10" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="P10" s="10"/>
       <c r="Z10" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA10" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="AB10" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AC10" s="10"/>
       <c r="AE10" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF10" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="AG10" s="10" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="AH10" s="10" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="AI10" s="10"/>
       <c r="AJ10" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AK10" s="10"/>
       <c r="AR10" s="3" t="s">
         <v>1</v>
       </c>
       <c r="AS10" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="AT10" s="10" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="AU10" s="10" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="AV10" s="10"/>
       <c r="AW10" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AX10" s="10"/>
       <c r="AZ10" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BA10" s="5" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="BB10" s="10" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="BC10" s="10" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="BD10" s="10"/>
       <c r="BE10" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="BF10" s="10"/>
       <c r="BH10" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="BI10" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="BJ10" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="BK10" s="10"/>
       <c r="BM10" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BN10" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="BO10" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="BP10" s="22"/>
       <c r="BR10" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="BS10" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="BT10" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="BU10" s="22"/>
     </row>
@@ -2842,975 +2848,998 @@
         <v>5</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H11" s="14"/>
       <c r="J11" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K11" s="25" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="L11" s="26" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="M11" s="26" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="N11" s="26"/>
       <c r="O11" s="27" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="P11" s="26" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="Z11" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AA11" s="3" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="AB11" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AC11" s="10"/>
       <c r="AR11" s="3" t="s">
         <v>2</v>
       </c>
       <c r="AS11" s="3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="AT11" s="10" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="AU11" s="10" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="AV11" s="10"/>
       <c r="AW11" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AX11" s="10"/>
       <c r="AZ11" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BA11" s="5" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="BB11" s="10" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="BC11" s="10" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="BD11" s="10"/>
       <c r="BE11" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BF11" s="10"/>
       <c r="BH11" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="BI11" s="3" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="BJ11" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="BK11" s="10"/>
       <c r="BM11" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BN11" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="BO11" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BP11" s="22"/>
       <c r="BR11" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="BS11" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="BT11" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="BU11" s="22"/>
     </row>
-    <row r="12" spans="2:83" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:83" ht="63" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="4" t="s">
-        <v>71</v>
+        <v>298</v>
       </c>
       <c r="H12" s="3"/>
       <c r="J12" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K12" s="25" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="L12" s="26" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="M12" s="26" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="N12" s="26"/>
       <c r="O12" s="27" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="P12" s="26" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="Z12" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AA12" s="3" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="AB12" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AC12" s="10"/>
       <c r="AR12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AS12" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AT12" s="10" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="AU12" s="10" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="AV12" s="10"/>
       <c r="AW12" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AX12" s="10"/>
       <c r="AZ12" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="BA12" s="5" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="BB12" s="10" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="BC12" s="10" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="BD12" s="10"/>
       <c r="BE12" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="BF12" s="10"/>
       <c r="BH12" s="25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="BI12" s="25" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="BJ12" s="27" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="BK12" s="26" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="BM12" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BN12" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="BO12" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="BP12" s="22"/>
       <c r="BR12" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BS12" s="3" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="BT12" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="BU12" s="22"/>
     </row>
-    <row r="13" spans="2:83" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:83" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="3" t="s">
-        <v>7</v>
+        <v>295</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>243</v>
+        <v>296</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="4" t="s">
-        <v>172</v>
+        <v>297</v>
       </c>
       <c r="H13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="M13" s="10" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="N13" s="10"/>
       <c r="O13" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P13" s="10"/>
       <c r="Z13" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA13" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="AB13" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AC13" s="10"/>
       <c r="AR13" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AS13" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AT13" s="10" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="AU13" s="10" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="AV13" s="10"/>
       <c r="AW13" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AX13" s="10"/>
       <c r="AZ13" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BA13" s="5" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="BB13" s="10" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="BC13" s="10" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="BD13" s="10"/>
       <c r="BE13" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="BF13" s="10"/>
       <c r="BH13" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="BI13" s="25" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="BJ13" s="27" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="BK13" s="26" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="BM13" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BN13" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="BO13" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="BP13" s="22"/>
       <c r="BR13" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BS13" s="3" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="BT13" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="BU13" s="22"/>
     </row>
     <row r="14" spans="2:83" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D14" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>267</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>271</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H14" s="14"/>
       <c r="J14" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="M14" s="10" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="N14" s="10"/>
       <c r="O14" s="4" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="P14" s="10"/>
       <c r="AC14" s="10"/>
       <c r="AR14" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AS14" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="AT14" s="10" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="AU14" s="10" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="AV14" s="10"/>
       <c r="AW14" s="4" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="AX14" s="10" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="AZ14" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BA14" s="5" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="BB14" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="BC14" s="10" t="s">
         <v>267</v>
-      </c>
-      <c r="BC14" s="10" t="s">
-        <v>271</v>
       </c>
       <c r="BD14" s="10"/>
       <c r="BE14" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="BF14" s="10"/>
       <c r="BH14" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BI14" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="BJ14" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="BK14" s="10"/>
       <c r="BM14" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BN14" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="BO14" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="BP14" s="22"/>
       <c r="BR14" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BS14" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="BT14" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="BU14" s="22"/>
     </row>
     <row r="15" spans="2:83" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="M15" s="10" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="N15" s="10"/>
       <c r="O15" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="P15" s="10"/>
       <c r="AR15" s="25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AS15" s="25" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AT15" s="26" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="AU15" s="26" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="AV15" s="26"/>
       <c r="AW15" s="27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AX15" s="26"/>
       <c r="AZ15" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BA15" s="5" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="BB15" s="10" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="BC15" s="10" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="BD15" s="10"/>
       <c r="BE15" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="BF15" s="10"/>
       <c r="BH15" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BI15" s="25" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="BJ15" s="27" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="BK15" s="26" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="16" spans="2:83" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H16" s="3"/>
       <c r="J16" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="M16" s="10" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="N16" s="10"/>
       <c r="O16" s="4" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="P16" s="10"/>
       <c r="AR16" s="25" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="AS16" s="25" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="AT16" s="26" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="AU16" s="26" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="AV16" s="26"/>
       <c r="AW16" s="27" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="AX16" s="26" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="BH16" s="25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BI16" s="25" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="BJ16" s="27" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="BK16" s="26" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
-    <row r="17" spans="10:63" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:63" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="G17" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H17" s="3"/>
       <c r="J17" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="L17" s="10" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="M17" s="10" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="N17" s="10"/>
       <c r="O17" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P17" s="10"/>
       <c r="AR17" s="25" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="AS17" s="25" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="AT17" s="26" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="AU17" s="26" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="AV17" s="26"/>
       <c r="AW17" s="27" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="AX17" s="26" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="BH17" s="25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="BI17" s="25" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="BJ17" s="27" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="BK17" s="26" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
-    <row r="18" spans="10:63" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:63" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J18" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="L18" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="M18" s="10" t="s">
         <v>267</v>
-      </c>
-      <c r="M18" s="10" t="s">
-        <v>271</v>
       </c>
       <c r="N18" s="10"/>
       <c r="O18" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P18" s="10"/>
       <c r="AR18" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AS18" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="AT18" s="10" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="AU18" s="10" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="AV18" s="10"/>
       <c r="AW18" s="4" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="AX18" s="10"/>
       <c r="BH18" s="3" t="s">
         <v>1</v>
       </c>
       <c r="BI18" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="BJ18" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="BK18" s="10"/>
     </row>
-    <row r="19" spans="10:63" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:63" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J19" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="L19" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="M19" s="10" t="s">
         <v>267</v>
-      </c>
-      <c r="M19" s="10" t="s">
-        <v>271</v>
       </c>
       <c r="N19" s="10"/>
       <c r="O19" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="P19" s="10"/>
       <c r="AR19" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AS19" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="AT19" s="10" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="AU19" s="10" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="AV19" s="10"/>
       <c r="AW19" s="4" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="AX19" s="10"/>
       <c r="BH19" s="3" t="s">
         <v>2</v>
       </c>
       <c r="BI19" s="3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="BJ19" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="BK19" s="10"/>
     </row>
-    <row r="20" spans="10:63" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:63" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J20" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="L20" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="M20" s="10" t="s">
         <v>267</v>
-      </c>
-      <c r="M20" s="10" t="s">
-        <v>271</v>
       </c>
       <c r="N20" s="10"/>
       <c r="O20" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="P20" s="10"/>
       <c r="AR20" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AS20" s="3" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="AT20" s="10" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AU20" s="10" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="AV20" s="10"/>
       <c r="AW20" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="AX20" s="10"/>
       <c r="BH20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="BI20" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="BJ20" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="BK20" s="10"/>
     </row>
-    <row r="21" spans="10:63" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:63" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J21" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="L21" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="M21" s="10" t="s">
         <v>267</v>
-      </c>
-      <c r="M21" s="10" t="s">
-        <v>271</v>
       </c>
       <c r="N21" s="10"/>
       <c r="O21" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="P21" s="10"/>
       <c r="AR21" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AS21" s="3" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="AT21" s="10" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AU21" s="10" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="AV21" s="10"/>
       <c r="AW21" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AX21" s="10"/>
       <c r="BH21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="BI21" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="BJ21" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="BK21" s="10"/>
     </row>
-    <row r="22" spans="10:63" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:63" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J22" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L22" s="10" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="M22" s="10" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="N22" s="10"/>
       <c r="O22" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="P22" s="10"/>
       <c r="AR22" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AS22" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="AT22" s="10" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="AU22" s="10" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="AV22" s="10"/>
       <c r="AW22" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="AX22" s="10"/>
       <c r="BH22" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="BI22" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="BJ22" s="4" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="BK22" s="10"/>
     </row>
-    <row r="23" spans="10:63" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:63" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="BH23" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="BI23" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="BJ23" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="BK23" s="26" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="24" spans="2:63" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BH24" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="BI24" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="BJ24" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="BK24" s="26" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="25" spans="2:63" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BH25" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="BI25" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="BJ25" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="BK25" s="26" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="26" spans="2:63" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BH26" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="BI23" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="BJ23" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="BK23" s="26" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="24" spans="10:63" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="BH24" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="BI24" s="25" t="s">
-        <v>219</v>
-      </c>
-      <c r="BJ24" s="27" t="s">
-        <v>223</v>
-      </c>
-      <c r="BK24" s="26" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="25" spans="10:63" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="BH25" s="25" t="s">
-        <v>220</v>
-      </c>
-      <c r="BI25" s="25" t="s">
-        <v>221</v>
-      </c>
-      <c r="BJ25" s="27" t="s">
+      <c r="BI26" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="BJ26" s="4" t="s">
         <v>222</v>
-      </c>
-      <c r="BK25" s="26" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="26" spans="10:63" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="BH26" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="BI26" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="BJ26" s="4" t="s">
-        <v>225</v>
       </c>
       <c r="BK26" s="10"/>
     </row>
-    <row r="27" spans="10:63" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:63" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="BH27" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BI27" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="BJ27" s="4" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="BK27" s="10"/>
     </row>
-    <row r="28" spans="10:63" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:63" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="BH28" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BI28" s="3" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="BJ28" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="BK28" s="10"/>
     </row>
-    <row r="29" spans="10:63" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:63" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="BH29" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BI29" s="3" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="BJ29" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="BK29" s="10"/>
     </row>
-    <row r="30" spans="10:63" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:63" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="BH30" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BI30" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="BJ30" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="BK30" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="CB3:CD3"/>
+    <mergeCell ref="BW3:BY3"/>
+    <mergeCell ref="BM2:BO2"/>
+    <mergeCell ref="BR2:BT2"/>
+    <mergeCell ref="BW2:BY2"/>
+    <mergeCell ref="CB2:CD2"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="J2:O2"/>
     <mergeCell ref="AM2:AO2"/>
@@ -3820,12 +3849,6 @@
     <mergeCell ref="Z2:AC2"/>
     <mergeCell ref="AE2:AK2"/>
     <mergeCell ref="AR2:AX2"/>
-    <mergeCell ref="CB3:CD3"/>
-    <mergeCell ref="BW3:BY3"/>
-    <mergeCell ref="BM2:BO2"/>
-    <mergeCell ref="BR2:BT2"/>
-    <mergeCell ref="BW2:BY2"/>
-    <mergeCell ref="CB2:CD2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/csdl-shopping-cart.xlsx
+++ b/csdl-shopping-cart.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DEVMASTER\DEV2206LM_SpringBoot\shopping-cart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C5E8241-0E99-4BFB-8C88-988AEE3AC81C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04BCAD65-1BBC-44C6-8979-CB902438931D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{91351D13-8343-4BE5-AE49-126D9A46B319}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="305">
   <si>
     <t>Id</t>
   </si>
@@ -947,6 +947,18 @@
   </si>
   <si>
     <t>photos</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>varchar(255)</t>
+  </si>
+  <si>
+    <t>Phân biệt USER, ADMIN</t>
   </si>
 </sst>
 </file>
@@ -1077,7 +1089,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1157,14 +1169,20 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1482,8 +1500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E867DBF7-62FE-4C81-BE5B-4B051B3412A0}">
   <dimension ref="B2:CE30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B12" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="BQ1" workbookViewId="0">
+      <selection activeCell="BV8" sqref="BV8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1566,101 +1584,101 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:83" x14ac:dyDescent="0.3">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="30" t="s">
         <v>225</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
       <c r="H2" s="9"/>
-      <c r="J2" s="29" t="s">
+      <c r="J2" s="30" t="s">
         <v>226</v>
       </c>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
       <c r="P2" s="9"/>
-      <c r="R2" s="30" t="s">
+      <c r="R2" s="31" t="s">
         <v>224</v>
       </c>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30"/>
-      <c r="U2" s="30"/>
-      <c r="V2" s="30"/>
-      <c r="W2" s="30"/>
-      <c r="X2" s="30"/>
-      <c r="Z2" s="30" t="s">
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="31"/>
+      <c r="W2" s="31"/>
+      <c r="X2" s="31"/>
+      <c r="Z2" s="31" t="s">
         <v>227</v>
       </c>
-      <c r="AA2" s="30"/>
-      <c r="AB2" s="30"/>
-      <c r="AC2" s="30"/>
-      <c r="AE2" s="29" t="s">
+      <c r="AA2" s="31"/>
+      <c r="AB2" s="31"/>
+      <c r="AC2" s="31"/>
+      <c r="AE2" s="30" t="s">
         <v>228</v>
       </c>
-      <c r="AF2" s="29"/>
-      <c r="AG2" s="29"/>
-      <c r="AH2" s="29"/>
-      <c r="AI2" s="29"/>
-      <c r="AJ2" s="29"/>
-      <c r="AK2" s="29"/>
-      <c r="AM2" s="29" t="s">
+      <c r="AF2" s="30"/>
+      <c r="AG2" s="30"/>
+      <c r="AH2" s="30"/>
+      <c r="AI2" s="30"/>
+      <c r="AJ2" s="30"/>
+      <c r="AK2" s="30"/>
+      <c r="AM2" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="AN2" s="29"/>
-      <c r="AO2" s="29"/>
+      <c r="AN2" s="30"/>
+      <c r="AO2" s="30"/>
       <c r="AP2" s="9"/>
-      <c r="AR2" s="29" t="s">
+      <c r="AR2" s="30" t="s">
         <v>230</v>
       </c>
-      <c r="AS2" s="29"/>
-      <c r="AT2" s="29"/>
-      <c r="AU2" s="29"/>
-      <c r="AV2" s="29"/>
-      <c r="AW2" s="29"/>
-      <c r="AX2" s="29"/>
-      <c r="AZ2" s="29" t="s">
+      <c r="AS2" s="30"/>
+      <c r="AT2" s="30"/>
+      <c r="AU2" s="30"/>
+      <c r="AV2" s="30"/>
+      <c r="AW2" s="30"/>
+      <c r="AX2" s="30"/>
+      <c r="AZ2" s="30" t="s">
         <v>231</v>
       </c>
-      <c r="BA2" s="29"/>
-      <c r="BB2" s="29"/>
-      <c r="BC2" s="29"/>
-      <c r="BD2" s="29"/>
-      <c r="BE2" s="29"/>
+      <c r="BA2" s="30"/>
+      <c r="BB2" s="30"/>
+      <c r="BC2" s="30"/>
+      <c r="BD2" s="30"/>
+      <c r="BE2" s="30"/>
       <c r="BF2" s="9"/>
-      <c r="BH2" s="29" t="s">
+      <c r="BH2" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="BI2" s="29"/>
-      <c r="BJ2" s="29"/>
+      <c r="BI2" s="30"/>
+      <c r="BJ2" s="30"/>
       <c r="BK2" s="9"/>
-      <c r="BM2" s="29" t="s">
+      <c r="BM2" s="30" t="s">
         <v>233</v>
       </c>
-      <c r="BN2" s="29"/>
-      <c r="BO2" s="29"/>
+      <c r="BN2" s="30"/>
+      <c r="BO2" s="30"/>
       <c r="BP2" s="9"/>
-      <c r="BR2" s="29" t="s">
+      <c r="BR2" s="30" t="s">
         <v>234</v>
       </c>
-      <c r="BS2" s="29"/>
-      <c r="BT2" s="29"/>
+      <c r="BS2" s="30"/>
+      <c r="BT2" s="30"/>
       <c r="BU2" s="9"/>
-      <c r="BW2" s="29" t="s">
+      <c r="BW2" s="30" t="s">
         <v>236</v>
       </c>
-      <c r="BX2" s="29"/>
-      <c r="BY2" s="29"/>
+      <c r="BX2" s="30"/>
+      <c r="BY2" s="30"/>
       <c r="BZ2" s="9"/>
-      <c r="CB2" s="29" t="s">
+      <c r="CB2" s="30" t="s">
         <v>235</v>
       </c>
-      <c r="CC2" s="29"/>
-      <c r="CD2" s="29"/>
+      <c r="CC2" s="30"/>
+      <c r="CD2" s="30"/>
       <c r="CE2" s="9"/>
     </row>
     <row r="3" spans="2:83" x14ac:dyDescent="0.3">
@@ -1770,17 +1788,17 @@
         <v>212</v>
       </c>
       <c r="BU3" s="7"/>
-      <c r="BW3" s="31" t="s">
+      <c r="BW3" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="BX3" s="31"/>
-      <c r="BY3" s="31"/>
+      <c r="BX3" s="29"/>
+      <c r="BY3" s="29"/>
       <c r="BZ3" s="2"/>
-      <c r="CB3" s="31" t="s">
+      <c r="CB3" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="CC3" s="31"/>
-      <c r="CD3" s="31"/>
+      <c r="CC3" s="29"/>
+      <c r="CD3" s="29"/>
       <c r="CE3" s="2"/>
     </row>
     <row r="4" spans="2:83" s="6" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -2483,23 +2501,23 @@
         <v>93</v>
       </c>
       <c r="AC8" s="10"/>
-      <c r="AE8" s="3" t="s">
+      <c r="AE8" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="AF8" s="3" t="s">
+      <c r="AF8" s="25" t="s">
         <v>242</v>
       </c>
-      <c r="AG8" s="10" t="s">
+      <c r="AG8" s="26" t="s">
         <v>278</v>
       </c>
-      <c r="AH8" s="10" t="s">
+      <c r="AH8" s="26" t="s">
         <v>267</v>
       </c>
-      <c r="AI8" s="10"/>
-      <c r="AJ8" s="4" t="s">
+      <c r="AI8" s="26"/>
+      <c r="AJ8" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="AK8" s="10"/>
+      <c r="AK8" s="26"/>
       <c r="AR8" s="25" t="s">
         <v>41</v>
       </c>
@@ -2519,23 +2537,23 @@
       <c r="AX8" s="26" t="s">
         <v>287</v>
       </c>
-      <c r="AZ8" s="3" t="s">
+      <c r="AZ8" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="BA8" s="5" t="s">
+      <c r="BA8" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="BB8" s="10" t="s">
+      <c r="BB8" s="26" t="s">
         <v>278</v>
       </c>
-      <c r="BC8" s="10" t="s">
+      <c r="BC8" s="26" t="s">
         <v>269</v>
       </c>
-      <c r="BD8" s="10"/>
-      <c r="BE8" s="4" t="s">
+      <c r="BD8" s="26"/>
+      <c r="BE8" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="BF8" s="10"/>
+      <c r="BF8" s="26"/>
       <c r="BH8" s="25" t="s">
         <v>41</v>
       </c>
@@ -2548,23 +2566,23 @@
       <c r="BK8" s="26" t="s">
         <v>287</v>
       </c>
-      <c r="BM8" s="3" t="s">
+      <c r="BM8" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="BN8" s="3" t="s">
+      <c r="BN8" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="BO8" s="4" t="s">
+      <c r="BO8" s="27" t="s">
         <v>119</v>
       </c>
       <c r="BP8" s="22"/>
-      <c r="BR8" s="3" t="s">
+      <c r="BR8" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="BS8" s="3" t="s">
+      <c r="BS8" s="25" t="s">
         <v>213</v>
       </c>
-      <c r="BT8" s="4" t="s">
+      <c r="BT8" s="27" t="s">
         <v>151</v>
       </c>
       <c r="BU8" s="22"/>
@@ -2844,23 +2862,25 @@
       <c r="BU10" s="22"/>
     </row>
     <row r="11" spans="2:83" ht="63" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="32" t="s">
         <v>162</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="32" t="s">
         <v>262</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="26" t="s">
         <v>270</v>
       </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="4" t="s">
+      <c r="F11" s="26"/>
+      <c r="G11" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="H11" s="14"/>
+      <c r="H11" s="33" t="s">
+        <v>287</v>
+      </c>
       <c r="J11" s="25" t="s">
         <v>18</v>
       </c>
@@ -2956,23 +2976,23 @@
       <c r="BU11" s="22"/>
     </row>
     <row r="12" spans="2:83" ht="63" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="32" t="s">
         <v>262</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="26" t="s">
         <v>270</v>
       </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="4" t="s">
+      <c r="F12" s="26"/>
+      <c r="G12" s="27" t="s">
         <v>298</v>
       </c>
-      <c r="H12" s="3"/>
+      <c r="H12" s="25"/>
       <c r="J12" s="25" t="s">
         <v>19</v>
       </c>
@@ -3070,23 +3090,23 @@
       <c r="BU12" s="22"/>
     </row>
     <row r="13" spans="2:83" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="25" t="s">
         <v>295</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="32" t="s">
         <v>296</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="32" t="s">
         <v>263</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="26" t="s">
         <v>269</v>
       </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="4" t="s">
+      <c r="F13" s="26"/>
+      <c r="G13" s="27" t="s">
         <v>297</v>
       </c>
-      <c r="H13" s="3"/>
+      <c r="H13" s="25"/>
       <c r="J13" s="3" t="s">
         <v>20</v>
       </c>
@@ -3182,23 +3202,23 @@
       <c r="BU13" s="22"/>
     </row>
     <row r="14" spans="2:83" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="32" t="s">
         <v>240</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="32" t="s">
         <v>263</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="26" t="s">
         <v>267</v>
       </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="4" t="s">
+      <c r="F14" s="26"/>
+      <c r="G14" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="H14" s="14"/>
+      <c r="H14" s="33"/>
       <c r="J14" s="3" t="s">
         <v>21</v>
       </c>
@@ -3501,6 +3521,21 @@
       </c>
     </row>
     <row r="18" spans="2:63" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="H18" s="3"/>
       <c r="J18" s="3" t="s">
         <v>25</v>
       </c>
@@ -3547,20 +3582,20 @@
       <c r="BK18" s="10"/>
     </row>
     <row r="19" spans="2:63" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J19" s="3" t="s">
+      <c r="J19" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="K19" s="3" t="s">
+      <c r="K19" s="25" t="s">
         <v>245</v>
       </c>
-      <c r="L19" s="10" t="s">
+      <c r="L19" s="26" t="s">
         <v>263</v>
       </c>
-      <c r="M19" s="10" t="s">
+      <c r="M19" s="26" t="s">
         <v>267</v>
       </c>
-      <c r="N19" s="10"/>
-      <c r="O19" s="4" t="s">
+      <c r="N19" s="26"/>
+      <c r="O19" s="27" t="s">
         <v>183</v>
       </c>
       <c r="P19" s="10"/>
@@ -3593,20 +3628,20 @@
       <c r="BK19" s="10"/>
     </row>
     <row r="20" spans="2:63" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J20" s="3" t="s">
+      <c r="J20" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="K20" s="3" t="s">
+      <c r="K20" s="25" t="s">
         <v>246</v>
       </c>
-      <c r="L20" s="10" t="s">
+      <c r="L20" s="26" t="s">
         <v>263</v>
       </c>
-      <c r="M20" s="10" t="s">
+      <c r="M20" s="26" t="s">
         <v>267</v>
       </c>
-      <c r="N20" s="10"/>
-      <c r="O20" s="4" t="s">
+      <c r="N20" s="26"/>
+      <c r="O20" s="27" t="s">
         <v>84</v>
       </c>
       <c r="P20" s="10"/>
@@ -3834,12 +3869,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="CB3:CD3"/>
-    <mergeCell ref="BW3:BY3"/>
-    <mergeCell ref="BM2:BO2"/>
-    <mergeCell ref="BR2:BT2"/>
-    <mergeCell ref="BW2:BY2"/>
-    <mergeCell ref="CB2:CD2"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="J2:O2"/>
     <mergeCell ref="AM2:AO2"/>
@@ -3849,6 +3878,12 @@
     <mergeCell ref="Z2:AC2"/>
     <mergeCell ref="AE2:AK2"/>
     <mergeCell ref="AR2:AX2"/>
+    <mergeCell ref="CB3:CD3"/>
+    <mergeCell ref="BW3:BY3"/>
+    <mergeCell ref="BM2:BO2"/>
+    <mergeCell ref="BR2:BT2"/>
+    <mergeCell ref="BW2:BY2"/>
+    <mergeCell ref="CB2:CD2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/csdl-shopping-cart.xlsx
+++ b/csdl-shopping-cart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DEVMASTER\DEV2206LM_SpringBoot\shopping-cart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04BCAD65-1BBC-44C6-8979-CB902438931D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B6C38B-AD86-4C52-8E3C-16AB64EC4AA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{91351D13-8343-4BE5-AE49-126D9A46B319}"/>
   </bookViews>
@@ -497,12 +497,6 @@
     <t>Loại giao dịch đặt hàng có thể là Tín dụng hoặc Ghi nợ.</t>
   </si>
   <si>
-    <t>Phương thức của giao dịch đặt hàng có thể là Ngoại tuyến, Thu tiền khi giao hàng, Séc, Hối phiếu, Có dây và Trực tuyến.</t>
-  </si>
-  <si>
-    <t>Trạng thái của giao dịch đặt hàng có thể là Mới, Đã hủy, Không thành công, Đang chờ xử lý, Đã từ chối, Bị từ chối và Thành công.</t>
-  </si>
-  <si>
     <t>Nó lưu trữ ngày và giờ mà giao dịch đặt hàng được tạo.</t>
   </si>
   <si>
@@ -959,6 +953,12 @@
   </si>
   <si>
     <t>Phân biệt USER, ADMIN</t>
+  </si>
+  <si>
+    <t>Phương thức của giao dịch đặt hàng có thể là Thu tiền khi giao hàng(0), Thu tiền online(1)</t>
+  </si>
+  <si>
+    <t>Trạng thái của giao dịch đặt hàng có thể là Mới(0), Đã hủy(1), Không thành công(2), Đang chờ xử lý(3), Đã từ chối(4), Bị từ chối(5) và Thành công(6).</t>
   </si>
 </sst>
 </file>
@@ -1169,8 +1169,11 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1178,11 +1181,8 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1500,8 +1500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E867DBF7-62FE-4C81-BE5B-4B051B3412A0}">
   <dimension ref="B2:CE30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BQ1" workbookViewId="0">
-      <selection activeCell="BV8" sqref="BV8"/>
+    <sheetView tabSelected="1" topLeftCell="BN8" workbookViewId="0">
+      <selection activeCell="BT11" sqref="BT11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1584,101 +1584,101 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:83" x14ac:dyDescent="0.3">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="9"/>
+      <c r="J2" s="31" t="s">
+        <v>224</v>
+      </c>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="9"/>
+      <c r="R2" s="32" t="s">
+        <v>222</v>
+      </c>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="32"/>
+      <c r="X2" s="32"/>
+      <c r="Z2" s="32" t="s">
         <v>225</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="9"/>
-      <c r="J2" s="30" t="s">
+      <c r="AA2" s="32"/>
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="32"/>
+      <c r="AE2" s="31" t="s">
         <v>226</v>
       </c>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="9"/>
-      <c r="R2" s="31" t="s">
-        <v>224</v>
-      </c>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="31"/>
-      <c r="V2" s="31"/>
-      <c r="W2" s="31"/>
-      <c r="X2" s="31"/>
-      <c r="Z2" s="31" t="s">
+      <c r="AF2" s="31"/>
+      <c r="AG2" s="31"/>
+      <c r="AH2" s="31"/>
+      <c r="AI2" s="31"/>
+      <c r="AJ2" s="31"/>
+      <c r="AK2" s="31"/>
+      <c r="AM2" s="31" t="s">
         <v>227</v>
       </c>
-      <c r="AA2" s="31"/>
-      <c r="AB2" s="31"/>
-      <c r="AC2" s="31"/>
-      <c r="AE2" s="30" t="s">
+      <c r="AN2" s="31"/>
+      <c r="AO2" s="31"/>
+      <c r="AP2" s="9"/>
+      <c r="AR2" s="31" t="s">
         <v>228</v>
       </c>
-      <c r="AF2" s="30"/>
-      <c r="AG2" s="30"/>
-      <c r="AH2" s="30"/>
-      <c r="AI2" s="30"/>
-      <c r="AJ2" s="30"/>
-      <c r="AK2" s="30"/>
-      <c r="AM2" s="30" t="s">
+      <c r="AS2" s="31"/>
+      <c r="AT2" s="31"/>
+      <c r="AU2" s="31"/>
+      <c r="AV2" s="31"/>
+      <c r="AW2" s="31"/>
+      <c r="AX2" s="31"/>
+      <c r="AZ2" s="31" t="s">
         <v>229</v>
       </c>
-      <c r="AN2" s="30"/>
-      <c r="AO2" s="30"/>
-      <c r="AP2" s="9"/>
-      <c r="AR2" s="30" t="s">
+      <c r="BA2" s="31"/>
+      <c r="BB2" s="31"/>
+      <c r="BC2" s="31"/>
+      <c r="BD2" s="31"/>
+      <c r="BE2" s="31"/>
+      <c r="BF2" s="9"/>
+      <c r="BH2" s="31" t="s">
         <v>230</v>
       </c>
-      <c r="AS2" s="30"/>
-      <c r="AT2" s="30"/>
-      <c r="AU2" s="30"/>
-      <c r="AV2" s="30"/>
-      <c r="AW2" s="30"/>
-      <c r="AX2" s="30"/>
-      <c r="AZ2" s="30" t="s">
+      <c r="BI2" s="31"/>
+      <c r="BJ2" s="31"/>
+      <c r="BK2" s="9"/>
+      <c r="BM2" s="31" t="s">
         <v>231</v>
       </c>
-      <c r="BA2" s="30"/>
-      <c r="BB2" s="30"/>
-      <c r="BC2" s="30"/>
-      <c r="BD2" s="30"/>
-      <c r="BE2" s="30"/>
-      <c r="BF2" s="9"/>
-      <c r="BH2" s="30" t="s">
+      <c r="BN2" s="31"/>
+      <c r="BO2" s="31"/>
+      <c r="BP2" s="9"/>
+      <c r="BR2" s="31" t="s">
         <v>232</v>
       </c>
-      <c r="BI2" s="30"/>
-      <c r="BJ2" s="30"/>
-      <c r="BK2" s="9"/>
-      <c r="BM2" s="30" t="s">
+      <c r="BS2" s="31"/>
+      <c r="BT2" s="31"/>
+      <c r="BU2" s="9"/>
+      <c r="BW2" s="31" t="s">
+        <v>234</v>
+      </c>
+      <c r="BX2" s="31"/>
+      <c r="BY2" s="31"/>
+      <c r="BZ2" s="9"/>
+      <c r="CB2" s="31" t="s">
         <v>233</v>
       </c>
-      <c r="BN2" s="30"/>
-      <c r="BO2" s="30"/>
-      <c r="BP2" s="9"/>
-      <c r="BR2" s="30" t="s">
-        <v>234</v>
-      </c>
-      <c r="BS2" s="30"/>
-      <c r="BT2" s="30"/>
-      <c r="BU2" s="9"/>
-      <c r="BW2" s="30" t="s">
-        <v>236</v>
-      </c>
-      <c r="BX2" s="30"/>
-      <c r="BY2" s="30"/>
-      <c r="BZ2" s="9"/>
-      <c r="CB2" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="CC2" s="30"/>
-      <c r="CD2" s="30"/>
+      <c r="CC2" s="31"/>
+      <c r="CD2" s="31"/>
       <c r="CE2" s="9"/>
     </row>
     <row r="3" spans="2:83" x14ac:dyDescent="0.3">
@@ -1690,7 +1690,7 @@
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H3" s="7"/>
       <c r="J3" s="7" t="s">
@@ -1701,7 +1701,7 @@
       <c r="M3" s="12"/>
       <c r="N3" s="12"/>
       <c r="O3" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="P3" s="7"/>
       <c r="R3" s="7" t="s">
@@ -1712,7 +1712,7 @@
       <c r="U3" s="7"/>
       <c r="V3" s="7"/>
       <c r="W3" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="X3" s="7"/>
       <c r="Z3" s="7" t="s">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="AA3" s="7"/>
       <c r="AB3" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="AC3" s="7"/>
       <c r="AE3" s="7" t="s">
@@ -1731,15 +1731,15 @@
       <c r="AH3" s="12"/>
       <c r="AI3" s="12"/>
       <c r="AJ3" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AK3" s="7"/>
       <c r="AM3" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AN3" s="7"/>
       <c r="AO3" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AP3" s="7"/>
       <c r="AR3" s="7" t="s">
@@ -1750,7 +1750,7 @@
       <c r="AU3" s="12"/>
       <c r="AV3" s="12"/>
       <c r="AW3" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AX3" s="7"/>
       <c r="AZ3" s="7" t="s">
@@ -1761,7 +1761,7 @@
       <c r="BC3" s="12"/>
       <c r="BD3" s="12"/>
       <c r="BE3" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="BF3" s="7"/>
       <c r="BH3" s="8" t="s">
@@ -1769,7 +1769,7 @@
       </c>
       <c r="BI3" s="8"/>
       <c r="BJ3" s="8" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="BK3" s="8"/>
       <c r="BM3" s="7" t="s">
@@ -1777,7 +1777,7 @@
       </c>
       <c r="BN3" s="7"/>
       <c r="BO3" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="BP3" s="7"/>
       <c r="BR3" s="7" t="s">
@@ -1785,65 +1785,65 @@
       </c>
       <c r="BS3" s="7"/>
       <c r="BT3" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="BU3" s="7"/>
-      <c r="BW3" s="29" t="s">
+      <c r="BW3" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="BX3" s="29"/>
-      <c r="BY3" s="29"/>
+      <c r="BX3" s="33"/>
+      <c r="BY3" s="33"/>
       <c r="BZ3" s="2"/>
-      <c r="CB3" s="29" t="s">
+      <c r="CB3" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="CC3" s="29"/>
-      <c r="CD3" s="29"/>
+      <c r="CC3" s="33"/>
+      <c r="CD3" s="33"/>
       <c r="CE3" s="2"/>
     </row>
     <row r="4" spans="2:83" s="6" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="18"/>
       <c r="C4" s="18" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D4" s="18" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
       <c r="J4" s="18"/>
       <c r="K4" s="18" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="L4" s="19" t="s">
         <v>18</v>
       </c>
       <c r="M4" s="19" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="N4" s="19" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="O4" s="18"/>
       <c r="P4" s="21"/>
       <c r="R4" s="18"/>
       <c r="S4" s="18" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="T4" s="19" t="s">
         <v>18</v>
       </c>
       <c r="U4" s="19" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="V4" s="19" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="W4" s="18"/>
       <c r="X4" s="21"/>
@@ -1853,16 +1853,16 @@
       <c r="AC4" s="21"/>
       <c r="AE4" s="18"/>
       <c r="AF4" s="18" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="AG4" s="19" t="s">
         <v>18</v>
       </c>
       <c r="AH4" s="19" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AI4" s="19" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AJ4" s="18"/>
       <c r="AK4" s="21"/>
@@ -1872,31 +1872,31 @@
       <c r="AP4" s="21"/>
       <c r="AR4" s="18"/>
       <c r="AS4" s="18" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="AT4" s="19" t="s">
         <v>18</v>
       </c>
       <c r="AU4" s="19" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AV4" s="19" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AW4" s="18"/>
       <c r="AX4" s="21"/>
       <c r="AZ4" s="18"/>
       <c r="BA4" s="18" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="BB4" s="19" t="s">
         <v>18</v>
       </c>
       <c r="BC4" s="19" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="BD4" s="19" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="BE4" s="18"/>
       <c r="BF4" s="21"/>
@@ -1926,16 +1926,16 @@
         <v>0</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G5" s="17" t="s">
         <v>66</v>
@@ -1945,16 +1945,16 @@
         <v>0</v>
       </c>
       <c r="K5" s="14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L5" s="16" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="M5" s="16" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="N5" s="16" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="O5" s="17" t="s">
         <v>73</v>
@@ -1964,7 +1964,7 @@
         <v>0</v>
       </c>
       <c r="S5" s="14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="T5" s="14"/>
       <c r="U5" s="14"/>
@@ -1977,7 +1977,7 @@
         <v>0</v>
       </c>
       <c r="AA5" s="14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AB5" s="17" t="s">
         <v>91</v>
@@ -1987,16 +1987,16 @@
         <v>0</v>
       </c>
       <c r="AF5" s="14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AG5" s="16" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="AH5" s="16" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AI5" s="16" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AJ5" s="17" t="s">
         <v>99</v>
@@ -2006,26 +2006,26 @@
         <v>0</v>
       </c>
       <c r="AN5" s="14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AO5" s="17" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AP5" s="10"/>
       <c r="AR5" s="14" t="s">
         <v>0</v>
       </c>
       <c r="AS5" s="14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AT5" s="16" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="AU5" s="16" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AV5" s="16" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AW5" s="17" t="s">
         <v>106</v>
@@ -2035,16 +2035,16 @@
         <v>0</v>
       </c>
       <c r="BA5" s="15" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="BB5" s="16" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="BC5" s="16" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="BD5" s="16" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="BE5" s="17" t="s">
         <v>116</v>
@@ -2054,7 +2054,7 @@
         <v>0</v>
       </c>
       <c r="BI5" s="14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="BJ5" s="17" t="s">
         <v>126</v>
@@ -2064,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="BN5" s="14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="BO5" s="17" t="s">
         <v>142</v>
@@ -2074,7 +2074,7 @@
         <v>0</v>
       </c>
       <c r="BS5" s="14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="BT5" s="17" t="s">
         <v>148</v>
@@ -2084,7 +2084,7 @@
         <v>0</v>
       </c>
       <c r="BX5" s="14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="BY5" s="14"/>
       <c r="BZ5" s="24"/>
@@ -2092,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="CC5" s="14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="CD5" s="14"/>
       <c r="CE5" s="24"/>
@@ -2102,13 +2102,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="4" t="s">
@@ -2119,16 +2119,16 @@
         <v>12</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="O6" s="4" t="s">
         <v>74</v>
@@ -2138,7 +2138,7 @@
         <v>31</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
@@ -2151,7 +2151,7 @@
         <v>31</v>
       </c>
       <c r="AA6" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AB6" s="4" t="s">
         <v>88</v>
@@ -2161,7 +2161,7 @@
         <v>34</v>
       </c>
       <c r="AF6" s="25" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="AG6" s="26"/>
       <c r="AH6" s="26"/>
@@ -2170,13 +2170,13 @@
         <v>100</v>
       </c>
       <c r="AK6" s="26" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="AM6" s="3" t="s">
         <v>31</v>
       </c>
       <c r="AN6" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AO6" s="4" t="s">
         <v>104</v>
@@ -2186,16 +2186,16 @@
         <v>12</v>
       </c>
       <c r="AS6" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AT6" s="10" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="AU6" s="10" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="AV6" s="10" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AW6" s="4" t="s">
         <v>107</v>
@@ -2205,16 +2205,16 @@
         <v>31</v>
       </c>
       <c r="BA6" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="BB6" s="10" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="BC6" s="10" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="BD6" s="10" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="BE6" s="4" t="s">
         <v>117</v>
@@ -2224,7 +2224,7 @@
         <v>12</v>
       </c>
       <c r="BI6" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="BJ6" s="4" t="s">
         <v>127</v>
@@ -2234,7 +2234,7 @@
         <v>31</v>
       </c>
       <c r="BN6" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="BO6" s="4" t="s">
         <v>143</v>
@@ -2244,7 +2244,7 @@
         <v>12</v>
       </c>
       <c r="BS6" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="BT6" s="4" t="s">
         <v>149</v>
@@ -2254,7 +2254,7 @@
         <v>31</v>
       </c>
       <c r="BX6" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="BY6" s="3"/>
       <c r="BZ6" s="24"/>
@@ -2262,7 +2262,7 @@
         <v>13</v>
       </c>
       <c r="CC6" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="CD6" s="3"/>
       <c r="CE6" s="24"/>
@@ -2272,30 +2272,30 @@
         <v>2</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H7" s="3"/>
       <c r="J7" s="3" t="s">
         <v>13</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="N7" s="10"/>
       <c r="O7" s="4" t="s">
@@ -2306,7 +2306,7 @@
         <v>32</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
@@ -2319,7 +2319,7 @@
         <v>34</v>
       </c>
       <c r="AA7" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="AB7" s="4" t="s">
         <v>92</v>
@@ -2329,13 +2329,13 @@
         <v>13</v>
       </c>
       <c r="AF7" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AG7" s="10" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AH7" s="10" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AI7" s="10"/>
       <c r="AJ7" s="4" t="s">
@@ -2346,7 +2346,7 @@
         <v>38</v>
       </c>
       <c r="AN7" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AO7" s="4" t="s">
         <v>105</v>
@@ -2356,35 +2356,35 @@
         <v>40</v>
       </c>
       <c r="AS7" s="25" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AT7" s="26" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AU7" s="26" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AV7" s="26"/>
       <c r="AW7" s="27" t="s">
         <v>108</v>
       </c>
       <c r="AX7" s="26" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="AZ7" s="3" t="s">
         <v>48</v>
       </c>
       <c r="BA7" s="5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="BB7" s="10" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="BC7" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="BD7" s="10" t="s">
         <v>291</v>
-      </c>
-      <c r="BD7" s="10" t="s">
-        <v>293</v>
       </c>
       <c r="BE7" s="4" t="s">
         <v>118</v>
@@ -2394,19 +2394,19 @@
         <v>48</v>
       </c>
       <c r="BI7" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="BJ7" s="4" t="s">
         <v>128</v>
       </c>
       <c r="BK7" s="26" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="BM7" s="3" t="s">
         <v>58</v>
       </c>
       <c r="BN7" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="BO7" s="4" t="s">
         <v>144</v>
@@ -2416,7 +2416,7 @@
         <v>58</v>
       </c>
       <c r="BS7" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="BT7" s="4" t="s">
         <v>150</v>
@@ -2426,7 +2426,7 @@
         <v>64</v>
       </c>
       <c r="BX7" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="BY7" s="3"/>
       <c r="BZ7" s="24"/>
@@ -2434,7 +2434,7 @@
         <v>14</v>
       </c>
       <c r="CC7" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="CD7" s="3"/>
       <c r="CE7" s="24"/>
@@ -2444,16 +2444,16 @@
         <v>3</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>68</v>
@@ -2463,26 +2463,26 @@
         <v>14</v>
       </c>
       <c r="K8" s="25" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L8" s="26" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M8" s="26" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="N8" s="26"/>
       <c r="O8" s="27" t="s">
         <v>76</v>
       </c>
       <c r="P8" s="26" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="R8" s="3" t="s">
         <v>29</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
@@ -2495,7 +2495,7 @@
         <v>13</v>
       </c>
       <c r="AA8" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AB8" s="4" t="s">
         <v>93</v>
@@ -2505,13 +2505,13 @@
         <v>14</v>
       </c>
       <c r="AF8" s="25" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="AG8" s="26" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AH8" s="26" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="AI8" s="26"/>
       <c r="AJ8" s="27" t="s">
@@ -2522,32 +2522,32 @@
         <v>41</v>
       </c>
       <c r="AS8" s="25" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AT8" s="26" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AU8" s="26" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AV8" s="26"/>
       <c r="AW8" s="27" t="s">
         <v>109</v>
       </c>
       <c r="AX8" s="26" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="AZ8" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="BA8" s="32" t="s">
-        <v>176</v>
+      <c r="BA8" s="29" t="s">
+        <v>174</v>
       </c>
       <c r="BB8" s="26" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="BC8" s="26" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="BD8" s="26"/>
       <c r="BE8" s="27" t="s">
@@ -2558,19 +2558,19 @@
         <v>41</v>
       </c>
       <c r="BI8" s="25" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="BJ8" s="27" t="s">
         <v>129</v>
       </c>
       <c r="BK8" s="26" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="BM8" s="25" t="s">
         <v>19</v>
       </c>
       <c r="BN8" s="25" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="BO8" s="27" t="s">
         <v>119</v>
@@ -2580,7 +2580,7 @@
         <v>61</v>
       </c>
       <c r="BS8" s="25" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="BT8" s="27" t="s">
         <v>151</v>
@@ -2590,7 +2590,7 @@
         <v>15</v>
       </c>
       <c r="CC8" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="CD8" s="3"/>
       <c r="CE8" s="24"/>
@@ -2600,16 +2600,16 @@
         <v>4</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>69</v>
@@ -2619,16 +2619,16 @@
         <v>15</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="O9" s="4" t="s">
         <v>16</v>
@@ -2638,7 +2638,7 @@
         <v>35</v>
       </c>
       <c r="AA9" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AB9" s="4" t="s">
         <v>94</v>
@@ -2648,13 +2648,13 @@
         <v>15</v>
       </c>
       <c r="AF9" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AG9" s="10" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AH9" s="10" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AI9" s="10"/>
       <c r="AJ9" s="4" t="s">
@@ -2665,30 +2665,30 @@
         <v>42</v>
       </c>
       <c r="AS9" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="AT9" s="10" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="AU9" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AV9" s="10"/>
       <c r="AW9" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AX9" s="10"/>
       <c r="AZ9" s="3" t="s">
         <v>20</v>
       </c>
       <c r="BA9" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="BB9" s="10" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="BC9" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="BD9" s="10"/>
       <c r="BE9" s="4" t="s">
@@ -2699,7 +2699,7 @@
         <v>42</v>
       </c>
       <c r="BI9" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="BJ9" s="4" t="s">
         <v>130</v>
@@ -2709,7 +2709,7 @@
         <v>20</v>
       </c>
       <c r="BN9" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="BO9" s="4" t="s">
         <v>120</v>
@@ -2719,7 +2719,7 @@
         <v>18</v>
       </c>
       <c r="BS9" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="BT9" s="4" t="s">
         <v>152</v>
@@ -2729,40 +2729,40 @@
         <v>29</v>
       </c>
       <c r="CC9" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="CD9" s="3"/>
       <c r="CE9" s="24"/>
     </row>
     <row r="10" spans="2:83" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>167</v>
-      </c>
       <c r="D10" s="5" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H10" s="3"/>
       <c r="J10" s="3" t="s">
         <v>17</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="N10" s="10"/>
       <c r="O10" s="4" t="s">
@@ -2773,7 +2773,7 @@
         <v>36</v>
       </c>
       <c r="AA10" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AB10" s="4" t="s">
         <v>95</v>
@@ -2783,13 +2783,13 @@
         <v>29</v>
       </c>
       <c r="AF10" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AG10" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="AH10" s="10" t="s">
         <v>265</v>
-      </c>
-      <c r="AH10" s="10" t="s">
-        <v>267</v>
       </c>
       <c r="AI10" s="10"/>
       <c r="AJ10" s="4" t="s">
@@ -2800,13 +2800,13 @@
         <v>1</v>
       </c>
       <c r="AS10" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="AT10" s="10" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AU10" s="10" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="AV10" s="10"/>
       <c r="AW10" s="4" t="s">
@@ -2817,13 +2817,13 @@
         <v>21</v>
       </c>
       <c r="BA10" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="BB10" s="10" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="BC10" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="BD10" s="10"/>
       <c r="BE10" s="4" t="s">
@@ -2834,7 +2834,7 @@
         <v>51</v>
       </c>
       <c r="BI10" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="BJ10" s="4" t="s">
         <v>131</v>
@@ -2844,7 +2844,7 @@
         <v>21</v>
       </c>
       <c r="BN10" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="BO10" s="4" t="s">
         <v>121</v>
@@ -2854,10 +2854,10 @@
         <v>62</v>
       </c>
       <c r="BS10" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="BT10" s="4" t="s">
-        <v>153</v>
+        <v>303</v>
       </c>
       <c r="BU10" s="22"/>
     </row>
@@ -2865,46 +2865,46 @@
       <c r="B11" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="32" t="s">
-        <v>162</v>
-      </c>
-      <c r="D11" s="32" t="s">
-        <v>262</v>
+      <c r="C11" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>260</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F11" s="26"/>
       <c r="G11" s="27" t="s">
-        <v>168</v>
-      </c>
-      <c r="H11" s="33" t="s">
-        <v>287</v>
+        <v>166</v>
+      </c>
+      <c r="H11" s="30" t="s">
+        <v>285</v>
       </c>
       <c r="J11" s="25" t="s">
         <v>18</v>
       </c>
       <c r="K11" s="25" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="L11" s="26" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="M11" s="26" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="N11" s="26"/>
       <c r="O11" s="27" t="s">
         <v>78</v>
       </c>
       <c r="P11" s="26" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="Z11" s="3" t="s">
         <v>24</v>
       </c>
       <c r="AA11" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AB11" s="4" t="s">
         <v>96</v>
@@ -2914,30 +2914,30 @@
         <v>2</v>
       </c>
       <c r="AS11" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AT11" s="10" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AU11" s="10" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="AV11" s="10"/>
       <c r="AW11" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AX11" s="10"/>
       <c r="AZ11" s="3" t="s">
         <v>22</v>
       </c>
       <c r="BA11" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="BB11" s="10" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="BC11" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="BD11" s="10"/>
       <c r="BE11" s="4" t="s">
@@ -2948,7 +2948,7 @@
         <v>52</v>
       </c>
       <c r="BI11" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="BJ11" s="4" t="s">
         <v>132</v>
@@ -2958,7 +2958,7 @@
         <v>22</v>
       </c>
       <c r="BN11" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="BO11" s="4" t="s">
         <v>122</v>
@@ -2968,10 +2968,10 @@
         <v>42</v>
       </c>
       <c r="BS11" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="BT11" s="4" t="s">
-        <v>154</v>
+        <v>304</v>
       </c>
       <c r="BU11" s="22"/>
     </row>
@@ -2979,44 +2979,44 @@
       <c r="B12" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="32" t="s">
-        <v>163</v>
-      </c>
-      <c r="D12" s="32" t="s">
-        <v>262</v>
+      <c r="C12" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>260</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F12" s="26"/>
       <c r="G12" s="27" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H12" s="25"/>
       <c r="J12" s="25" t="s">
         <v>19</v>
       </c>
       <c r="K12" s="25" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="L12" s="26" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M12" s="26" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="N12" s="26"/>
       <c r="O12" s="27" t="s">
         <v>79</v>
       </c>
       <c r="P12" s="26" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="Z12" s="3" t="s">
         <v>26</v>
       </c>
       <c r="AA12" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AB12" s="4" t="s">
         <v>97</v>
@@ -3026,13 +3026,13 @@
         <v>3</v>
       </c>
       <c r="AS12" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AT12" s="10" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AU12" s="10" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AV12" s="10"/>
       <c r="AW12" s="4" t="s">
@@ -3043,36 +3043,36 @@
         <v>49</v>
       </c>
       <c r="BA12" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="BB12" s="10" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="BC12" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="BD12" s="10"/>
       <c r="BE12" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="BF12" s="10"/>
       <c r="BH12" s="25" t="s">
         <v>53</v>
       </c>
       <c r="BI12" s="25" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="BJ12" s="27" t="s">
         <v>133</v>
       </c>
       <c r="BK12" s="26" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="BM12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="BN12" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="BO12" s="4" t="s">
         <v>145</v>
@@ -3082,42 +3082,42 @@
         <v>24</v>
       </c>
       <c r="BS12" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="BT12" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="BU12" s="22"/>
     </row>
     <row r="13" spans="2:83" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="25" t="s">
-        <v>295</v>
-      </c>
-      <c r="C13" s="32" t="s">
-        <v>296</v>
-      </c>
-      <c r="D13" s="32" t="s">
-        <v>263</v>
+        <v>293</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>294</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>261</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F13" s="26"/>
       <c r="G13" s="27" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H13" s="25"/>
       <c r="J13" s="3" t="s">
         <v>20</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="M13" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="N13" s="10"/>
       <c r="O13" s="4" t="s">
@@ -3128,7 +3128,7 @@
         <v>29</v>
       </c>
       <c r="AA13" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AB13" s="4" t="s">
         <v>98</v>
@@ -3138,13 +3138,13 @@
         <v>4</v>
       </c>
       <c r="AS13" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AT13" s="10" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AU13" s="10" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AV13" s="10"/>
       <c r="AW13" s="4" t="s">
@@ -3155,13 +3155,13 @@
         <v>24</v>
       </c>
       <c r="BA13" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="BB13" s="10" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="BC13" s="10" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="BD13" s="10"/>
       <c r="BE13" s="4" t="s">
@@ -3172,19 +3172,19 @@
         <v>54</v>
       </c>
       <c r="BI13" s="25" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="BJ13" s="27" t="s">
         <v>134</v>
       </c>
       <c r="BK13" s="26" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="BM13" s="3" t="s">
         <v>25</v>
       </c>
       <c r="BN13" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="BO13" s="4" t="s">
         <v>146</v>
@@ -3194,10 +3194,10 @@
         <v>25</v>
       </c>
       <c r="BS13" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="BT13" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="BU13" s="22"/>
     </row>
@@ -3205,35 +3205,35 @@
       <c r="B14" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="D14" s="32" t="s">
-        <v>263</v>
+      <c r="C14" s="29" t="s">
+        <v>238</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>261</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F14" s="26"/>
       <c r="G14" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="H14" s="33"/>
+      <c r="H14" s="30"/>
       <c r="J14" s="3" t="s">
         <v>21</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="M14" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="N14" s="10"/>
       <c r="O14" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="P14" s="10"/>
       <c r="AC14" s="10"/>
@@ -3241,32 +3241,32 @@
         <v>43</v>
       </c>
       <c r="AS14" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AT14" s="10" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AU14" s="10" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="AV14" s="10"/>
       <c r="AW14" s="4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AX14" s="10" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="AZ14" s="3" t="s">
         <v>25</v>
       </c>
       <c r="BA14" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="BB14" s="10" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="BC14" s="10" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="BD14" s="10"/>
       <c r="BE14" s="4" t="s">
@@ -3277,7 +3277,7 @@
         <v>55</v>
       </c>
       <c r="BI14" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="BJ14" s="4" t="s">
         <v>135</v>
@@ -3287,7 +3287,7 @@
         <v>29</v>
       </c>
       <c r="BN14" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="BO14" s="4" t="s">
         <v>147</v>
@@ -3297,10 +3297,10 @@
         <v>29</v>
       </c>
       <c r="BS14" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="BT14" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="BU14" s="22"/>
     </row>
@@ -3309,13 +3309,13 @@
         <v>8</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="4" t="s">
@@ -3326,13 +3326,13 @@
         <v>22</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="L15" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="M15" s="10" t="s">
         <v>279</v>
-      </c>
-      <c r="M15" s="10" t="s">
-        <v>281</v>
       </c>
       <c r="N15" s="10"/>
       <c r="O15" s="4" t="s">
@@ -3343,13 +3343,13 @@
         <v>44</v>
       </c>
       <c r="AS15" s="25" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AT15" s="26" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AU15" s="26" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="AV15" s="26"/>
       <c r="AW15" s="27" t="s">
@@ -3360,13 +3360,13 @@
         <v>29</v>
       </c>
       <c r="BA15" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="BB15" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="BC15" s="10" t="s">
         <v>265</v>
-      </c>
-      <c r="BC15" s="10" t="s">
-        <v>267</v>
       </c>
       <c r="BD15" s="10"/>
       <c r="BE15" s="4" t="s">
@@ -3377,13 +3377,13 @@
         <v>56</v>
       </c>
       <c r="BI15" s="25" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="BJ15" s="27" t="s">
         <v>136</v>
       </c>
       <c r="BK15" s="26" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="16" spans="2:83" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -3391,13 +3391,13 @@
         <v>9</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D16" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="E16" s="10" t="s">
         <v>265</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>267</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="4" t="s">
@@ -3408,63 +3408,63 @@
         <v>23</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="M16" s="10" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="N16" s="10"/>
       <c r="O16" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="P16" s="10"/>
       <c r="AR16" s="25" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AS16" s="25" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="AT16" s="26" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AU16" s="26" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="AV16" s="26"/>
       <c r="AW16" s="27" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="AX16" s="26" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="BH16" s="25" t="s">
         <v>21</v>
       </c>
       <c r="BI16" s="25" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="BJ16" s="27" t="s">
         <v>137</v>
       </c>
       <c r="BK16" s="26" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="17" spans="2:63" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="4" t="s">
@@ -3475,13 +3475,13 @@
         <v>24</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L17" s="10" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="M17" s="10" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="N17" s="10"/>
       <c r="O17" s="4" t="s">
@@ -3489,64 +3489,64 @@
       </c>
       <c r="P17" s="10"/>
       <c r="AR17" s="25" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AS17" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AT17" s="26" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AU17" s="26" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="AV17" s="26"/>
       <c r="AW17" s="27" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AX17" s="26" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="BH17" s="25" t="s">
         <v>57</v>
       </c>
       <c r="BI17" s="25" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="BJ17" s="27" t="s">
         <v>138</v>
       </c>
       <c r="BK17" s="26" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="18" spans="2:63" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>301</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>303</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="4" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H18" s="3"/>
       <c r="J18" s="3" t="s">
         <v>25</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="M18" s="10" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="N18" s="10"/>
       <c r="O18" s="4" t="s">
@@ -3557,24 +3557,24 @@
         <v>45</v>
       </c>
       <c r="AS18" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AT18" s="10" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AU18" s="10" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="AV18" s="10"/>
       <c r="AW18" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AX18" s="10"/>
       <c r="BH18" s="3" t="s">
         <v>1</v>
       </c>
       <c r="BI18" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="BJ18" s="4" t="s">
         <v>67</v>
@@ -3586,44 +3586,44 @@
         <v>26</v>
       </c>
       <c r="K19" s="25" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="L19" s="26" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="M19" s="26" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="N19" s="26"/>
       <c r="O19" s="27" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="P19" s="10"/>
       <c r="AR19" s="3" t="s">
         <v>46</v>
       </c>
       <c r="AS19" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AT19" s="10" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AU19" s="10" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="AV19" s="10"/>
       <c r="AW19" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="AX19" s="10"/>
       <c r="BH19" s="3" t="s">
         <v>2</v>
       </c>
       <c r="BI19" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="BJ19" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="BK19" s="10"/>
     </row>
@@ -3632,13 +3632,13 @@
         <v>27</v>
       </c>
       <c r="K20" s="25" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="L20" s="26" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="M20" s="26" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="N20" s="26"/>
       <c r="O20" s="27" t="s">
@@ -3649,13 +3649,13 @@
         <v>24</v>
       </c>
       <c r="AS20" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AT20" s="10" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AU20" s="10" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AV20" s="10"/>
       <c r="AW20" s="4" t="s">
@@ -3666,7 +3666,7 @@
         <v>3</v>
       </c>
       <c r="BI20" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="BJ20" s="4" t="s">
         <v>110</v>
@@ -3678,13 +3678,13 @@
         <v>28</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="L21" s="10" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="M21" s="10" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="N21" s="10"/>
       <c r="O21" s="4" t="s">
@@ -3695,13 +3695,13 @@
         <v>25</v>
       </c>
       <c r="AS21" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AT21" s="10" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AU21" s="10" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="AV21" s="10"/>
       <c r="AW21" s="4" t="s">
@@ -3712,7 +3712,7 @@
         <v>4</v>
       </c>
       <c r="BI21" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="BJ21" s="4" t="s">
         <v>111</v>
@@ -3724,13 +3724,13 @@
         <v>29</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L22" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="M22" s="10" t="s">
         <v>265</v>
-      </c>
-      <c r="M22" s="10" t="s">
-        <v>267</v>
       </c>
       <c r="N22" s="10"/>
       <c r="O22" s="4" t="s">
@@ -3741,13 +3741,13 @@
         <v>29</v>
       </c>
       <c r="AS22" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AT22" s="10" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AU22" s="10" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="AV22" s="10"/>
       <c r="AW22" s="4" t="s">
@@ -3758,10 +3758,10 @@
         <v>43</v>
       </c>
       <c r="BI22" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="BJ22" s="4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="BK22" s="10"/>
     </row>
@@ -3770,41 +3770,41 @@
         <v>44</v>
       </c>
       <c r="BI23" s="25" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="BJ23" s="27" t="s">
         <v>112</v>
       </c>
       <c r="BK23" s="26" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="24" spans="2:63" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="BH24" s="25" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="BI24" s="25" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="BJ24" s="27" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="BK24" s="26" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="25" spans="2:63" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="BH25" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="BI25" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="BJ25" s="27" t="s">
         <v>217</v>
       </c>
-      <c r="BI25" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="BJ25" s="27" t="s">
-        <v>219</v>
-      </c>
       <c r="BK25" s="26" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="26" spans="2:63" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -3812,10 +3812,10 @@
         <v>45</v>
       </c>
       <c r="BI26" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="BJ26" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="BK26" s="10"/>
     </row>
@@ -3824,10 +3824,10 @@
         <v>46</v>
       </c>
       <c r="BI27" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="BJ27" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="BK27" s="10"/>
     </row>
@@ -3836,7 +3836,7 @@
         <v>24</v>
       </c>
       <c r="BI28" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="BJ28" s="4" t="s">
         <v>139</v>
@@ -3848,7 +3848,7 @@
         <v>25</v>
       </c>
       <c r="BI29" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="BJ29" s="4" t="s">
         <v>140</v>
@@ -3860,7 +3860,7 @@
         <v>29</v>
       </c>
       <c r="BI30" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="BJ30" s="4" t="s">
         <v>141</v>
@@ -3869,6 +3869,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="CB3:CD3"/>
+    <mergeCell ref="BW3:BY3"/>
+    <mergeCell ref="BM2:BO2"/>
+    <mergeCell ref="BR2:BT2"/>
+    <mergeCell ref="BW2:BY2"/>
+    <mergeCell ref="CB2:CD2"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="J2:O2"/>
     <mergeCell ref="AM2:AO2"/>
@@ -3878,12 +3884,6 @@
     <mergeCell ref="Z2:AC2"/>
     <mergeCell ref="AE2:AK2"/>
     <mergeCell ref="AR2:AX2"/>
-    <mergeCell ref="CB3:CD3"/>
-    <mergeCell ref="BW3:BY3"/>
-    <mergeCell ref="BM2:BO2"/>
-    <mergeCell ref="BR2:BT2"/>
-    <mergeCell ref="BW2:BY2"/>
-    <mergeCell ref="CB2:CD2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/csdl-shopping-cart.xlsx
+++ b/csdl-shopping-cart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DEVMASTER\DEV2206LM_SpringBoot\shopping-cart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B6C38B-AD86-4C52-8E3C-16AB64EC4AA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E07C430-BFB8-4D45-8B4E-FC23DA7229F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{91351D13-8343-4BE5-AE49-126D9A46B319}"/>
   </bookViews>
@@ -443,9 +443,6 @@
     <t>Phí vận chuyển của các mặt hàng đặt hàng.</t>
   </si>
   <si>
-    <t>Tổng giá của Đơn hàng đã bao gồm thuế và phí vận chuyển. Nó không bao gồm các mặt hàng giảm giá.</t>
-  </si>
-  <si>
     <t>Mã khuyến mãi của Đơn hàng.</t>
   </si>
   <si>
@@ -959,6 +956,9 @@
   </si>
   <si>
     <t>Trạng thái của giao dịch đặt hàng có thể là Mới(0), Đã hủy(1), Không thành công(2), Đang chờ xử lý(3), Đã từ chối(4), Bị từ chối(5) và Thành công(6).</t>
+  </si>
+  <si>
+    <t>Tổng giá của Đơn hàng đã bao gồm thuế và phí vận chuyển.</t>
   </si>
 </sst>
 </file>
@@ -1175,13 +1175,13 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1500,8 +1500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E867DBF7-62FE-4C81-BE5B-4B051B3412A0}">
   <dimension ref="B2:CE30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BN8" workbookViewId="0">
-      <selection activeCell="BT11" sqref="BT11"/>
+    <sheetView tabSelected="1" topLeftCell="AW6" workbookViewId="0">
+      <selection activeCell="BD11" sqref="BD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1584,101 +1584,101 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:83" x14ac:dyDescent="0.3">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="32" t="s">
+        <v>222</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="9"/>
+      <c r="J2" s="32" t="s">
         <v>223</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="9"/>
-      <c r="J2" s="31" t="s">
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="9"/>
+      <c r="R2" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="33"/>
+      <c r="X2" s="33"/>
+      <c r="Z2" s="33" t="s">
         <v>224</v>
       </c>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="9"/>
-      <c r="R2" s="32" t="s">
-        <v>222</v>
-      </c>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="32"/>
-      <c r="W2" s="32"/>
-      <c r="X2" s="32"/>
-      <c r="Z2" s="32" t="s">
+      <c r="AA2" s="33"/>
+      <c r="AB2" s="33"/>
+      <c r="AC2" s="33"/>
+      <c r="AE2" s="32" t="s">
         <v>225</v>
       </c>
-      <c r="AA2" s="32"/>
-      <c r="AB2" s="32"/>
-      <c r="AC2" s="32"/>
-      <c r="AE2" s="31" t="s">
+      <c r="AF2" s="32"/>
+      <c r="AG2" s="32"/>
+      <c r="AH2" s="32"/>
+      <c r="AI2" s="32"/>
+      <c r="AJ2" s="32"/>
+      <c r="AK2" s="32"/>
+      <c r="AM2" s="32" t="s">
         <v>226</v>
       </c>
-      <c r="AF2" s="31"/>
-      <c r="AG2" s="31"/>
-      <c r="AH2" s="31"/>
-      <c r="AI2" s="31"/>
-      <c r="AJ2" s="31"/>
-      <c r="AK2" s="31"/>
-      <c r="AM2" s="31" t="s">
+      <c r="AN2" s="32"/>
+      <c r="AO2" s="32"/>
+      <c r="AP2" s="9"/>
+      <c r="AR2" s="32" t="s">
         <v>227</v>
       </c>
-      <c r="AN2" s="31"/>
-      <c r="AO2" s="31"/>
-      <c r="AP2" s="9"/>
-      <c r="AR2" s="31" t="s">
+      <c r="AS2" s="32"/>
+      <c r="AT2" s="32"/>
+      <c r="AU2" s="32"/>
+      <c r="AV2" s="32"/>
+      <c r="AW2" s="32"/>
+      <c r="AX2" s="32"/>
+      <c r="AZ2" s="32" t="s">
         <v>228</v>
       </c>
-      <c r="AS2" s="31"/>
-      <c r="AT2" s="31"/>
-      <c r="AU2" s="31"/>
-      <c r="AV2" s="31"/>
-      <c r="AW2" s="31"/>
-      <c r="AX2" s="31"/>
-      <c r="AZ2" s="31" t="s">
+      <c r="BA2" s="32"/>
+      <c r="BB2" s="32"/>
+      <c r="BC2" s="32"/>
+      <c r="BD2" s="32"/>
+      <c r="BE2" s="32"/>
+      <c r="BF2" s="9"/>
+      <c r="BH2" s="32" t="s">
         <v>229</v>
       </c>
-      <c r="BA2" s="31"/>
-      <c r="BB2" s="31"/>
-      <c r="BC2" s="31"/>
-      <c r="BD2" s="31"/>
-      <c r="BE2" s="31"/>
-      <c r="BF2" s="9"/>
-      <c r="BH2" s="31" t="s">
+      <c r="BI2" s="32"/>
+      <c r="BJ2" s="32"/>
+      <c r="BK2" s="9"/>
+      <c r="BM2" s="32" t="s">
         <v>230</v>
       </c>
-      <c r="BI2" s="31"/>
-      <c r="BJ2" s="31"/>
-      <c r="BK2" s="9"/>
-      <c r="BM2" s="31" t="s">
+      <c r="BN2" s="32"/>
+      <c r="BO2" s="32"/>
+      <c r="BP2" s="9"/>
+      <c r="BR2" s="32" t="s">
         <v>231</v>
       </c>
-      <c r="BN2" s="31"/>
-      <c r="BO2" s="31"/>
-      <c r="BP2" s="9"/>
-      <c r="BR2" s="31" t="s">
+      <c r="BS2" s="32"/>
+      <c r="BT2" s="32"/>
+      <c r="BU2" s="9"/>
+      <c r="BW2" s="32" t="s">
+        <v>233</v>
+      </c>
+      <c r="BX2" s="32"/>
+      <c r="BY2" s="32"/>
+      <c r="BZ2" s="9"/>
+      <c r="CB2" s="32" t="s">
         <v>232</v>
       </c>
-      <c r="BS2" s="31"/>
-      <c r="BT2" s="31"/>
-      <c r="BU2" s="9"/>
-      <c r="BW2" s="31" t="s">
-        <v>234</v>
-      </c>
-      <c r="BX2" s="31"/>
-      <c r="BY2" s="31"/>
-      <c r="BZ2" s="9"/>
-      <c r="CB2" s="31" t="s">
-        <v>233</v>
-      </c>
-      <c r="CC2" s="31"/>
-      <c r="CD2" s="31"/>
+      <c r="CC2" s="32"/>
+      <c r="CD2" s="32"/>
       <c r="CE2" s="9"/>
     </row>
     <row r="3" spans="2:83" x14ac:dyDescent="0.3">
@@ -1690,7 +1690,7 @@
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H3" s="7"/>
       <c r="J3" s="7" t="s">
@@ -1701,7 +1701,7 @@
       <c r="M3" s="12"/>
       <c r="N3" s="12"/>
       <c r="O3" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P3" s="7"/>
       <c r="R3" s="7" t="s">
@@ -1712,7 +1712,7 @@
       <c r="U3" s="7"/>
       <c r="V3" s="7"/>
       <c r="W3" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="X3" s="7"/>
       <c r="Z3" s="7" t="s">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="AA3" s="7"/>
       <c r="AB3" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AC3" s="7"/>
       <c r="AE3" s="7" t="s">
@@ -1731,15 +1731,15 @@
       <c r="AH3" s="12"/>
       <c r="AI3" s="12"/>
       <c r="AJ3" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AK3" s="7"/>
       <c r="AM3" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AN3" s="7"/>
       <c r="AO3" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AP3" s="7"/>
       <c r="AR3" s="7" t="s">
@@ -1750,7 +1750,7 @@
       <c r="AU3" s="12"/>
       <c r="AV3" s="12"/>
       <c r="AW3" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AX3" s="7"/>
       <c r="AZ3" s="7" t="s">
@@ -1761,7 +1761,7 @@
       <c r="BC3" s="12"/>
       <c r="BD3" s="12"/>
       <c r="BE3" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BF3" s="7"/>
       <c r="BH3" s="8" t="s">
@@ -1769,7 +1769,7 @@
       </c>
       <c r="BI3" s="8"/>
       <c r="BJ3" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="BK3" s="8"/>
       <c r="BM3" s="7" t="s">
@@ -1777,7 +1777,7 @@
       </c>
       <c r="BN3" s="7"/>
       <c r="BO3" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BP3" s="7"/>
       <c r="BR3" s="7" t="s">
@@ -1785,65 +1785,65 @@
       </c>
       <c r="BS3" s="7"/>
       <c r="BT3" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="BU3" s="7"/>
-      <c r="BW3" s="33" t="s">
+      <c r="BW3" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="BX3" s="33"/>
-      <c r="BY3" s="33"/>
+      <c r="BX3" s="31"/>
+      <c r="BY3" s="31"/>
       <c r="BZ3" s="2"/>
-      <c r="CB3" s="33" t="s">
+      <c r="CB3" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="CC3" s="33"/>
-      <c r="CD3" s="33"/>
+      <c r="CC3" s="31"/>
+      <c r="CD3" s="31"/>
       <c r="CE3" s="2"/>
     </row>
     <row r="4" spans="2:83" s="6" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="18"/>
       <c r="C4" s="18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D4" s="18" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="F4" s="19" t="s">
         <v>272</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>273</v>
       </c>
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
       <c r="J4" s="18"/>
       <c r="K4" s="18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L4" s="19" t="s">
         <v>18</v>
       </c>
       <c r="M4" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="N4" s="19" t="s">
         <v>272</v>
-      </c>
-      <c r="N4" s="19" t="s">
-        <v>273</v>
       </c>
       <c r="O4" s="18"/>
       <c r="P4" s="21"/>
       <c r="R4" s="18"/>
       <c r="S4" s="18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="T4" s="19" t="s">
         <v>18</v>
       </c>
       <c r="U4" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="V4" s="19" t="s">
         <v>272</v>
-      </c>
-      <c r="V4" s="19" t="s">
-        <v>273</v>
       </c>
       <c r="W4" s="18"/>
       <c r="X4" s="21"/>
@@ -1853,16 +1853,16 @@
       <c r="AC4" s="21"/>
       <c r="AE4" s="18"/>
       <c r="AF4" s="18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AG4" s="19" t="s">
         <v>18</v>
       </c>
       <c r="AH4" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="AI4" s="19" t="s">
         <v>272</v>
-      </c>
-      <c r="AI4" s="19" t="s">
-        <v>273</v>
       </c>
       <c r="AJ4" s="18"/>
       <c r="AK4" s="21"/>
@@ -1872,31 +1872,31 @@
       <c r="AP4" s="21"/>
       <c r="AR4" s="18"/>
       <c r="AS4" s="18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AT4" s="19" t="s">
         <v>18</v>
       </c>
       <c r="AU4" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="AV4" s="19" t="s">
         <v>272</v>
-      </c>
-      <c r="AV4" s="19" t="s">
-        <v>273</v>
       </c>
       <c r="AW4" s="18"/>
       <c r="AX4" s="21"/>
       <c r="AZ4" s="18"/>
       <c r="BA4" s="18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="BB4" s="19" t="s">
         <v>18</v>
       </c>
       <c r="BC4" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="BD4" s="19" t="s">
         <v>272</v>
-      </c>
-      <c r="BD4" s="19" t="s">
-        <v>273</v>
       </c>
       <c r="BE4" s="18"/>
       <c r="BF4" s="21"/>
@@ -1926,16 +1926,16 @@
         <v>0</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G5" s="17" t="s">
         <v>66</v>
@@ -1945,16 +1945,16 @@
         <v>0</v>
       </c>
       <c r="K5" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L5" s="16" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="M5" s="16" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="N5" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O5" s="17" t="s">
         <v>73</v>
@@ -1964,7 +1964,7 @@
         <v>0</v>
       </c>
       <c r="S5" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="T5" s="14"/>
       <c r="U5" s="14"/>
@@ -1977,7 +1977,7 @@
         <v>0</v>
       </c>
       <c r="AA5" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AB5" s="17" t="s">
         <v>91</v>
@@ -1987,16 +1987,16 @@
         <v>0</v>
       </c>
       <c r="AF5" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AG5" s="16" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AH5" s="16" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AI5" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AJ5" s="17" t="s">
         <v>99</v>
@@ -2006,26 +2006,26 @@
         <v>0</v>
       </c>
       <c r="AN5" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AO5" s="17" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AP5" s="10"/>
       <c r="AR5" s="14" t="s">
         <v>0</v>
       </c>
       <c r="AS5" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AT5" s="16" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AU5" s="16" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AV5" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AW5" s="17" t="s">
         <v>106</v>
@@ -2035,16 +2035,16 @@
         <v>0</v>
       </c>
       <c r="BA5" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="BB5" s="16" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="BC5" s="16" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="BD5" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="BE5" s="17" t="s">
         <v>116</v>
@@ -2054,7 +2054,7 @@
         <v>0</v>
       </c>
       <c r="BI5" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="BJ5" s="17" t="s">
         <v>126</v>
@@ -2064,27 +2064,27 @@
         <v>0</v>
       </c>
       <c r="BN5" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="BO5" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="BP5" s="22"/>
       <c r="BR5" s="14" t="s">
         <v>0</v>
       </c>
       <c r="BS5" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="BT5" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="BU5" s="22"/>
       <c r="BW5" s="14" t="s">
         <v>0</v>
       </c>
       <c r="BX5" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="BY5" s="14"/>
       <c r="BZ5" s="24"/>
@@ -2092,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="CC5" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="CD5" s="14"/>
       <c r="CE5" s="24"/>
@@ -2102,13 +2102,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="4" t="s">
@@ -2119,16 +2119,16 @@
         <v>12</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O6" s="4" t="s">
         <v>74</v>
@@ -2138,7 +2138,7 @@
         <v>31</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
@@ -2151,7 +2151,7 @@
         <v>31</v>
       </c>
       <c r="AA6" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AB6" s="4" t="s">
         <v>88</v>
@@ -2161,7 +2161,7 @@
         <v>34</v>
       </c>
       <c r="AF6" s="25" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AG6" s="26"/>
       <c r="AH6" s="26"/>
@@ -2170,13 +2170,13 @@
         <v>100</v>
       </c>
       <c r="AK6" s="26" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AM6" s="3" t="s">
         <v>31</v>
       </c>
       <c r="AN6" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AO6" s="4" t="s">
         <v>104</v>
@@ -2186,16 +2186,16 @@
         <v>12</v>
       </c>
       <c r="AS6" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AT6" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AU6" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AV6" s="10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AW6" s="4" t="s">
         <v>107</v>
@@ -2205,16 +2205,16 @@
         <v>31</v>
       </c>
       <c r="BA6" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="BB6" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="BC6" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="BD6" s="10" t="s">
         <v>289</v>
-      </c>
-      <c r="BD6" s="10" t="s">
-        <v>290</v>
       </c>
       <c r="BE6" s="4" t="s">
         <v>117</v>
@@ -2224,7 +2224,7 @@
         <v>12</v>
       </c>
       <c r="BI6" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="BJ6" s="4" t="s">
         <v>127</v>
@@ -2234,27 +2234,27 @@
         <v>31</v>
       </c>
       <c r="BN6" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="BO6" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="BP6" s="22"/>
       <c r="BR6" s="3" t="s">
         <v>12</v>
       </c>
       <c r="BS6" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="BT6" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="BU6" s="22"/>
       <c r="BW6" s="3" t="s">
         <v>31</v>
       </c>
       <c r="BX6" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="BY6" s="3"/>
       <c r="BZ6" s="24"/>
@@ -2262,7 +2262,7 @@
         <v>13</v>
       </c>
       <c r="CC6" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="CD6" s="3"/>
       <c r="CE6" s="24"/>
@@ -2272,30 +2272,30 @@
         <v>2</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H7" s="3"/>
       <c r="J7" s="3" t="s">
         <v>13</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="N7" s="10"/>
       <c r="O7" s="4" t="s">
@@ -2306,7 +2306,7 @@
         <v>32</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
@@ -2319,7 +2319,7 @@
         <v>34</v>
       </c>
       <c r="AA7" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AB7" s="4" t="s">
         <v>92</v>
@@ -2329,13 +2329,13 @@
         <v>13</v>
       </c>
       <c r="AF7" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AG7" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AH7" s="10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AI7" s="10"/>
       <c r="AJ7" s="4" t="s">
@@ -2346,7 +2346,7 @@
         <v>38</v>
       </c>
       <c r="AN7" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AO7" s="4" t="s">
         <v>105</v>
@@ -2356,35 +2356,35 @@
         <v>40</v>
       </c>
       <c r="AS7" s="25" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AT7" s="26" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AU7" s="26" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AV7" s="26"/>
       <c r="AW7" s="27" t="s">
         <v>108</v>
       </c>
       <c r="AX7" s="26" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AZ7" s="3" t="s">
         <v>48</v>
       </c>
       <c r="BA7" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="BB7" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="BC7" s="10" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="BD7" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="BE7" s="4" t="s">
         <v>118</v>
@@ -2394,39 +2394,39 @@
         <v>48</v>
       </c>
       <c r="BI7" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="BJ7" s="4" t="s">
         <v>128</v>
       </c>
       <c r="BK7" s="26" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="BM7" s="3" t="s">
         <v>58</v>
       </c>
       <c r="BN7" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BO7" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="BP7" s="22"/>
       <c r="BR7" s="3" t="s">
         <v>58</v>
       </c>
       <c r="BS7" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="BT7" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="BU7" s="22"/>
       <c r="BW7" s="3" t="s">
         <v>64</v>
       </c>
       <c r="BX7" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="BY7" s="3"/>
       <c r="BZ7" s="24"/>
@@ -2434,7 +2434,7 @@
         <v>14</v>
       </c>
       <c r="CC7" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="CD7" s="3"/>
       <c r="CE7" s="24"/>
@@ -2444,16 +2444,16 @@
         <v>3</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>68</v>
@@ -2463,26 +2463,26 @@
         <v>14</v>
       </c>
       <c r="K8" s="25" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L8" s="26" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M8" s="26" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N8" s="26"/>
       <c r="O8" s="27" t="s">
         <v>76</v>
       </c>
       <c r="P8" s="26" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="R8" s="3" t="s">
         <v>29</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
@@ -2495,7 +2495,7 @@
         <v>13</v>
       </c>
       <c r="AA8" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AB8" s="4" t="s">
         <v>93</v>
@@ -2505,13 +2505,13 @@
         <v>14</v>
       </c>
       <c r="AF8" s="25" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AG8" s="26" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AH8" s="26" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AI8" s="26"/>
       <c r="AJ8" s="27" t="s">
@@ -2522,32 +2522,32 @@
         <v>41</v>
       </c>
       <c r="AS8" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AT8" s="26" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AU8" s="26" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AV8" s="26"/>
       <c r="AW8" s="27" t="s">
         <v>109</v>
       </c>
       <c r="AX8" s="26" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AZ8" s="25" t="s">
         <v>19</v>
       </c>
       <c r="BA8" s="29" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="BB8" s="26" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="BC8" s="26" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="BD8" s="26"/>
       <c r="BE8" s="27" t="s">
@@ -2558,19 +2558,19 @@
         <v>41</v>
       </c>
       <c r="BI8" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="BJ8" s="27" t="s">
         <v>129</v>
       </c>
       <c r="BK8" s="26" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="BM8" s="25" t="s">
         <v>19</v>
       </c>
       <c r="BN8" s="25" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="BO8" s="27" t="s">
         <v>119</v>
@@ -2580,17 +2580,17 @@
         <v>61</v>
       </c>
       <c r="BS8" s="25" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="BT8" s="27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="BU8" s="22"/>
       <c r="CB8" s="3" t="s">
         <v>15</v>
       </c>
       <c r="CC8" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="CD8" s="3"/>
       <c r="CE8" s="24"/>
@@ -2600,16 +2600,16 @@
         <v>4</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>69</v>
@@ -2619,16 +2619,16 @@
         <v>15</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O9" s="4" t="s">
         <v>16</v>
@@ -2638,7 +2638,7 @@
         <v>35</v>
       </c>
       <c r="AA9" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AB9" s="4" t="s">
         <v>94</v>
@@ -2648,13 +2648,13 @@
         <v>15</v>
       </c>
       <c r="AF9" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AG9" s="10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AH9" s="10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AI9" s="10"/>
       <c r="AJ9" s="4" t="s">
@@ -2665,30 +2665,30 @@
         <v>42</v>
       </c>
       <c r="AS9" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AT9" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AU9" s="10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AV9" s="10"/>
       <c r="AW9" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AX9" s="10"/>
       <c r="AZ9" s="3" t="s">
         <v>20</v>
       </c>
       <c r="BA9" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="BB9" s="10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="BC9" s="10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="BD9" s="10"/>
       <c r="BE9" s="4" t="s">
@@ -2699,7 +2699,7 @@
         <v>42</v>
       </c>
       <c r="BI9" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="BJ9" s="4" t="s">
         <v>130</v>
@@ -2709,7 +2709,7 @@
         <v>20</v>
       </c>
       <c r="BN9" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="BO9" s="4" t="s">
         <v>120</v>
@@ -2719,50 +2719,50 @@
         <v>18</v>
       </c>
       <c r="BS9" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="BT9" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="BU9" s="22"/>
       <c r="CB9" s="3" t="s">
         <v>29</v>
       </c>
       <c r="CC9" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="CD9" s="3"/>
       <c r="CE9" s="24"/>
     </row>
     <row r="10" spans="2:83" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H10" s="3"/>
       <c r="J10" s="3" t="s">
         <v>17</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N10" s="10"/>
       <c r="O10" s="4" t="s">
@@ -2773,7 +2773,7 @@
         <v>36</v>
       </c>
       <c r="AA10" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AB10" s="4" t="s">
         <v>95</v>
@@ -2783,13 +2783,13 @@
         <v>29</v>
       </c>
       <c r="AF10" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AG10" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AH10" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AI10" s="10"/>
       <c r="AJ10" s="4" t="s">
@@ -2800,13 +2800,13 @@
         <v>1</v>
       </c>
       <c r="AS10" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AT10" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AU10" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AV10" s="10"/>
       <c r="AW10" s="4" t="s">
@@ -2817,13 +2817,13 @@
         <v>21</v>
       </c>
       <c r="BA10" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="BB10" s="10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="BC10" s="10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="BD10" s="10"/>
       <c r="BE10" s="4" t="s">
@@ -2834,7 +2834,7 @@
         <v>51</v>
       </c>
       <c r="BI10" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="BJ10" s="4" t="s">
         <v>131</v>
@@ -2844,7 +2844,7 @@
         <v>21</v>
       </c>
       <c r="BN10" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="BO10" s="4" t="s">
         <v>121</v>
@@ -2854,10 +2854,10 @@
         <v>62</v>
       </c>
       <c r="BS10" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="BT10" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="BU10" s="22"/>
     </row>
@@ -2866,45 +2866,45 @@
         <v>5</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F11" s="26"/>
       <c r="G11" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H11" s="30" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J11" s="25" t="s">
         <v>18</v>
       </c>
       <c r="K11" s="25" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L11" s="26" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M11" s="26" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="N11" s="26"/>
       <c r="O11" s="27" t="s">
         <v>78</v>
       </c>
       <c r="P11" s="26" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Z11" s="3" t="s">
         <v>24</v>
       </c>
       <c r="AA11" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AB11" s="4" t="s">
         <v>96</v>
@@ -2914,30 +2914,30 @@
         <v>2</v>
       </c>
       <c r="AS11" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AT11" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AU11" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AV11" s="10"/>
       <c r="AW11" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AX11" s="10"/>
       <c r="AZ11" s="3" t="s">
         <v>22</v>
       </c>
       <c r="BA11" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="BB11" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="BC11" s="10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="BD11" s="10"/>
       <c r="BE11" s="4" t="s">
@@ -2948,7 +2948,7 @@
         <v>52</v>
       </c>
       <c r="BI11" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="BJ11" s="4" t="s">
         <v>132</v>
@@ -2958,7 +2958,7 @@
         <v>22</v>
       </c>
       <c r="BN11" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="BO11" s="4" t="s">
         <v>122</v>
@@ -2968,10 +2968,10 @@
         <v>42</v>
       </c>
       <c r="BS11" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="BT11" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="BU11" s="22"/>
     </row>
@@ -2980,43 +2980,43 @@
         <v>6</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F12" s="26"/>
       <c r="G12" s="27" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H12" s="25"/>
       <c r="J12" s="25" t="s">
         <v>19</v>
       </c>
       <c r="K12" s="25" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L12" s="26" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M12" s="26" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="N12" s="26"/>
       <c r="O12" s="27" t="s">
         <v>79</v>
       </c>
       <c r="P12" s="26" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Z12" s="3" t="s">
         <v>26</v>
       </c>
       <c r="AA12" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AB12" s="4" t="s">
         <v>97</v>
@@ -3026,13 +3026,13 @@
         <v>3</v>
       </c>
       <c r="AS12" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AT12" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AU12" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AV12" s="10"/>
       <c r="AW12" s="4" t="s">
@@ -3043,81 +3043,81 @@
         <v>49</v>
       </c>
       <c r="BA12" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="BB12" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="BC12" s="10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="BD12" s="10"/>
       <c r="BE12" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="BF12" s="10"/>
       <c r="BH12" s="25" t="s">
         <v>53</v>
       </c>
       <c r="BI12" s="25" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BJ12" s="27" t="s">
         <v>133</v>
       </c>
       <c r="BK12" s="26" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="BM12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="BN12" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="BO12" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="BP12" s="22"/>
       <c r="BR12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="BS12" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="BT12" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="BU12" s="22"/>
     </row>
     <row r="13" spans="2:83" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="25" t="s">
+        <v>292</v>
+      </c>
+      <c r="C13" s="29" t="s">
         <v>293</v>
       </c>
-      <c r="C13" s="29" t="s">
-        <v>294</v>
-      </c>
       <c r="D13" s="29" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F13" s="26"/>
       <c r="G13" s="27" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H13" s="25"/>
       <c r="J13" s="3" t="s">
         <v>20</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="M13" s="10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="N13" s="10"/>
       <c r="O13" s="4" t="s">
@@ -3128,7 +3128,7 @@
         <v>29</v>
       </c>
       <c r="AA13" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AB13" s="4" t="s">
         <v>98</v>
@@ -3138,13 +3138,13 @@
         <v>4</v>
       </c>
       <c r="AS13" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AT13" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AU13" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AV13" s="10"/>
       <c r="AW13" s="4" t="s">
@@ -3155,13 +3155,13 @@
         <v>24</v>
       </c>
       <c r="BA13" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="BB13" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="BC13" s="10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="BD13" s="10"/>
       <c r="BE13" s="4" t="s">
@@ -3172,32 +3172,32 @@
         <v>54</v>
       </c>
       <c r="BI13" s="25" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BJ13" s="27" t="s">
         <v>134</v>
       </c>
       <c r="BK13" s="26" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="BM13" s="3" t="s">
         <v>25</v>
       </c>
       <c r="BN13" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="BO13" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="BP13" s="22"/>
       <c r="BR13" s="3" t="s">
         <v>25</v>
       </c>
       <c r="BS13" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="BT13" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="BU13" s="22"/>
     </row>
@@ -3206,13 +3206,13 @@
         <v>7</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F14" s="26"/>
       <c r="G14" s="27" t="s">
@@ -3223,17 +3223,17 @@
         <v>21</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="M14" s="10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="N14" s="10"/>
       <c r="O14" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="P14" s="10"/>
       <c r="AC14" s="10"/>
@@ -3241,32 +3241,32 @@
         <v>43</v>
       </c>
       <c r="AS14" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AT14" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AU14" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AV14" s="10"/>
       <c r="AW14" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AX14" s="10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AZ14" s="3" t="s">
         <v>25</v>
       </c>
       <c r="BA14" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="BB14" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="BC14" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BD14" s="10"/>
       <c r="BE14" s="4" t="s">
@@ -3277,30 +3277,30 @@
         <v>55</v>
       </c>
       <c r="BI14" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BJ14" s="4" t="s">
-        <v>135</v>
+        <v>304</v>
       </c>
       <c r="BK14" s="10"/>
       <c r="BM14" s="3" t="s">
         <v>29</v>
       </c>
       <c r="BN14" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="BO14" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="BP14" s="22"/>
       <c r="BR14" s="3" t="s">
         <v>29</v>
       </c>
       <c r="BS14" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="BT14" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="BU14" s="22"/>
     </row>
@@ -3309,13 +3309,13 @@
         <v>8</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="4" t="s">
@@ -3326,13 +3326,13 @@
         <v>22</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M15" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="N15" s="10"/>
       <c r="O15" s="4" t="s">
@@ -3343,13 +3343,13 @@
         <v>44</v>
       </c>
       <c r="AS15" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AT15" s="26" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AU15" s="26" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AV15" s="26"/>
       <c r="AW15" s="27" t="s">
@@ -3360,13 +3360,13 @@
         <v>29</v>
       </c>
       <c r="BA15" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="BB15" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="BC15" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BD15" s="10"/>
       <c r="BE15" s="4" t="s">
@@ -3377,13 +3377,13 @@
         <v>56</v>
       </c>
       <c r="BI15" s="25" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BJ15" s="27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="BK15" s="26" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="16" spans="2:83" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -3391,13 +3391,13 @@
         <v>9</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="4" t="s">
@@ -3408,63 +3408,63 @@
         <v>23</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="M16" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="N16" s="10"/>
       <c r="O16" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P16" s="10"/>
       <c r="AR16" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="AS16" s="25" t="s">
         <v>213</v>
       </c>
-      <c r="AS16" s="25" t="s">
-        <v>214</v>
-      </c>
       <c r="AT16" s="26" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AU16" s="26" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AV16" s="26"/>
       <c r="AW16" s="27" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AX16" s="26" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="BH16" s="25" t="s">
         <v>21</v>
       </c>
       <c r="BI16" s="25" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="BJ16" s="27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="BK16" s="26" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="17" spans="2:63" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>298</v>
-      </c>
       <c r="D17" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="4" t="s">
@@ -3475,13 +3475,13 @@
         <v>24</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L17" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M17" s="10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="N17" s="10"/>
       <c r="O17" s="4" t="s">
@@ -3489,64 +3489,64 @@
       </c>
       <c r="P17" s="10"/>
       <c r="AR17" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="AS17" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="AS17" s="25" t="s">
-        <v>216</v>
-      </c>
       <c r="AT17" s="26" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AU17" s="26" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AV17" s="26"/>
       <c r="AW17" s="27" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AX17" s="26" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="BH17" s="25" t="s">
         <v>57</v>
       </c>
       <c r="BI17" s="25" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="BJ17" s="27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="BK17" s="26" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="18" spans="2:63" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="D18" s="5" t="s">
         <v>300</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>301</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H18" s="3"/>
       <c r="J18" s="3" t="s">
         <v>25</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M18" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="N18" s="10"/>
       <c r="O18" s="4" t="s">
@@ -3557,24 +3557,24 @@
         <v>45</v>
       </c>
       <c r="AS18" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AT18" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AU18" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AV18" s="10"/>
       <c r="AW18" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AX18" s="10"/>
       <c r="BH18" s="3" t="s">
         <v>1</v>
       </c>
       <c r="BI18" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="BJ18" s="4" t="s">
         <v>67</v>
@@ -3586,44 +3586,44 @@
         <v>26</v>
       </c>
       <c r="K19" s="25" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L19" s="26" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M19" s="26" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="N19" s="26"/>
       <c r="O19" s="27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P19" s="10"/>
       <c r="AR19" s="3" t="s">
         <v>46</v>
       </c>
       <c r="AS19" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AT19" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AU19" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AV19" s="10"/>
       <c r="AW19" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AX19" s="10"/>
       <c r="BH19" s="3" t="s">
         <v>2</v>
       </c>
       <c r="BI19" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BJ19" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BK19" s="10"/>
     </row>
@@ -3632,13 +3632,13 @@
         <v>27</v>
       </c>
       <c r="K20" s="25" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L20" s="26" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M20" s="26" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="N20" s="26"/>
       <c r="O20" s="27" t="s">
@@ -3649,13 +3649,13 @@
         <v>24</v>
       </c>
       <c r="AS20" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AT20" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AU20" s="10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AV20" s="10"/>
       <c r="AW20" s="4" t="s">
@@ -3666,7 +3666,7 @@
         <v>3</v>
       </c>
       <c r="BI20" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="BJ20" s="4" t="s">
         <v>110</v>
@@ -3678,13 +3678,13 @@
         <v>28</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L21" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M21" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="N21" s="10"/>
       <c r="O21" s="4" t="s">
@@ -3695,13 +3695,13 @@
         <v>25</v>
       </c>
       <c r="AS21" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AT21" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AU21" s="10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AV21" s="10"/>
       <c r="AW21" s="4" t="s">
@@ -3712,7 +3712,7 @@
         <v>4</v>
       </c>
       <c r="BI21" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="BJ21" s="4" t="s">
         <v>111</v>
@@ -3724,13 +3724,13 @@
         <v>29</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L22" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="M22" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="N22" s="10"/>
       <c r="O22" s="4" t="s">
@@ -3741,13 +3741,13 @@
         <v>29</v>
       </c>
       <c r="AS22" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AT22" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AU22" s="10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AV22" s="10"/>
       <c r="AW22" s="4" t="s">
@@ -3758,10 +3758,10 @@
         <v>43</v>
       </c>
       <c r="BI22" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BJ22" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="BK22" s="10"/>
     </row>
@@ -3770,41 +3770,41 @@
         <v>44</v>
       </c>
       <c r="BI23" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="BJ23" s="27" t="s">
         <v>112</v>
       </c>
       <c r="BK23" s="26" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="24" spans="2:63" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="BH24" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="BI24" s="25" t="s">
         <v>213</v>
       </c>
-      <c r="BI24" s="25" t="s">
-        <v>214</v>
-      </c>
       <c r="BJ24" s="27" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="BK24" s="26" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="25" spans="2:63" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="BH25" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="BI25" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="BI25" s="25" t="s">
+      <c r="BJ25" s="27" t="s">
         <v>216</v>
       </c>
-      <c r="BJ25" s="27" t="s">
-        <v>217</v>
-      </c>
       <c r="BK25" s="26" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="26" spans="2:63" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -3812,10 +3812,10 @@
         <v>45</v>
       </c>
       <c r="BI26" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="BJ26" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="BK26" s="10"/>
     </row>
@@ -3824,10 +3824,10 @@
         <v>46</v>
       </c>
       <c r="BI27" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="BJ27" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="BK27" s="10"/>
     </row>
@@ -3836,10 +3836,10 @@
         <v>24</v>
       </c>
       <c r="BI28" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="BJ28" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="BK28" s="10"/>
     </row>
@@ -3848,10 +3848,10 @@
         <v>25</v>
       </c>
       <c r="BI29" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="BJ29" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="BK29" s="10"/>
     </row>
@@ -3860,21 +3860,15 @@
         <v>29</v>
       </c>
       <c r="BI30" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="BJ30" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="BK30" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="CB3:CD3"/>
-    <mergeCell ref="BW3:BY3"/>
-    <mergeCell ref="BM2:BO2"/>
-    <mergeCell ref="BR2:BT2"/>
-    <mergeCell ref="BW2:BY2"/>
-    <mergeCell ref="CB2:CD2"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="J2:O2"/>
     <mergeCell ref="AM2:AO2"/>
@@ -3884,6 +3878,12 @@
     <mergeCell ref="Z2:AC2"/>
     <mergeCell ref="AE2:AK2"/>
     <mergeCell ref="AR2:AX2"/>
+    <mergeCell ref="CB3:CD3"/>
+    <mergeCell ref="BW3:BY3"/>
+    <mergeCell ref="BM2:BO2"/>
+    <mergeCell ref="BR2:BT2"/>
+    <mergeCell ref="BW2:BY2"/>
+    <mergeCell ref="CB2:CD2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/csdl-shopping-cart.xlsx
+++ b/csdl-shopping-cart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DEVMASTER\DEV2206LM_SpringBoot\shopping-cart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E07C430-BFB8-4D45-8B4E-FC23DA7229F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1FDE70D-75F7-4A43-A519-4B892327666A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{91351D13-8343-4BE5-AE49-126D9A46B319}"/>
   </bookViews>
@@ -1175,13 +1175,13 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1500,8 +1500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E867DBF7-62FE-4C81-BE5B-4B051B3412A0}">
   <dimension ref="B2:CE30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AW6" workbookViewId="0">
-      <selection activeCell="BD11" sqref="BD11"/>
+    <sheetView tabSelected="1" topLeftCell="BO8" workbookViewId="0">
+      <selection activeCell="BU11" sqref="BU11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1584,101 +1584,101 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:83" x14ac:dyDescent="0.3">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="31" t="s">
         <v>222</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
       <c r="H2" s="9"/>
-      <c r="J2" s="32" t="s">
+      <c r="J2" s="31" t="s">
         <v>223</v>
       </c>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
       <c r="P2" s="9"/>
-      <c r="R2" s="33" t="s">
+      <c r="R2" s="32" t="s">
         <v>221</v>
       </c>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33"/>
-      <c r="X2" s="33"/>
-      <c r="Z2" s="33" t="s">
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="32"/>
+      <c r="X2" s="32"/>
+      <c r="Z2" s="32" t="s">
         <v>224</v>
       </c>
-      <c r="AA2" s="33"/>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="33"/>
-      <c r="AE2" s="32" t="s">
+      <c r="AA2" s="32"/>
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="32"/>
+      <c r="AE2" s="31" t="s">
         <v>225</v>
       </c>
-      <c r="AF2" s="32"/>
-      <c r="AG2" s="32"/>
-      <c r="AH2" s="32"/>
-      <c r="AI2" s="32"/>
-      <c r="AJ2" s="32"/>
-      <c r="AK2" s="32"/>
-      <c r="AM2" s="32" t="s">
+      <c r="AF2" s="31"/>
+      <c r="AG2" s="31"/>
+      <c r="AH2" s="31"/>
+      <c r="AI2" s="31"/>
+      <c r="AJ2" s="31"/>
+      <c r="AK2" s="31"/>
+      <c r="AM2" s="31" t="s">
         <v>226</v>
       </c>
-      <c r="AN2" s="32"/>
-      <c r="AO2" s="32"/>
+      <c r="AN2" s="31"/>
+      <c r="AO2" s="31"/>
       <c r="AP2" s="9"/>
-      <c r="AR2" s="32" t="s">
+      <c r="AR2" s="31" t="s">
         <v>227</v>
       </c>
-      <c r="AS2" s="32"/>
-      <c r="AT2" s="32"/>
-      <c r="AU2" s="32"/>
-      <c r="AV2" s="32"/>
-      <c r="AW2" s="32"/>
-      <c r="AX2" s="32"/>
-      <c r="AZ2" s="32" t="s">
+      <c r="AS2" s="31"/>
+      <c r="AT2" s="31"/>
+      <c r="AU2" s="31"/>
+      <c r="AV2" s="31"/>
+      <c r="AW2" s="31"/>
+      <c r="AX2" s="31"/>
+      <c r="AZ2" s="31" t="s">
         <v>228</v>
       </c>
-      <c r="BA2" s="32"/>
-      <c r="BB2" s="32"/>
-      <c r="BC2" s="32"/>
-      <c r="BD2" s="32"/>
-      <c r="BE2" s="32"/>
+      <c r="BA2" s="31"/>
+      <c r="BB2" s="31"/>
+      <c r="BC2" s="31"/>
+      <c r="BD2" s="31"/>
+      <c r="BE2" s="31"/>
       <c r="BF2" s="9"/>
-      <c r="BH2" s="32" t="s">
+      <c r="BH2" s="31" t="s">
         <v>229</v>
       </c>
-      <c r="BI2" s="32"/>
-      <c r="BJ2" s="32"/>
+      <c r="BI2" s="31"/>
+      <c r="BJ2" s="31"/>
       <c r="BK2" s="9"/>
-      <c r="BM2" s="32" t="s">
+      <c r="BM2" s="31" t="s">
         <v>230</v>
       </c>
-      <c r="BN2" s="32"/>
-      <c r="BO2" s="32"/>
+      <c r="BN2" s="31"/>
+      <c r="BO2" s="31"/>
       <c r="BP2" s="9"/>
-      <c r="BR2" s="32" t="s">
+      <c r="BR2" s="31" t="s">
         <v>231</v>
       </c>
-      <c r="BS2" s="32"/>
-      <c r="BT2" s="32"/>
+      <c r="BS2" s="31"/>
+      <c r="BT2" s="31"/>
       <c r="BU2" s="9"/>
-      <c r="BW2" s="32" t="s">
+      <c r="BW2" s="31" t="s">
         <v>233</v>
       </c>
-      <c r="BX2" s="32"/>
-      <c r="BY2" s="32"/>
+      <c r="BX2" s="31"/>
+      <c r="BY2" s="31"/>
       <c r="BZ2" s="9"/>
-      <c r="CB2" s="32" t="s">
+      <c r="CB2" s="31" t="s">
         <v>232</v>
       </c>
-      <c r="CC2" s="32"/>
-      <c r="CD2" s="32"/>
+      <c r="CC2" s="31"/>
+      <c r="CD2" s="31"/>
       <c r="CE2" s="9"/>
     </row>
     <row r="3" spans="2:83" x14ac:dyDescent="0.3">
@@ -1788,17 +1788,17 @@
         <v>209</v>
       </c>
       <c r="BU3" s="7"/>
-      <c r="BW3" s="31" t="s">
+      <c r="BW3" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="BX3" s="31"/>
-      <c r="BY3" s="31"/>
+      <c r="BX3" s="33"/>
+      <c r="BY3" s="33"/>
       <c r="BZ3" s="2"/>
-      <c r="CB3" s="31" t="s">
+      <c r="CB3" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="CC3" s="31"/>
-      <c r="CD3" s="31"/>
+      <c r="CC3" s="33"/>
+      <c r="CD3" s="33"/>
       <c r="CE3" s="2"/>
     </row>
     <row r="4" spans="2:83" s="6" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -3869,6 +3869,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="CB3:CD3"/>
+    <mergeCell ref="BW3:BY3"/>
+    <mergeCell ref="BM2:BO2"/>
+    <mergeCell ref="BR2:BT2"/>
+    <mergeCell ref="BW2:BY2"/>
+    <mergeCell ref="CB2:CD2"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="J2:O2"/>
     <mergeCell ref="AM2:AO2"/>
@@ -3878,12 +3884,6 @@
     <mergeCell ref="Z2:AC2"/>
     <mergeCell ref="AE2:AK2"/>
     <mergeCell ref="AR2:AX2"/>
-    <mergeCell ref="CB3:CD3"/>
-    <mergeCell ref="BW3:BY3"/>
-    <mergeCell ref="BM2:BO2"/>
-    <mergeCell ref="BR2:BT2"/>
-    <mergeCell ref="BW2:BY2"/>
-    <mergeCell ref="CB2:CD2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/csdl-shopping-cart.xlsx
+++ b/csdl-shopping-cart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DEVMASTER\DEV2206LM_SpringBoot\shopping-cart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1FDE70D-75F7-4A43-A519-4B892327666A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E00332A-B42B-4232-8F7C-B6FD54ED90B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{91351D13-8343-4BE5-AE49-126D9A46B319}"/>
   </bookViews>
@@ -428,9 +428,6 @@
     <t>Mã thông báo duy nhất được liên kết với đơn đặt hàng để xác định nó qua nhiều phiên. Mã thông báo tương tự cũng có thể được chuyển đến Cổng thanh toán nếu được yêu cầu.</t>
   </si>
   <si>
-    <t>Trạng thái của đơn đặt hàng có thể là Mới, Đã thanh toán, Đã thanh toán, Không thành công, Đã vận chuyển, Đã giao, Đã trả lại và Hoàn thành.</t>
-  </si>
-  <si>
     <t>Tổng giá của các Mục đặt hàng.</t>
   </si>
   <si>
@@ -618,9 +615,6 @@
   </si>
   <si>
     <t>status</t>
-  </si>
-  <si>
-    <t>Trạng thái của giỏ hàng có thể là Mới, Giỏ hàng, Thanh toán, Đã thanh toán, Hoàn thành và Bị bỏ rơi(New, Cart, Checkout, Paid, Complete, and Abandoned.).</t>
   </si>
   <si>
     <t>city</t>
@@ -959,6 +953,12 @@
   </si>
   <si>
     <t>Tổng giá của Đơn hàng đã bao gồm thuế và phí vận chuyển.</t>
+  </si>
+  <si>
+    <t>Trạng thái của giỏ hàng có thể là Mới=0, Giỏ hàng=1, Order=2, Đã thanh toán=3, và Bị bỏ rơi=4(New, Cart, Checkout, Paid, Complete, and Abandoned.).</t>
+  </si>
+  <si>
+    <t>Trạng thái của đơn đặt hàng có thể là Order=0, Chờ xác nhận, Đã thanh toán, Không thành công, Đã vận chuyển, Đã giao, Đã trả lại và Hoàn thành.</t>
   </si>
 </sst>
 </file>
@@ -1175,13 +1175,13 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1501,7 +1501,7 @@
   <dimension ref="B2:CE30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="BO8" workbookViewId="0">
-      <selection activeCell="BU11" sqref="BU11"/>
+      <selection activeCell="BJ9" sqref="BJ9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1584,101 +1584,101 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:83" x14ac:dyDescent="0.3">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="32" t="s">
+        <v>220</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="9"/>
+      <c r="J2" s="32" t="s">
+        <v>221</v>
+      </c>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="9"/>
+      <c r="R2" s="33" t="s">
+        <v>219</v>
+      </c>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="33"/>
+      <c r="X2" s="33"/>
+      <c r="Z2" s="33" t="s">
         <v>222</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="9"/>
-      <c r="J2" s="31" t="s">
+      <c r="AA2" s="33"/>
+      <c r="AB2" s="33"/>
+      <c r="AC2" s="33"/>
+      <c r="AE2" s="32" t="s">
         <v>223</v>
       </c>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="9"/>
-      <c r="R2" s="32" t="s">
-        <v>221</v>
-      </c>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="32"/>
-      <c r="W2" s="32"/>
-      <c r="X2" s="32"/>
-      <c r="Z2" s="32" t="s">
+      <c r="AF2" s="32"/>
+      <c r="AG2" s="32"/>
+      <c r="AH2" s="32"/>
+      <c r="AI2" s="32"/>
+      <c r="AJ2" s="32"/>
+      <c r="AK2" s="32"/>
+      <c r="AM2" s="32" t="s">
         <v>224</v>
       </c>
-      <c r="AA2" s="32"/>
-      <c r="AB2" s="32"/>
-      <c r="AC2" s="32"/>
-      <c r="AE2" s="31" t="s">
+      <c r="AN2" s="32"/>
+      <c r="AO2" s="32"/>
+      <c r="AP2" s="9"/>
+      <c r="AR2" s="32" t="s">
         <v>225</v>
       </c>
-      <c r="AF2" s="31"/>
-      <c r="AG2" s="31"/>
-      <c r="AH2" s="31"/>
-      <c r="AI2" s="31"/>
-      <c r="AJ2" s="31"/>
-      <c r="AK2" s="31"/>
-      <c r="AM2" s="31" t="s">
+      <c r="AS2" s="32"/>
+      <c r="AT2" s="32"/>
+      <c r="AU2" s="32"/>
+      <c r="AV2" s="32"/>
+      <c r="AW2" s="32"/>
+      <c r="AX2" s="32"/>
+      <c r="AZ2" s="32" t="s">
         <v>226</v>
       </c>
-      <c r="AN2" s="31"/>
-      <c r="AO2" s="31"/>
-      <c r="AP2" s="9"/>
-      <c r="AR2" s="31" t="s">
+      <c r="BA2" s="32"/>
+      <c r="BB2" s="32"/>
+      <c r="BC2" s="32"/>
+      <c r="BD2" s="32"/>
+      <c r="BE2" s="32"/>
+      <c r="BF2" s="9"/>
+      <c r="BH2" s="32" t="s">
         <v>227</v>
       </c>
-      <c r="AS2" s="31"/>
-      <c r="AT2" s="31"/>
-      <c r="AU2" s="31"/>
-      <c r="AV2" s="31"/>
-      <c r="AW2" s="31"/>
-      <c r="AX2" s="31"/>
-      <c r="AZ2" s="31" t="s">
+      <c r="BI2" s="32"/>
+      <c r="BJ2" s="32"/>
+      <c r="BK2" s="9"/>
+      <c r="BM2" s="32" t="s">
         <v>228</v>
       </c>
-      <c r="BA2" s="31"/>
-      <c r="BB2" s="31"/>
-      <c r="BC2" s="31"/>
-      <c r="BD2" s="31"/>
-      <c r="BE2" s="31"/>
-      <c r="BF2" s="9"/>
-      <c r="BH2" s="31" t="s">
+      <c r="BN2" s="32"/>
+      <c r="BO2" s="32"/>
+      <c r="BP2" s="9"/>
+      <c r="BR2" s="32" t="s">
         <v>229</v>
       </c>
-      <c r="BI2" s="31"/>
-      <c r="BJ2" s="31"/>
-      <c r="BK2" s="9"/>
-      <c r="BM2" s="31" t="s">
+      <c r="BS2" s="32"/>
+      <c r="BT2" s="32"/>
+      <c r="BU2" s="9"/>
+      <c r="BW2" s="32" t="s">
+        <v>231</v>
+      </c>
+      <c r="BX2" s="32"/>
+      <c r="BY2" s="32"/>
+      <c r="BZ2" s="9"/>
+      <c r="CB2" s="32" t="s">
         <v>230</v>
       </c>
-      <c r="BN2" s="31"/>
-      <c r="BO2" s="31"/>
-      <c r="BP2" s="9"/>
-      <c r="BR2" s="31" t="s">
-        <v>231</v>
-      </c>
-      <c r="BS2" s="31"/>
-      <c r="BT2" s="31"/>
-      <c r="BU2" s="9"/>
-      <c r="BW2" s="31" t="s">
-        <v>233</v>
-      </c>
-      <c r="BX2" s="31"/>
-      <c r="BY2" s="31"/>
-      <c r="BZ2" s="9"/>
-      <c r="CB2" s="31" t="s">
-        <v>232</v>
-      </c>
-      <c r="CC2" s="31"/>
-      <c r="CD2" s="31"/>
+      <c r="CC2" s="32"/>
+      <c r="CD2" s="32"/>
       <c r="CE2" s="9"/>
     </row>
     <row r="3" spans="2:83" x14ac:dyDescent="0.3">
@@ -1690,7 +1690,7 @@
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H3" s="7"/>
       <c r="J3" s="7" t="s">
@@ -1701,7 +1701,7 @@
       <c r="M3" s="12"/>
       <c r="N3" s="12"/>
       <c r="O3" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P3" s="7"/>
       <c r="R3" s="7" t="s">
@@ -1712,7 +1712,7 @@
       <c r="U3" s="7"/>
       <c r="V3" s="7"/>
       <c r="W3" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="X3" s="7"/>
       <c r="Z3" s="7" t="s">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="AA3" s="7"/>
       <c r="AB3" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AC3" s="7"/>
       <c r="AE3" s="7" t="s">
@@ -1731,15 +1731,15 @@
       <c r="AH3" s="12"/>
       <c r="AI3" s="12"/>
       <c r="AJ3" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AK3" s="7"/>
       <c r="AM3" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AN3" s="7"/>
       <c r="AO3" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AP3" s="7"/>
       <c r="AR3" s="7" t="s">
@@ -1750,7 +1750,7 @@
       <c r="AU3" s="12"/>
       <c r="AV3" s="12"/>
       <c r="AW3" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AX3" s="7"/>
       <c r="AZ3" s="7" t="s">
@@ -1761,7 +1761,7 @@
       <c r="BC3" s="12"/>
       <c r="BD3" s="12"/>
       <c r="BE3" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="BF3" s="7"/>
       <c r="BH3" s="8" t="s">
@@ -1769,7 +1769,7 @@
       </c>
       <c r="BI3" s="8"/>
       <c r="BJ3" s="8" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="BK3" s="8"/>
       <c r="BM3" s="7" t="s">
@@ -1777,7 +1777,7 @@
       </c>
       <c r="BN3" s="7"/>
       <c r="BO3" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="BP3" s="7"/>
       <c r="BR3" s="7" t="s">
@@ -1785,65 +1785,65 @@
       </c>
       <c r="BS3" s="7"/>
       <c r="BT3" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="BU3" s="7"/>
-      <c r="BW3" s="33" t="s">
+      <c r="BW3" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="BX3" s="33"/>
-      <c r="BY3" s="33"/>
+      <c r="BX3" s="31"/>
+      <c r="BY3" s="31"/>
       <c r="BZ3" s="2"/>
-      <c r="CB3" s="33" t="s">
+      <c r="CB3" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="CC3" s="33"/>
-      <c r="CD3" s="33"/>
+      <c r="CC3" s="31"/>
+      <c r="CD3" s="31"/>
       <c r="CE3" s="2"/>
     </row>
     <row r="4" spans="2:83" s="6" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="18"/>
       <c r="C4" s="18" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D4" s="18" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
       <c r="J4" s="18"/>
       <c r="K4" s="18" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L4" s="19" t="s">
         <v>18</v>
       </c>
       <c r="M4" s="19" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="N4" s="19" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="O4" s="18"/>
       <c r="P4" s="21"/>
       <c r="R4" s="18"/>
       <c r="S4" s="18" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="T4" s="19" t="s">
         <v>18</v>
       </c>
       <c r="U4" s="19" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="V4" s="19" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="W4" s="18"/>
       <c r="X4" s="21"/>
@@ -1853,16 +1853,16 @@
       <c r="AC4" s="21"/>
       <c r="AE4" s="18"/>
       <c r="AF4" s="18" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AG4" s="19" t="s">
         <v>18</v>
       </c>
       <c r="AH4" s="19" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AI4" s="19" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AJ4" s="18"/>
       <c r="AK4" s="21"/>
@@ -1872,31 +1872,31 @@
       <c r="AP4" s="21"/>
       <c r="AR4" s="18"/>
       <c r="AS4" s="18" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AT4" s="19" t="s">
         <v>18</v>
       </c>
       <c r="AU4" s="19" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AV4" s="19" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AW4" s="18"/>
       <c r="AX4" s="21"/>
       <c r="AZ4" s="18"/>
       <c r="BA4" s="18" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="BB4" s="19" t="s">
         <v>18</v>
       </c>
       <c r="BC4" s="19" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="BD4" s="19" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="BE4" s="18"/>
       <c r="BF4" s="21"/>
@@ -1926,16 +1926,16 @@
         <v>0</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G5" s="17" t="s">
         <v>66</v>
@@ -1945,16 +1945,16 @@
         <v>0</v>
       </c>
       <c r="K5" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L5" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="M5" s="16" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="N5" s="16" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="O5" s="17" t="s">
         <v>73</v>
@@ -1964,7 +1964,7 @@
         <v>0</v>
       </c>
       <c r="S5" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="T5" s="14"/>
       <c r="U5" s="14"/>
@@ -1977,7 +1977,7 @@
         <v>0</v>
       </c>
       <c r="AA5" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AB5" s="17" t="s">
         <v>91</v>
@@ -1987,16 +1987,16 @@
         <v>0</v>
       </c>
       <c r="AF5" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AG5" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="AH5" s="16" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AI5" s="16" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AJ5" s="17" t="s">
         <v>99</v>
@@ -2006,26 +2006,26 @@
         <v>0</v>
       </c>
       <c r="AN5" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AO5" s="17" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AP5" s="10"/>
       <c r="AR5" s="14" t="s">
         <v>0</v>
       </c>
       <c r="AS5" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AT5" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="AU5" s="16" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AV5" s="16" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AW5" s="17" t="s">
         <v>106</v>
@@ -2035,16 +2035,16 @@
         <v>0</v>
       </c>
       <c r="BA5" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BB5" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="BC5" s="16" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="BD5" s="16" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="BE5" s="17" t="s">
         <v>116</v>
@@ -2054,7 +2054,7 @@
         <v>0</v>
       </c>
       <c r="BI5" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BJ5" s="17" t="s">
         <v>126</v>
@@ -2064,27 +2064,27 @@
         <v>0</v>
       </c>
       <c r="BN5" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BO5" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="BP5" s="22"/>
       <c r="BR5" s="14" t="s">
         <v>0</v>
       </c>
       <c r="BS5" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BT5" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="BU5" s="22"/>
       <c r="BW5" s="14" t="s">
         <v>0</v>
       </c>
       <c r="BX5" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BY5" s="14"/>
       <c r="BZ5" s="24"/>
@@ -2092,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="CC5" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="CD5" s="14"/>
       <c r="CE5" s="24"/>
@@ -2102,13 +2102,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="4" t="s">
@@ -2119,16 +2119,16 @@
         <v>12</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="O6" s="4" t="s">
         <v>74</v>
@@ -2138,7 +2138,7 @@
         <v>31</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
@@ -2151,7 +2151,7 @@
         <v>31</v>
       </c>
       <c r="AA6" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AB6" s="4" t="s">
         <v>88</v>
@@ -2161,7 +2161,7 @@
         <v>34</v>
       </c>
       <c r="AF6" s="25" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="AG6" s="26"/>
       <c r="AH6" s="26"/>
@@ -2170,13 +2170,13 @@
         <v>100</v>
       </c>
       <c r="AK6" s="26" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AM6" s="3" t="s">
         <v>31</v>
       </c>
       <c r="AN6" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AO6" s="4" t="s">
         <v>104</v>
@@ -2186,16 +2186,16 @@
         <v>12</v>
       </c>
       <c r="AS6" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="AT6" s="10" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="AU6" s="10" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AV6" s="10" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="AW6" s="4" t="s">
         <v>107</v>
@@ -2205,16 +2205,16 @@
         <v>31</v>
       </c>
       <c r="BA6" s="5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="BB6" s="10" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="BC6" s="10" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="BD6" s="10" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="BE6" s="4" t="s">
         <v>117</v>
@@ -2224,7 +2224,7 @@
         <v>12</v>
       </c>
       <c r="BI6" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="BJ6" s="4" t="s">
         <v>127</v>
@@ -2234,27 +2234,27 @@
         <v>31</v>
       </c>
       <c r="BN6" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="BO6" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="BP6" s="22"/>
       <c r="BR6" s="3" t="s">
         <v>12</v>
       </c>
       <c r="BS6" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="BT6" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="BU6" s="22"/>
       <c r="BW6" s="3" t="s">
         <v>31</v>
       </c>
       <c r="BX6" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="BY6" s="3"/>
       <c r="BZ6" s="24"/>
@@ -2262,7 +2262,7 @@
         <v>13</v>
       </c>
       <c r="CC6" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="CD6" s="3"/>
       <c r="CE6" s="24"/>
@@ -2272,30 +2272,30 @@
         <v>2</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H7" s="3"/>
       <c r="J7" s="3" t="s">
         <v>13</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="N7" s="10"/>
       <c r="O7" s="4" t="s">
@@ -2306,7 +2306,7 @@
         <v>32</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
@@ -2319,7 +2319,7 @@
         <v>34</v>
       </c>
       <c r="AA7" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="AB7" s="4" t="s">
         <v>92</v>
@@ -2329,13 +2329,13 @@
         <v>13</v>
       </c>
       <c r="AF7" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AG7" s="10" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AH7" s="10" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AI7" s="10"/>
       <c r="AJ7" s="4" t="s">
@@ -2346,7 +2346,7 @@
         <v>38</v>
       </c>
       <c r="AN7" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="AO7" s="4" t="s">
         <v>105</v>
@@ -2356,35 +2356,35 @@
         <v>40</v>
       </c>
       <c r="AS7" s="25" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AT7" s="26" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AU7" s="26" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AV7" s="26"/>
       <c r="AW7" s="27" t="s">
         <v>108</v>
       </c>
       <c r="AX7" s="26" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AZ7" s="3" t="s">
         <v>48</v>
       </c>
       <c r="BA7" s="5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="BB7" s="10" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="BC7" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="BD7" s="10" t="s">
         <v>288</v>
-      </c>
-      <c r="BD7" s="10" t="s">
-        <v>290</v>
       </c>
       <c r="BE7" s="4" t="s">
         <v>118</v>
@@ -2394,39 +2394,39 @@
         <v>48</v>
       </c>
       <c r="BI7" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="BJ7" s="4" t="s">
         <v>128</v>
       </c>
       <c r="BK7" s="26" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="BM7" s="3" t="s">
         <v>58</v>
       </c>
       <c r="BN7" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="BO7" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="BP7" s="22"/>
       <c r="BR7" s="3" t="s">
         <v>58</v>
       </c>
       <c r="BS7" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="BT7" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="BU7" s="22"/>
       <c r="BW7" s="3" t="s">
         <v>64</v>
       </c>
       <c r="BX7" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="BY7" s="3"/>
       <c r="BZ7" s="24"/>
@@ -2434,7 +2434,7 @@
         <v>14</v>
       </c>
       <c r="CC7" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="CD7" s="3"/>
       <c r="CE7" s="24"/>
@@ -2444,16 +2444,16 @@
         <v>3</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>68</v>
@@ -2463,26 +2463,26 @@
         <v>14</v>
       </c>
       <c r="K8" s="25" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="L8" s="26" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="M8" s="26" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="N8" s="26"/>
       <c r="O8" s="27" t="s">
         <v>76</v>
       </c>
       <c r="P8" s="26" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="R8" s="3" t="s">
         <v>29</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
@@ -2495,7 +2495,7 @@
         <v>13</v>
       </c>
       <c r="AA8" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AB8" s="4" t="s">
         <v>93</v>
@@ -2505,13 +2505,13 @@
         <v>14</v>
       </c>
       <c r="AF8" s="25" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AG8" s="26" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AH8" s="26" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AI8" s="26"/>
       <c r="AJ8" s="27" t="s">
@@ -2522,32 +2522,32 @@
         <v>41</v>
       </c>
       <c r="AS8" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AT8" s="26" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AU8" s="26" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AV8" s="26"/>
       <c r="AW8" s="27" t="s">
         <v>109</v>
       </c>
       <c r="AX8" s="26" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AZ8" s="25" t="s">
         <v>19</v>
       </c>
       <c r="BA8" s="29" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="BB8" s="26" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="BC8" s="26" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="BD8" s="26"/>
       <c r="BE8" s="27" t="s">
@@ -2558,19 +2558,19 @@
         <v>41</v>
       </c>
       <c r="BI8" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="BJ8" s="27" t="s">
         <v>129</v>
       </c>
       <c r="BK8" s="26" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="BM8" s="25" t="s">
         <v>19</v>
       </c>
       <c r="BN8" s="25" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="BO8" s="27" t="s">
         <v>119</v>
@@ -2580,36 +2580,36 @@
         <v>61</v>
       </c>
       <c r="BS8" s="25" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="BT8" s="27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="BU8" s="22"/>
       <c r="CB8" s="3" t="s">
         <v>15</v>
       </c>
       <c r="CC8" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="CD8" s="3"/>
       <c r="CE8" s="24"/>
     </row>
-    <row r="9" spans="2:83" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:83" ht="63" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>69</v>
@@ -2619,16 +2619,16 @@
         <v>15</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="O9" s="4" t="s">
         <v>16</v>
@@ -2638,7 +2638,7 @@
         <v>35</v>
       </c>
       <c r="AA9" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AB9" s="4" t="s">
         <v>94</v>
@@ -2648,13 +2648,13 @@
         <v>15</v>
       </c>
       <c r="AF9" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AG9" s="10" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AH9" s="10" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AI9" s="10"/>
       <c r="AJ9" s="4" t="s">
@@ -2665,30 +2665,30 @@
         <v>42</v>
       </c>
       <c r="AS9" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AT9" s="10" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="AU9" s="10" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="AV9" s="10"/>
       <c r="AW9" s="4" t="s">
-        <v>194</v>
+        <v>303</v>
       </c>
       <c r="AX9" s="10"/>
       <c r="AZ9" s="3" t="s">
         <v>20</v>
       </c>
       <c r="BA9" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="BB9" s="10" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="BC9" s="10" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="BD9" s="10"/>
       <c r="BE9" s="4" t="s">
@@ -2699,17 +2699,17 @@
         <v>42</v>
       </c>
       <c r="BI9" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="BJ9" s="4" t="s">
-        <v>130</v>
+        <v>304</v>
       </c>
       <c r="BK9" s="10"/>
       <c r="BM9" s="3" t="s">
         <v>20</v>
       </c>
       <c r="BN9" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="BO9" s="4" t="s">
         <v>120</v>
@@ -2719,50 +2719,50 @@
         <v>18</v>
       </c>
       <c r="BS9" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="BT9" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="BU9" s="22"/>
       <c r="CB9" s="3" t="s">
         <v>29</v>
       </c>
       <c r="CC9" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="CD9" s="3"/>
       <c r="CE9" s="24"/>
     </row>
     <row r="10" spans="2:83" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H10" s="3"/>
       <c r="J10" s="3" t="s">
         <v>17</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="N10" s="10"/>
       <c r="O10" s="4" t="s">
@@ -2773,7 +2773,7 @@
         <v>36</v>
       </c>
       <c r="AA10" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AB10" s="4" t="s">
         <v>95</v>
@@ -2783,13 +2783,13 @@
         <v>29</v>
       </c>
       <c r="AF10" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AG10" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="AH10" s="10" t="s">
         <v>262</v>
-      </c>
-      <c r="AH10" s="10" t="s">
-        <v>264</v>
       </c>
       <c r="AI10" s="10"/>
       <c r="AJ10" s="4" t="s">
@@ -2800,13 +2800,13 @@
         <v>1</v>
       </c>
       <c r="AS10" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AT10" s="10" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AU10" s="10" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AV10" s="10"/>
       <c r="AW10" s="4" t="s">
@@ -2817,13 +2817,13 @@
         <v>21</v>
       </c>
       <c r="BA10" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="BB10" s="10" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="BC10" s="10" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="BD10" s="10"/>
       <c r="BE10" s="4" t="s">
@@ -2834,17 +2834,17 @@
         <v>51</v>
       </c>
       <c r="BI10" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="BJ10" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="BK10" s="10"/>
       <c r="BM10" s="3" t="s">
         <v>21</v>
       </c>
       <c r="BN10" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="BO10" s="4" t="s">
         <v>121</v>
@@ -2854,10 +2854,10 @@
         <v>62</v>
       </c>
       <c r="BS10" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="BT10" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="BU10" s="22"/>
     </row>
@@ -2866,45 +2866,45 @@
         <v>5</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F11" s="26"/>
       <c r="G11" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H11" s="30" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="J11" s="25" t="s">
         <v>18</v>
       </c>
       <c r="K11" s="25" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L11" s="26" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="M11" s="26" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="N11" s="26"/>
       <c r="O11" s="27" t="s">
         <v>78</v>
       </c>
       <c r="P11" s="26" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="Z11" s="3" t="s">
         <v>24</v>
       </c>
       <c r="AA11" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="AB11" s="4" t="s">
         <v>96</v>
@@ -2914,30 +2914,30 @@
         <v>2</v>
       </c>
       <c r="AS11" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="AT11" s="10" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AU11" s="10" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AV11" s="10"/>
       <c r="AW11" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AX11" s="10"/>
       <c r="AZ11" s="3" t="s">
         <v>22</v>
       </c>
       <c r="BA11" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="BB11" s="10" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="BC11" s="10" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="BD11" s="10"/>
       <c r="BE11" s="4" t="s">
@@ -2948,17 +2948,17 @@
         <v>52</v>
       </c>
       <c r="BI11" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="BJ11" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="BK11" s="10"/>
       <c r="BM11" s="3" t="s">
         <v>22</v>
       </c>
       <c r="BN11" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="BO11" s="4" t="s">
         <v>122</v>
@@ -2968,10 +2968,10 @@
         <v>42</v>
       </c>
       <c r="BS11" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="BT11" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="BU11" s="22"/>
     </row>
@@ -2980,43 +2980,43 @@
         <v>6</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F12" s="26"/>
       <c r="G12" s="27" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H12" s="25"/>
       <c r="J12" s="25" t="s">
         <v>19</v>
       </c>
       <c r="K12" s="25" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L12" s="26" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="M12" s="26" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="N12" s="26"/>
       <c r="O12" s="27" t="s">
         <v>79</v>
       </c>
       <c r="P12" s="26" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="Z12" s="3" t="s">
         <v>26</v>
       </c>
       <c r="AA12" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="AB12" s="4" t="s">
         <v>97</v>
@@ -3026,13 +3026,13 @@
         <v>3</v>
       </c>
       <c r="AS12" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AT12" s="10" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="AU12" s="10" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AV12" s="10"/>
       <c r="AW12" s="4" t="s">
@@ -3043,81 +3043,81 @@
         <v>49</v>
       </c>
       <c r="BA12" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="BB12" s="10" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="BC12" s="10" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="BD12" s="10"/>
       <c r="BE12" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="BF12" s="10"/>
       <c r="BH12" s="25" t="s">
         <v>53</v>
       </c>
       <c r="BI12" s="25" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="BJ12" s="27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="BK12" s="26" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="BM12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="BN12" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="BO12" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="BP12" s="22"/>
       <c r="BR12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="BS12" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="BT12" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="BU12" s="22"/>
     </row>
     <row r="13" spans="2:83" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="25" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F13" s="26"/>
       <c r="G13" s="27" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="H13" s="25"/>
       <c r="J13" s="3" t="s">
         <v>20</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="M13" s="10" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="N13" s="10"/>
       <c r="O13" s="4" t="s">
@@ -3128,7 +3128,7 @@
         <v>29</v>
       </c>
       <c r="AA13" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AB13" s="4" t="s">
         <v>98</v>
@@ -3138,13 +3138,13 @@
         <v>4</v>
       </c>
       <c r="AS13" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AT13" s="10" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AU13" s="10" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AV13" s="10"/>
       <c r="AW13" s="4" t="s">
@@ -3155,13 +3155,13 @@
         <v>24</v>
       </c>
       <c r="BA13" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="BB13" s="10" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="BC13" s="10" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="BD13" s="10"/>
       <c r="BE13" s="4" t="s">
@@ -3172,32 +3172,32 @@
         <v>54</v>
       </c>
       <c r="BI13" s="25" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="BJ13" s="27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="BK13" s="26" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="BM13" s="3" t="s">
         <v>25</v>
       </c>
       <c r="BN13" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="BO13" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="BP13" s="22"/>
       <c r="BR13" s="3" t="s">
         <v>25</v>
       </c>
       <c r="BS13" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="BT13" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="BU13" s="22"/>
     </row>
@@ -3206,13 +3206,13 @@
         <v>7</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F14" s="26"/>
       <c r="G14" s="27" t="s">
@@ -3223,17 +3223,17 @@
         <v>21</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="M14" s="10" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="N14" s="10"/>
       <c r="O14" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="P14" s="10"/>
       <c r="AC14" s="10"/>
@@ -3241,32 +3241,32 @@
         <v>43</v>
       </c>
       <c r="AS14" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AT14" s="10" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AU14" s="10" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AV14" s="10"/>
       <c r="AW14" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="AX14" s="10" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="AZ14" s="3" t="s">
         <v>25</v>
       </c>
       <c r="BA14" s="5" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="BB14" s="10" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="BC14" s="10" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="BD14" s="10"/>
       <c r="BE14" s="4" t="s">
@@ -3277,30 +3277,30 @@
         <v>55</v>
       </c>
       <c r="BI14" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="BJ14" s="4" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="BK14" s="10"/>
       <c r="BM14" s="3" t="s">
         <v>29</v>
       </c>
       <c r="BN14" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="BO14" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="BP14" s="22"/>
       <c r="BR14" s="3" t="s">
         <v>29</v>
       </c>
       <c r="BS14" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="BT14" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="BU14" s="22"/>
     </row>
@@ -3309,13 +3309,13 @@
         <v>8</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="4" t="s">
@@ -3326,13 +3326,13 @@
         <v>22</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L15" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="M15" s="10" t="s">
         <v>276</v>
-      </c>
-      <c r="M15" s="10" t="s">
-        <v>278</v>
       </c>
       <c r="N15" s="10"/>
       <c r="O15" s="4" t="s">
@@ -3343,13 +3343,13 @@
         <v>44</v>
       </c>
       <c r="AS15" s="25" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AT15" s="26" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AU15" s="26" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AV15" s="26"/>
       <c r="AW15" s="27" t="s">
@@ -3360,13 +3360,13 @@
         <v>29</v>
       </c>
       <c r="BA15" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="BB15" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="BC15" s="10" t="s">
         <v>262</v>
-      </c>
-      <c r="BC15" s="10" t="s">
-        <v>264</v>
       </c>
       <c r="BD15" s="10"/>
       <c r="BE15" s="4" t="s">
@@ -3377,13 +3377,13 @@
         <v>56</v>
       </c>
       <c r="BI15" s="25" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="BJ15" s="27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="BK15" s="26" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="16" spans="2:83" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -3391,13 +3391,13 @@
         <v>9</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D16" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="E16" s="10" t="s">
         <v>262</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>264</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="4" t="s">
@@ -3408,63 +3408,63 @@
         <v>23</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="M16" s="10" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="N16" s="10"/>
       <c r="O16" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="P16" s="10"/>
       <c r="AR16" s="25" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AS16" s="25" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AT16" s="26" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AU16" s="26" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AV16" s="26"/>
       <c r="AW16" s="27" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AX16" s="26" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="BH16" s="25" t="s">
         <v>21</v>
       </c>
       <c r="BI16" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="BJ16" s="27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="BK16" s="26" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="17" spans="2:63" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="4" t="s">
@@ -3475,13 +3475,13 @@
         <v>24</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="L17" s="10" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="M17" s="10" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="N17" s="10"/>
       <c r="O17" s="4" t="s">
@@ -3489,64 +3489,64 @@
       </c>
       <c r="P17" s="10"/>
       <c r="AR17" s="25" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AS17" s="25" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AT17" s="26" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AU17" s="26" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AV17" s="26"/>
       <c r="AW17" s="27" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="AX17" s="26" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="BH17" s="25" t="s">
         <v>57</v>
       </c>
       <c r="BI17" s="25" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="BJ17" s="27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="BK17" s="26" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="18" spans="2:63" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>298</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>300</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H18" s="3"/>
       <c r="J18" s="3" t="s">
         <v>25</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="M18" s="10" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="N18" s="10"/>
       <c r="O18" s="4" t="s">
@@ -3557,24 +3557,24 @@
         <v>45</v>
       </c>
       <c r="AS18" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AT18" s="10" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AU18" s="10" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AV18" s="10"/>
       <c r="AW18" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AX18" s="10"/>
       <c r="BH18" s="3" t="s">
         <v>1</v>
       </c>
       <c r="BI18" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="BJ18" s="4" t="s">
         <v>67</v>
@@ -3586,44 +3586,44 @@
         <v>26</v>
       </c>
       <c r="K19" s="25" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L19" s="26" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="M19" s="26" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="N19" s="26"/>
       <c r="O19" s="27" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P19" s="10"/>
       <c r="AR19" s="3" t="s">
         <v>46</v>
       </c>
       <c r="AS19" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="AT19" s="10" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AU19" s="10" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AV19" s="10"/>
       <c r="AW19" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AX19" s="10"/>
       <c r="BH19" s="3" t="s">
         <v>2</v>
       </c>
       <c r="BI19" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="BJ19" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="BK19" s="10"/>
     </row>
@@ -3632,13 +3632,13 @@
         <v>27</v>
       </c>
       <c r="K20" s="25" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L20" s="26" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="M20" s="26" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="N20" s="26"/>
       <c r="O20" s="27" t="s">
@@ -3649,13 +3649,13 @@
         <v>24</v>
       </c>
       <c r="AS20" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="AT20" s="10" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AU20" s="10" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AV20" s="10"/>
       <c r="AW20" s="4" t="s">
@@ -3666,7 +3666,7 @@
         <v>3</v>
       </c>
       <c r="BI20" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="BJ20" s="4" t="s">
         <v>110</v>
@@ -3678,13 +3678,13 @@
         <v>28</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="L21" s="10" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="M21" s="10" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="N21" s="10"/>
       <c r="O21" s="4" t="s">
@@ -3695,13 +3695,13 @@
         <v>25</v>
       </c>
       <c r="AS21" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AT21" s="10" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AU21" s="10" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AV21" s="10"/>
       <c r="AW21" s="4" t="s">
@@ -3712,7 +3712,7 @@
         <v>4</v>
       </c>
       <c r="BI21" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="BJ21" s="4" t="s">
         <v>111</v>
@@ -3724,13 +3724,13 @@
         <v>29</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L22" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="M22" s="10" t="s">
         <v>262</v>
-      </c>
-      <c r="M22" s="10" t="s">
-        <v>264</v>
       </c>
       <c r="N22" s="10"/>
       <c r="O22" s="4" t="s">
@@ -3741,13 +3741,13 @@
         <v>29</v>
       </c>
       <c r="AS22" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AT22" s="10" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="AU22" s="10" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AV22" s="10"/>
       <c r="AW22" s="4" t="s">
@@ -3758,10 +3758,10 @@
         <v>43</v>
       </c>
       <c r="BI22" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="BJ22" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="BK22" s="10"/>
     </row>
@@ -3770,41 +3770,41 @@
         <v>44</v>
       </c>
       <c r="BI23" s="25" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="BJ23" s="27" t="s">
         <v>112</v>
       </c>
       <c r="BK23" s="26" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="24" spans="2:63" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="BH24" s="25" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="BI24" s="25" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="BJ24" s="27" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="BK24" s="26" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="25" spans="2:63" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="BH25" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="BI25" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="BJ25" s="27" t="s">
         <v>214</v>
       </c>
-      <c r="BI25" s="25" t="s">
-        <v>215</v>
-      </c>
-      <c r="BJ25" s="27" t="s">
-        <v>216</v>
-      </c>
       <c r="BK25" s="26" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="26" spans="2:63" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -3812,10 +3812,10 @@
         <v>45</v>
       </c>
       <c r="BI26" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="BJ26" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="BK26" s="10"/>
     </row>
@@ -3824,10 +3824,10 @@
         <v>46</v>
       </c>
       <c r="BI27" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="BJ27" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="BK27" s="10"/>
     </row>
@@ -3836,10 +3836,10 @@
         <v>24</v>
       </c>
       <c r="BI28" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="BJ28" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="BK28" s="10"/>
     </row>
@@ -3848,10 +3848,10 @@
         <v>25</v>
       </c>
       <c r="BI29" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="BJ29" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="BK29" s="10"/>
     </row>
@@ -3860,21 +3860,15 @@
         <v>29</v>
       </c>
       <c r="BI30" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="BJ30" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="BK30" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="CB3:CD3"/>
-    <mergeCell ref="BW3:BY3"/>
-    <mergeCell ref="BM2:BO2"/>
-    <mergeCell ref="BR2:BT2"/>
-    <mergeCell ref="BW2:BY2"/>
-    <mergeCell ref="CB2:CD2"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="J2:O2"/>
     <mergeCell ref="AM2:AO2"/>
@@ -3884,6 +3878,12 @@
     <mergeCell ref="Z2:AC2"/>
     <mergeCell ref="AE2:AK2"/>
     <mergeCell ref="AR2:AX2"/>
+    <mergeCell ref="CB3:CD3"/>
+    <mergeCell ref="BW3:BY3"/>
+    <mergeCell ref="BM2:BO2"/>
+    <mergeCell ref="BR2:BT2"/>
+    <mergeCell ref="BW2:BY2"/>
+    <mergeCell ref="CB2:CD2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/csdl-shopping-cart.xlsx
+++ b/csdl-shopping-cart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DEVMASTER\DEV2206LM_SpringBoot\shopping-cart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E00332A-B42B-4232-8F7C-B6FD54ED90B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A00AED63-B2B7-4B0B-88A1-78CA45A225B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{91351D13-8343-4BE5-AE49-126D9A46B319}"/>
   </bookViews>
@@ -1175,13 +1175,13 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1500,8 +1500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E867DBF7-62FE-4C81-BE5B-4B051B3412A0}">
   <dimension ref="B2:CE30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BO8" workbookViewId="0">
-      <selection activeCell="BJ9" sqref="BJ9"/>
+    <sheetView tabSelected="1" topLeftCell="AX6" workbookViewId="0">
+      <selection activeCell="BE8" sqref="BE8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1584,101 +1584,101 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:83" x14ac:dyDescent="0.3">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="31" t="s">
         <v>220</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
       <c r="H2" s="9"/>
-      <c r="J2" s="32" t="s">
+      <c r="J2" s="31" t="s">
         <v>221</v>
       </c>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
       <c r="P2" s="9"/>
-      <c r="R2" s="33" t="s">
+      <c r="R2" s="32" t="s">
         <v>219</v>
       </c>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33"/>
-      <c r="X2" s="33"/>
-      <c r="Z2" s="33" t="s">
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="32"/>
+      <c r="X2" s="32"/>
+      <c r="Z2" s="32" t="s">
         <v>222</v>
       </c>
-      <c r="AA2" s="33"/>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="33"/>
-      <c r="AE2" s="32" t="s">
+      <c r="AA2" s="32"/>
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="32"/>
+      <c r="AE2" s="31" t="s">
         <v>223</v>
       </c>
-      <c r="AF2" s="32"/>
-      <c r="AG2" s="32"/>
-      <c r="AH2" s="32"/>
-      <c r="AI2" s="32"/>
-      <c r="AJ2" s="32"/>
-      <c r="AK2" s="32"/>
-      <c r="AM2" s="32" t="s">
+      <c r="AF2" s="31"/>
+      <c r="AG2" s="31"/>
+      <c r="AH2" s="31"/>
+      <c r="AI2" s="31"/>
+      <c r="AJ2" s="31"/>
+      <c r="AK2" s="31"/>
+      <c r="AM2" s="31" t="s">
         <v>224</v>
       </c>
-      <c r="AN2" s="32"/>
-      <c r="AO2" s="32"/>
+      <c r="AN2" s="31"/>
+      <c r="AO2" s="31"/>
       <c r="AP2" s="9"/>
-      <c r="AR2" s="32" t="s">
+      <c r="AR2" s="31" t="s">
         <v>225</v>
       </c>
-      <c r="AS2" s="32"/>
-      <c r="AT2" s="32"/>
-      <c r="AU2" s="32"/>
-      <c r="AV2" s="32"/>
-      <c r="AW2" s="32"/>
-      <c r="AX2" s="32"/>
-      <c r="AZ2" s="32" t="s">
+      <c r="AS2" s="31"/>
+      <c r="AT2" s="31"/>
+      <c r="AU2" s="31"/>
+      <c r="AV2" s="31"/>
+      <c r="AW2" s="31"/>
+      <c r="AX2" s="31"/>
+      <c r="AZ2" s="31" t="s">
         <v>226</v>
       </c>
-      <c r="BA2" s="32"/>
-      <c r="BB2" s="32"/>
-      <c r="BC2" s="32"/>
-      <c r="BD2" s="32"/>
-      <c r="BE2" s="32"/>
+      <c r="BA2" s="31"/>
+      <c r="BB2" s="31"/>
+      <c r="BC2" s="31"/>
+      <c r="BD2" s="31"/>
+      <c r="BE2" s="31"/>
       <c r="BF2" s="9"/>
-      <c r="BH2" s="32" t="s">
+      <c r="BH2" s="31" t="s">
         <v>227</v>
       </c>
-      <c r="BI2" s="32"/>
-      <c r="BJ2" s="32"/>
+      <c r="BI2" s="31"/>
+      <c r="BJ2" s="31"/>
       <c r="BK2" s="9"/>
-      <c r="BM2" s="32" t="s">
+      <c r="BM2" s="31" t="s">
         <v>228</v>
       </c>
-      <c r="BN2" s="32"/>
-      <c r="BO2" s="32"/>
+      <c r="BN2" s="31"/>
+      <c r="BO2" s="31"/>
       <c r="BP2" s="9"/>
-      <c r="BR2" s="32" t="s">
+      <c r="BR2" s="31" t="s">
         <v>229</v>
       </c>
-      <c r="BS2" s="32"/>
-      <c r="BT2" s="32"/>
+      <c r="BS2" s="31"/>
+      <c r="BT2" s="31"/>
       <c r="BU2" s="9"/>
-      <c r="BW2" s="32" t="s">
+      <c r="BW2" s="31" t="s">
         <v>231</v>
       </c>
-      <c r="BX2" s="32"/>
-      <c r="BY2" s="32"/>
+      <c r="BX2" s="31"/>
+      <c r="BY2" s="31"/>
       <c r="BZ2" s="9"/>
-      <c r="CB2" s="32" t="s">
+      <c r="CB2" s="31" t="s">
         <v>230</v>
       </c>
-      <c r="CC2" s="32"/>
-      <c r="CD2" s="32"/>
+      <c r="CC2" s="31"/>
+      <c r="CD2" s="31"/>
       <c r="CE2" s="9"/>
     </row>
     <row r="3" spans="2:83" x14ac:dyDescent="0.3">
@@ -1788,17 +1788,17 @@
         <v>207</v>
       </c>
       <c r="BU3" s="7"/>
-      <c r="BW3" s="31" t="s">
+      <c r="BW3" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="BX3" s="31"/>
-      <c r="BY3" s="31"/>
+      <c r="BX3" s="33"/>
+      <c r="BY3" s="33"/>
       <c r="BZ3" s="2"/>
-      <c r="CB3" s="31" t="s">
+      <c r="CB3" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="CC3" s="31"/>
-      <c r="CD3" s="31"/>
+      <c r="CC3" s="33"/>
+      <c r="CD3" s="33"/>
       <c r="CE3" s="2"/>
     </row>
     <row r="4" spans="2:83" s="6" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -3869,6 +3869,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="CB3:CD3"/>
+    <mergeCell ref="BW3:BY3"/>
+    <mergeCell ref="BM2:BO2"/>
+    <mergeCell ref="BR2:BT2"/>
+    <mergeCell ref="BW2:BY2"/>
+    <mergeCell ref="CB2:CD2"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="J2:O2"/>
     <mergeCell ref="AM2:AO2"/>
@@ -3878,12 +3884,6 @@
     <mergeCell ref="Z2:AC2"/>
     <mergeCell ref="AE2:AK2"/>
     <mergeCell ref="AR2:AX2"/>
-    <mergeCell ref="CB3:CD3"/>
-    <mergeCell ref="BW3:BY3"/>
-    <mergeCell ref="BM2:BO2"/>
-    <mergeCell ref="BR2:BT2"/>
-    <mergeCell ref="BW2:BY2"/>
-    <mergeCell ref="CB2:CD2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/csdl-shopping-cart.xlsx
+++ b/csdl-shopping-cart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DEVMASTER\DEV2206LM_SpringBoot\shopping-cart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A00AED63-B2B7-4B0B-88A1-78CA45A225B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A711EA77-0496-4622-ABD9-419B7DA314E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{91351D13-8343-4BE5-AE49-126D9A46B319}"/>
   </bookViews>
@@ -1175,13 +1175,13 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1500,8 +1500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E867DBF7-62FE-4C81-BE5B-4B051B3412A0}">
   <dimension ref="B2:CE30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AX6" workbookViewId="0">
-      <selection activeCell="BE8" sqref="BE8"/>
+    <sheetView tabSelected="1" topLeftCell="BO1" workbookViewId="0">
+      <selection activeCell="BR3" sqref="BR3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1584,101 +1584,101 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:83" x14ac:dyDescent="0.3">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="32" t="s">
         <v>220</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
       <c r="H2" s="9"/>
-      <c r="J2" s="31" t="s">
+      <c r="J2" s="32" t="s">
         <v>221</v>
       </c>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
       <c r="P2" s="9"/>
-      <c r="R2" s="32" t="s">
+      <c r="R2" s="33" t="s">
         <v>219</v>
       </c>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="32"/>
-      <c r="W2" s="32"/>
-      <c r="X2" s="32"/>
-      <c r="Z2" s="32" t="s">
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="33"/>
+      <c r="X2" s="33"/>
+      <c r="Z2" s="33" t="s">
         <v>222</v>
       </c>
-      <c r="AA2" s="32"/>
-      <c r="AB2" s="32"/>
-      <c r="AC2" s="32"/>
-      <c r="AE2" s="31" t="s">
+      <c r="AA2" s="33"/>
+      <c r="AB2" s="33"/>
+      <c r="AC2" s="33"/>
+      <c r="AE2" s="32" t="s">
         <v>223</v>
       </c>
-      <c r="AF2" s="31"/>
-      <c r="AG2" s="31"/>
-      <c r="AH2" s="31"/>
-      <c r="AI2" s="31"/>
-      <c r="AJ2" s="31"/>
-      <c r="AK2" s="31"/>
-      <c r="AM2" s="31" t="s">
+      <c r="AF2" s="32"/>
+      <c r="AG2" s="32"/>
+      <c r="AH2" s="32"/>
+      <c r="AI2" s="32"/>
+      <c r="AJ2" s="32"/>
+      <c r="AK2" s="32"/>
+      <c r="AM2" s="32" t="s">
         <v>224</v>
       </c>
-      <c r="AN2" s="31"/>
-      <c r="AO2" s="31"/>
+      <c r="AN2" s="32"/>
+      <c r="AO2" s="32"/>
       <c r="AP2" s="9"/>
-      <c r="AR2" s="31" t="s">
+      <c r="AR2" s="32" t="s">
         <v>225</v>
       </c>
-      <c r="AS2" s="31"/>
-      <c r="AT2" s="31"/>
-      <c r="AU2" s="31"/>
-      <c r="AV2" s="31"/>
-      <c r="AW2" s="31"/>
-      <c r="AX2" s="31"/>
-      <c r="AZ2" s="31" t="s">
+      <c r="AS2" s="32"/>
+      <c r="AT2" s="32"/>
+      <c r="AU2" s="32"/>
+      <c r="AV2" s="32"/>
+      <c r="AW2" s="32"/>
+      <c r="AX2" s="32"/>
+      <c r="AZ2" s="32" t="s">
         <v>226</v>
       </c>
-      <c r="BA2" s="31"/>
-      <c r="BB2" s="31"/>
-      <c r="BC2" s="31"/>
-      <c r="BD2" s="31"/>
-      <c r="BE2" s="31"/>
+      <c r="BA2" s="32"/>
+      <c r="BB2" s="32"/>
+      <c r="BC2" s="32"/>
+      <c r="BD2" s="32"/>
+      <c r="BE2" s="32"/>
       <c r="BF2" s="9"/>
-      <c r="BH2" s="31" t="s">
+      <c r="BH2" s="32" t="s">
         <v>227</v>
       </c>
-      <c r="BI2" s="31"/>
-      <c r="BJ2" s="31"/>
+      <c r="BI2" s="32"/>
+      <c r="BJ2" s="32"/>
       <c r="BK2" s="9"/>
-      <c r="BM2" s="31" t="s">
+      <c r="BM2" s="32" t="s">
         <v>228</v>
       </c>
-      <c r="BN2" s="31"/>
-      <c r="BO2" s="31"/>
+      <c r="BN2" s="32"/>
+      <c r="BO2" s="32"/>
       <c r="BP2" s="9"/>
-      <c r="BR2" s="31" t="s">
+      <c r="BR2" s="32" t="s">
         <v>229</v>
       </c>
-      <c r="BS2" s="31"/>
-      <c r="BT2" s="31"/>
+      <c r="BS2" s="32"/>
+      <c r="BT2" s="32"/>
       <c r="BU2" s="9"/>
-      <c r="BW2" s="31" t="s">
+      <c r="BW2" s="32" t="s">
         <v>231</v>
       </c>
-      <c r="BX2" s="31"/>
-      <c r="BY2" s="31"/>
+      <c r="BX2" s="32"/>
+      <c r="BY2" s="32"/>
       <c r="BZ2" s="9"/>
-      <c r="CB2" s="31" t="s">
+      <c r="CB2" s="32" t="s">
         <v>230</v>
       </c>
-      <c r="CC2" s="31"/>
-      <c r="CD2" s="31"/>
+      <c r="CC2" s="32"/>
+      <c r="CD2" s="32"/>
       <c r="CE2" s="9"/>
     </row>
     <row r="3" spans="2:83" x14ac:dyDescent="0.3">
@@ -1788,17 +1788,17 @@
         <v>207</v>
       </c>
       <c r="BU3" s="7"/>
-      <c r="BW3" s="33" t="s">
+      <c r="BW3" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="BX3" s="33"/>
-      <c r="BY3" s="33"/>
+      <c r="BX3" s="31"/>
+      <c r="BY3" s="31"/>
       <c r="BZ3" s="2"/>
-      <c r="CB3" s="33" t="s">
+      <c r="CB3" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="CC3" s="33"/>
-      <c r="CD3" s="33"/>
+      <c r="CC3" s="31"/>
+      <c r="CD3" s="31"/>
       <c r="CE3" s="2"/>
     </row>
     <row r="4" spans="2:83" s="6" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -3869,12 +3869,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="CB3:CD3"/>
-    <mergeCell ref="BW3:BY3"/>
-    <mergeCell ref="BM2:BO2"/>
-    <mergeCell ref="BR2:BT2"/>
-    <mergeCell ref="BW2:BY2"/>
-    <mergeCell ref="CB2:CD2"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="J2:O2"/>
     <mergeCell ref="AM2:AO2"/>
@@ -3884,6 +3878,12 @@
     <mergeCell ref="Z2:AC2"/>
     <mergeCell ref="AE2:AK2"/>
     <mergeCell ref="AR2:AX2"/>
+    <mergeCell ref="CB3:CD3"/>
+    <mergeCell ref="BW3:BY3"/>
+    <mergeCell ref="BM2:BO2"/>
+    <mergeCell ref="BR2:BT2"/>
+    <mergeCell ref="BW2:BY2"/>
+    <mergeCell ref="CB2:CD2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/csdl-shopping-cart.xlsx
+++ b/csdl-shopping-cart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DEVMASTER\DEV2206LM_SpringBoot\shopping-cart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A711EA77-0496-4622-ABD9-419B7DA314E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53FE5532-2437-468A-9065-B599AB316E81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{91351D13-8343-4BE5-AE49-126D9A46B319}"/>
   </bookViews>
@@ -1500,8 +1500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E867DBF7-62FE-4C81-BE5B-4B051B3412A0}">
   <dimension ref="B2:CE30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BO1" workbookViewId="0">
-      <selection activeCell="BR3" sqref="BR3"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>

--- a/csdl-shopping-cart.xlsx
+++ b/csdl-shopping-cart.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DEVMASTER\DEV2206LM_SpringBoot\shopping-cart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53FE5532-2437-468A-9065-B599AB316E81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28819561-A600-4E1C-9FB4-5D4962A9B229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{91351D13-8343-4BE5-AE49-126D9A46B319}"/>
   </bookViews>
@@ -996,7 +996,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1030,6 +1030,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1089,7 +1101,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1175,14 +1187,38 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1500,8 +1536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E867DBF7-62FE-4C81-BE5B-4B051B3412A0}">
   <dimension ref="B2:CE30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1584,101 +1620,101 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:83" x14ac:dyDescent="0.3">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="31" t="s">
         <v>220</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
       <c r="H2" s="9"/>
-      <c r="J2" s="32" t="s">
+      <c r="J2" s="31" t="s">
         <v>221</v>
       </c>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
       <c r="P2" s="9"/>
-      <c r="R2" s="33" t="s">
+      <c r="R2" s="32" t="s">
         <v>219</v>
       </c>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33"/>
-      <c r="X2" s="33"/>
-      <c r="Z2" s="33" t="s">
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="32"/>
+      <c r="X2" s="32"/>
+      <c r="Z2" s="32" t="s">
         <v>222</v>
       </c>
-      <c r="AA2" s="33"/>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="33"/>
-      <c r="AE2" s="32" t="s">
+      <c r="AA2" s="32"/>
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="32"/>
+      <c r="AE2" s="31" t="s">
         <v>223</v>
       </c>
-      <c r="AF2" s="32"/>
-      <c r="AG2" s="32"/>
-      <c r="AH2" s="32"/>
-      <c r="AI2" s="32"/>
-      <c r="AJ2" s="32"/>
-      <c r="AK2" s="32"/>
-      <c r="AM2" s="32" t="s">
+      <c r="AF2" s="31"/>
+      <c r="AG2" s="31"/>
+      <c r="AH2" s="31"/>
+      <c r="AI2" s="31"/>
+      <c r="AJ2" s="31"/>
+      <c r="AK2" s="31"/>
+      <c r="AM2" s="31" t="s">
         <v>224</v>
       </c>
-      <c r="AN2" s="32"/>
-      <c r="AO2" s="32"/>
+      <c r="AN2" s="31"/>
+      <c r="AO2" s="31"/>
       <c r="AP2" s="9"/>
-      <c r="AR2" s="32" t="s">
+      <c r="AR2" s="31" t="s">
         <v>225</v>
       </c>
-      <c r="AS2" s="32"/>
-      <c r="AT2" s="32"/>
-      <c r="AU2" s="32"/>
-      <c r="AV2" s="32"/>
-      <c r="AW2" s="32"/>
-      <c r="AX2" s="32"/>
-      <c r="AZ2" s="32" t="s">
+      <c r="AS2" s="31"/>
+      <c r="AT2" s="31"/>
+      <c r="AU2" s="31"/>
+      <c r="AV2" s="31"/>
+      <c r="AW2" s="31"/>
+      <c r="AX2" s="31"/>
+      <c r="AZ2" s="31" t="s">
         <v>226</v>
       </c>
-      <c r="BA2" s="32"/>
-      <c r="BB2" s="32"/>
-      <c r="BC2" s="32"/>
-      <c r="BD2" s="32"/>
-      <c r="BE2" s="32"/>
+      <c r="BA2" s="31"/>
+      <c r="BB2" s="31"/>
+      <c r="BC2" s="31"/>
+      <c r="BD2" s="31"/>
+      <c r="BE2" s="31"/>
       <c r="BF2" s="9"/>
-      <c r="BH2" s="32" t="s">
+      <c r="BH2" s="31" t="s">
         <v>227</v>
       </c>
-      <c r="BI2" s="32"/>
-      <c r="BJ2" s="32"/>
+      <c r="BI2" s="31"/>
+      <c r="BJ2" s="31"/>
       <c r="BK2" s="9"/>
-      <c r="BM2" s="32" t="s">
+      <c r="BM2" s="31" t="s">
         <v>228</v>
       </c>
-      <c r="BN2" s="32"/>
-      <c r="BO2" s="32"/>
+      <c r="BN2" s="31"/>
+      <c r="BO2" s="31"/>
       <c r="BP2" s="9"/>
-      <c r="BR2" s="32" t="s">
+      <c r="BR2" s="31" t="s">
         <v>229</v>
       </c>
-      <c r="BS2" s="32"/>
-      <c r="BT2" s="32"/>
+      <c r="BS2" s="31"/>
+      <c r="BT2" s="31"/>
       <c r="BU2" s="9"/>
-      <c r="BW2" s="32" t="s">
+      <c r="BW2" s="31" t="s">
         <v>231</v>
       </c>
-      <c r="BX2" s="32"/>
-      <c r="BY2" s="32"/>
+      <c r="BX2" s="31"/>
+      <c r="BY2" s="31"/>
       <c r="BZ2" s="9"/>
-      <c r="CB2" s="32" t="s">
+      <c r="CB2" s="31" t="s">
         <v>230</v>
       </c>
-      <c r="CC2" s="32"/>
-      <c r="CD2" s="32"/>
+      <c r="CC2" s="31"/>
+      <c r="CD2" s="31"/>
       <c r="CE2" s="9"/>
     </row>
     <row r="3" spans="2:83" x14ac:dyDescent="0.3">
@@ -1788,17 +1824,17 @@
         <v>207</v>
       </c>
       <c r="BU3" s="7"/>
-      <c r="BW3" s="31" t="s">
+      <c r="BW3" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="BX3" s="31"/>
-      <c r="BY3" s="31"/>
+      <c r="BX3" s="33"/>
+      <c r="BY3" s="33"/>
       <c r="BZ3" s="2"/>
-      <c r="CB3" s="31" t="s">
+      <c r="CB3" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="CC3" s="31"/>
-      <c r="CD3" s="31"/>
+      <c r="CC3" s="33"/>
+      <c r="CD3" s="33"/>
       <c r="CE3" s="2"/>
     </row>
     <row r="4" spans="2:83" s="6" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -2976,23 +3012,23 @@
       <c r="BU11" s="22"/>
     </row>
     <row r="12" spans="2:83" ht="63" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="39" t="s">
         <v>257</v>
       </c>
-      <c r="E12" s="26" t="s">
+      <c r="E12" s="40" t="s">
         <v>265</v>
       </c>
-      <c r="F12" s="26"/>
-      <c r="G12" s="27" t="s">
+      <c r="F12" s="40"/>
+      <c r="G12" s="41" t="s">
         <v>293</v>
       </c>
-      <c r="H12" s="25"/>
+      <c r="H12" s="38"/>
       <c r="J12" s="25" t="s">
         <v>19</v>
       </c>
@@ -3090,23 +3126,23 @@
       <c r="BU12" s="22"/>
     </row>
     <row r="13" spans="2:83" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="34" t="s">
         <v>290</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="35" t="s">
         <v>291</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="D13" s="35" t="s">
         <v>258</v>
       </c>
-      <c r="E13" s="26" t="s">
+      <c r="E13" s="36" t="s">
         <v>264</v>
       </c>
-      <c r="F13" s="26"/>
-      <c r="G13" s="27" t="s">
+      <c r="F13" s="36"/>
+      <c r="G13" s="37" t="s">
         <v>292</v>
       </c>
-      <c r="H13" s="25"/>
+      <c r="H13" s="34"/>
       <c r="J13" s="3" t="s">
         <v>20</v>
       </c>
@@ -3869,6 +3905,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="CB3:CD3"/>
+    <mergeCell ref="BW3:BY3"/>
+    <mergeCell ref="BM2:BO2"/>
+    <mergeCell ref="BR2:BT2"/>
+    <mergeCell ref="BW2:BY2"/>
+    <mergeCell ref="CB2:CD2"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="J2:O2"/>
     <mergeCell ref="AM2:AO2"/>
@@ -3878,12 +3920,6 @@
     <mergeCell ref="Z2:AC2"/>
     <mergeCell ref="AE2:AK2"/>
     <mergeCell ref="AR2:AX2"/>
-    <mergeCell ref="CB3:CD3"/>
-    <mergeCell ref="BW3:BY3"/>
-    <mergeCell ref="BM2:BO2"/>
-    <mergeCell ref="BR2:BT2"/>
-    <mergeCell ref="BW2:BY2"/>
-    <mergeCell ref="CB2:CD2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/csdl-shopping-cart.xlsx
+++ b/csdl-shopping-cart.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DEVMASTER\DEV2206LM_SpringBoot\shopping-cart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28819561-A600-4E1C-9FB4-5D4962A9B229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15437948-DF4C-4B88-9FF9-79D086C240CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{91351D13-8343-4BE5-AE49-126D9A46B319}"/>
   </bookViews>
@@ -323,9 +323,6 @@
     <t>Đánh giá đánh giá.</t>
   </si>
   <si>
-    <t>Nó có thể được sử dụng để xác định xem bài đánh giá có được công khai hay không.</t>
-  </si>
-  <si>
     <t>Nó lưu trữ ngày và thời gian gửi đánh giá.</t>
   </si>
   <si>
@@ -702,9 +699,6 @@
   </si>
   <si>
     <t>Bảng sản phẩm</t>
-  </si>
-  <si>
-    <t>Bảng này chưa biết làm(Bảng review sản phẩm)</t>
   </si>
   <si>
     <t>Bảng loại sản phẩm</t>
@@ -959,6 +953,12 @@
   </si>
   <si>
     <t>Trạng thái của đơn đặt hàng có thể là Order=0, Chờ xác nhận, Đã thanh toán, Không thành công, Đã vận chuyển, Đã giao, Đã trả lại và Hoàn thành.</t>
+  </si>
+  <si>
+    <t>đang làm</t>
+  </si>
+  <si>
+    <t>Nó có thể được sử dụng để xác định xem bài đánh giá có được công khai hay không.(0||1)</t>
   </si>
 </sst>
 </file>
@@ -1187,15 +1187,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1219,6 +1210,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1536,8 +1536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E867DBF7-62FE-4C81-BE5B-4B051B3412A0}">
   <dimension ref="B2:CE30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="W6" workbookViewId="0">
+      <selection activeCell="AB10" sqref="AB10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1620,101 +1620,101 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:83" x14ac:dyDescent="0.3">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="40" t="s">
+        <v>219</v>
+      </c>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="9"/>
+      <c r="J2" s="40" t="s">
         <v>220</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="9"/>
-      <c r="J2" s="31" t="s">
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="9"/>
+      <c r="R2" s="41" t="s">
+        <v>218</v>
+      </c>
+      <c r="S2" s="41"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="41"/>
+      <c r="V2" s="41"/>
+      <c r="W2" s="41"/>
+      <c r="X2" s="41"/>
+      <c r="Z2" s="41" t="s">
+        <v>303</v>
+      </c>
+      <c r="AA2" s="41"/>
+      <c r="AB2" s="41"/>
+      <c r="AC2" s="41"/>
+      <c r="AE2" s="40" t="s">
         <v>221</v>
       </c>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="9"/>
-      <c r="R2" s="32" t="s">
-        <v>219</v>
-      </c>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="32"/>
-      <c r="W2" s="32"/>
-      <c r="X2" s="32"/>
-      <c r="Z2" s="32" t="s">
+      <c r="AF2" s="40"/>
+      <c r="AG2" s="40"/>
+      <c r="AH2" s="40"/>
+      <c r="AI2" s="40"/>
+      <c r="AJ2" s="40"/>
+      <c r="AK2" s="40"/>
+      <c r="AM2" s="40" t="s">
         <v>222</v>
       </c>
-      <c r="AA2" s="32"/>
-      <c r="AB2" s="32"/>
-      <c r="AC2" s="32"/>
-      <c r="AE2" s="31" t="s">
+      <c r="AN2" s="40"/>
+      <c r="AO2" s="40"/>
+      <c r="AP2" s="9"/>
+      <c r="AR2" s="40" t="s">
         <v>223</v>
       </c>
-      <c r="AF2" s="31"/>
-      <c r="AG2" s="31"/>
-      <c r="AH2" s="31"/>
-      <c r="AI2" s="31"/>
-      <c r="AJ2" s="31"/>
-      <c r="AK2" s="31"/>
-      <c r="AM2" s="31" t="s">
+      <c r="AS2" s="40"/>
+      <c r="AT2" s="40"/>
+      <c r="AU2" s="40"/>
+      <c r="AV2" s="40"/>
+      <c r="AW2" s="40"/>
+      <c r="AX2" s="40"/>
+      <c r="AZ2" s="40" t="s">
         <v>224</v>
       </c>
-      <c r="AN2" s="31"/>
-      <c r="AO2" s="31"/>
-      <c r="AP2" s="9"/>
-      <c r="AR2" s="31" t="s">
+      <c r="BA2" s="40"/>
+      <c r="BB2" s="40"/>
+      <c r="BC2" s="40"/>
+      <c r="BD2" s="40"/>
+      <c r="BE2" s="40"/>
+      <c r="BF2" s="9"/>
+      <c r="BH2" s="40" t="s">
         <v>225</v>
       </c>
-      <c r="AS2" s="31"/>
-      <c r="AT2" s="31"/>
-      <c r="AU2" s="31"/>
-      <c r="AV2" s="31"/>
-      <c r="AW2" s="31"/>
-      <c r="AX2" s="31"/>
-      <c r="AZ2" s="31" t="s">
+      <c r="BI2" s="40"/>
+      <c r="BJ2" s="40"/>
+      <c r="BK2" s="9"/>
+      <c r="BM2" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="BA2" s="31"/>
-      <c r="BB2" s="31"/>
-      <c r="BC2" s="31"/>
-      <c r="BD2" s="31"/>
-      <c r="BE2" s="31"/>
-      <c r="BF2" s="9"/>
-      <c r="BH2" s="31" t="s">
+      <c r="BN2" s="40"/>
+      <c r="BO2" s="40"/>
+      <c r="BP2" s="9"/>
+      <c r="BR2" s="40" t="s">
         <v>227</v>
       </c>
-      <c r="BI2" s="31"/>
-      <c r="BJ2" s="31"/>
-      <c r="BK2" s="9"/>
-      <c r="BM2" s="31" t="s">
+      <c r="BS2" s="40"/>
+      <c r="BT2" s="40"/>
+      <c r="BU2" s="9"/>
+      <c r="BW2" s="40" t="s">
+        <v>229</v>
+      </c>
+      <c r="BX2" s="40"/>
+      <c r="BY2" s="40"/>
+      <c r="BZ2" s="9"/>
+      <c r="CB2" s="40" t="s">
         <v>228</v>
       </c>
-      <c r="BN2" s="31"/>
-      <c r="BO2" s="31"/>
-      <c r="BP2" s="9"/>
-      <c r="BR2" s="31" t="s">
-        <v>229</v>
-      </c>
-      <c r="BS2" s="31"/>
-      <c r="BT2" s="31"/>
-      <c r="BU2" s="9"/>
-      <c r="BW2" s="31" t="s">
-        <v>231</v>
-      </c>
-      <c r="BX2" s="31"/>
-      <c r="BY2" s="31"/>
-      <c r="BZ2" s="9"/>
-      <c r="CB2" s="31" t="s">
-        <v>230</v>
-      </c>
-      <c r="CC2" s="31"/>
-      <c r="CD2" s="31"/>
+      <c r="CC2" s="40"/>
+      <c r="CD2" s="40"/>
       <c r="CE2" s="9"/>
     </row>
     <row r="3" spans="2:83" x14ac:dyDescent="0.3">
@@ -1726,7 +1726,7 @@
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H3" s="7"/>
       <c r="J3" s="7" t="s">
@@ -1737,7 +1737,7 @@
       <c r="M3" s="12"/>
       <c r="N3" s="12"/>
       <c r="O3" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="P3" s="7"/>
       <c r="R3" s="7" t="s">
@@ -1748,7 +1748,7 @@
       <c r="U3" s="7"/>
       <c r="V3" s="7"/>
       <c r="W3" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X3" s="7"/>
       <c r="Z3" s="7" t="s">
@@ -1756,7 +1756,7 @@
       </c>
       <c r="AA3" s="7"/>
       <c r="AB3" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AC3" s="7"/>
       <c r="AE3" s="7" t="s">
@@ -1767,15 +1767,15 @@
       <c r="AH3" s="12"/>
       <c r="AI3" s="12"/>
       <c r="AJ3" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AK3" s="7"/>
       <c r="AM3" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AN3" s="7"/>
       <c r="AO3" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AP3" s="7"/>
       <c r="AR3" s="7" t="s">
@@ -1786,7 +1786,7 @@
       <c r="AU3" s="12"/>
       <c r="AV3" s="12"/>
       <c r="AW3" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AX3" s="7"/>
       <c r="AZ3" s="7" t="s">
@@ -1797,7 +1797,7 @@
       <c r="BC3" s="12"/>
       <c r="BD3" s="12"/>
       <c r="BE3" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="BF3" s="7"/>
       <c r="BH3" s="8" t="s">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="BI3" s="8"/>
       <c r="BJ3" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BK3" s="8"/>
       <c r="BM3" s="7" t="s">
@@ -1813,7 +1813,7 @@
       </c>
       <c r="BN3" s="7"/>
       <c r="BO3" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BP3" s="7"/>
       <c r="BR3" s="7" t="s">
@@ -1821,65 +1821,65 @@
       </c>
       <c r="BS3" s="7"/>
       <c r="BT3" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BU3" s="7"/>
-      <c r="BW3" s="33" t="s">
+      <c r="BW3" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="BX3" s="33"/>
-      <c r="BY3" s="33"/>
+      <c r="BX3" s="39"/>
+      <c r="BY3" s="39"/>
       <c r="BZ3" s="2"/>
-      <c r="CB3" s="33" t="s">
+      <c r="CB3" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="CC3" s="33"/>
-      <c r="CD3" s="33"/>
+      <c r="CC3" s="39"/>
+      <c r="CD3" s="39"/>
       <c r="CE3" s="2"/>
     </row>
     <row r="4" spans="2:83" s="6" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="18"/>
       <c r="C4" s="18" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D4" s="18" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
       <c r="J4" s="18"/>
       <c r="K4" s="18" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="L4" s="19" t="s">
         <v>18</v>
       </c>
       <c r="M4" s="19" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="N4" s="19" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="O4" s="18"/>
       <c r="P4" s="21"/>
       <c r="R4" s="18"/>
       <c r="S4" s="18" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="T4" s="19" t="s">
         <v>18</v>
       </c>
       <c r="U4" s="19" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="V4" s="19" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="W4" s="18"/>
       <c r="X4" s="21"/>
@@ -1889,16 +1889,16 @@
       <c r="AC4" s="21"/>
       <c r="AE4" s="18"/>
       <c r="AF4" s="18" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AG4" s="19" t="s">
         <v>18</v>
       </c>
       <c r="AH4" s="19" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AI4" s="19" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AJ4" s="18"/>
       <c r="AK4" s="21"/>
@@ -1908,31 +1908,31 @@
       <c r="AP4" s="21"/>
       <c r="AR4" s="18"/>
       <c r="AS4" s="18" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AT4" s="19" t="s">
         <v>18</v>
       </c>
       <c r="AU4" s="19" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AV4" s="19" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AW4" s="18"/>
       <c r="AX4" s="21"/>
       <c r="AZ4" s="18"/>
       <c r="BA4" s="18" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="BB4" s="19" t="s">
         <v>18</v>
       </c>
       <c r="BC4" s="19" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="BD4" s="19" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="BE4" s="18"/>
       <c r="BF4" s="21"/>
@@ -1962,16 +1962,16 @@
         <v>0</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G5" s="17" t="s">
         <v>66</v>
@@ -1981,16 +1981,16 @@
         <v>0</v>
       </c>
       <c r="K5" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L5" s="16" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="M5" s="16" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="N5" s="16" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="O5" s="17" t="s">
         <v>73</v>
@@ -2000,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="S5" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="T5" s="14"/>
       <c r="U5" s="14"/>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="AA5" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AB5" s="17" t="s">
         <v>91</v>
@@ -2023,104 +2023,104 @@
         <v>0</v>
       </c>
       <c r="AF5" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AG5" s="16" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AH5" s="16" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AI5" s="16" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AJ5" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK5" s="10"/>
       <c r="AM5" s="14" t="s">
         <v>0</v>
       </c>
       <c r="AN5" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AO5" s="17" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AP5" s="10"/>
       <c r="AR5" s="14" t="s">
         <v>0</v>
       </c>
       <c r="AS5" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AT5" s="16" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AU5" s="16" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AV5" s="16" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AW5" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AX5" s="10"/>
       <c r="AZ5" s="14" t="s">
         <v>0</v>
       </c>
       <c r="BA5" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="BB5" s="16" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="BC5" s="16" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="BD5" s="16" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="BE5" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="BF5" s="10"/>
       <c r="BH5" s="14" t="s">
         <v>0</v>
       </c>
       <c r="BI5" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="BJ5" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="BK5" s="10"/>
       <c r="BM5" s="14" t="s">
         <v>0</v>
       </c>
       <c r="BN5" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="BO5" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="BP5" s="22"/>
       <c r="BR5" s="14" t="s">
         <v>0</v>
       </c>
       <c r="BS5" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="BT5" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="BU5" s="22"/>
       <c r="BW5" s="14" t="s">
         <v>0</v>
       </c>
       <c r="BX5" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="BY5" s="14"/>
       <c r="BZ5" s="24"/>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="CC5" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="CD5" s="14"/>
       <c r="CE5" s="24"/>
@@ -2138,13 +2138,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="4" t="s">
@@ -2155,16 +2155,16 @@
         <v>12</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="O6" s="4" t="s">
         <v>74</v>
@@ -2174,7 +2174,7 @@
         <v>31</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
@@ -2187,7 +2187,7 @@
         <v>31</v>
       </c>
       <c r="AA6" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AB6" s="4" t="s">
         <v>88</v>
@@ -2197,100 +2197,100 @@
         <v>34</v>
       </c>
       <c r="AF6" s="25" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AG6" s="26"/>
       <c r="AH6" s="26"/>
       <c r="AI6" s="26"/>
       <c r="AJ6" s="27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK6" s="26" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="AM6" s="3" t="s">
         <v>31</v>
       </c>
       <c r="AN6" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AO6" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AP6" s="10"/>
       <c r="AR6" s="3" t="s">
         <v>12</v>
       </c>
       <c r="AS6" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="AT6" s="10" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AU6" s="10" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="AV6" s="10" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="AW6" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AX6" s="10"/>
       <c r="AZ6" s="3" t="s">
         <v>31</v>
       </c>
       <c r="BA6" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="BB6" s="10" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="BC6" s="10" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="BD6" s="10" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="BE6" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="BF6" s="10"/>
       <c r="BH6" s="3" t="s">
         <v>12</v>
       </c>
       <c r="BI6" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="BJ6" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BK6" s="10"/>
       <c r="BM6" s="3" t="s">
         <v>31</v>
       </c>
       <c r="BN6" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="BO6" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="BP6" s="22"/>
       <c r="BR6" s="3" t="s">
         <v>12</v>
       </c>
       <c r="BS6" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="BT6" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="BU6" s="22"/>
       <c r="BW6" s="3" t="s">
         <v>31</v>
       </c>
       <c r="BX6" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="BY6" s="3"/>
       <c r="BZ6" s="24"/>
@@ -2298,7 +2298,7 @@
         <v>13</v>
       </c>
       <c r="CC6" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="CD6" s="3"/>
       <c r="CE6" s="24"/>
@@ -2308,30 +2308,30 @@
         <v>2</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H7" s="3"/>
       <c r="J7" s="3" t="s">
         <v>13</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="N7" s="10"/>
       <c r="O7" s="4" t="s">
@@ -2342,7 +2342,7 @@
         <v>32</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
@@ -2355,7 +2355,7 @@
         <v>34</v>
       </c>
       <c r="AA7" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AB7" s="4" t="s">
         <v>92</v>
@@ -2365,104 +2365,104 @@
         <v>13</v>
       </c>
       <c r="AF7" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AG7" s="10" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AH7" s="10" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AI7" s="10"/>
       <c r="AJ7" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK7" s="10"/>
       <c r="AM7" s="3" t="s">
         <v>38</v>
       </c>
       <c r="AN7" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AO7" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AP7" s="10"/>
       <c r="AR7" s="25" t="s">
         <v>40</v>
       </c>
       <c r="AS7" s="25" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="AT7" s="26" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AU7" s="26" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AV7" s="26"/>
       <c r="AW7" s="27" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AX7" s="26" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="AZ7" s="3" t="s">
         <v>48</v>
       </c>
       <c r="BA7" s="5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="BB7" s="10" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="BC7" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="BD7" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="BD7" s="10" t="s">
-        <v>288</v>
-      </c>
       <c r="BE7" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="BF7" s="10"/>
       <c r="BH7" s="3" t="s">
         <v>48</v>
       </c>
       <c r="BI7" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="BJ7" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="BK7" s="26" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="BM7" s="3" t="s">
         <v>58</v>
       </c>
       <c r="BN7" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BO7" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="BP7" s="22"/>
       <c r="BR7" s="3" t="s">
         <v>58</v>
       </c>
       <c r="BS7" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="BT7" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="BU7" s="22"/>
       <c r="BW7" s="3" t="s">
         <v>64</v>
       </c>
       <c r="BX7" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="BY7" s="3"/>
       <c r="BZ7" s="24"/>
@@ -2470,7 +2470,7 @@
         <v>14</v>
       </c>
       <c r="CC7" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="CD7" s="3"/>
       <c r="CE7" s="24"/>
@@ -2480,16 +2480,16 @@
         <v>3</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>68</v>
@@ -2499,26 +2499,26 @@
         <v>14</v>
       </c>
       <c r="K8" s="25" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="L8" s="26" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="M8" s="26" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="N8" s="26"/>
       <c r="O8" s="27" t="s">
         <v>76</v>
       </c>
       <c r="P8" s="26" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="R8" s="3" t="s">
         <v>29</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
@@ -2531,7 +2531,7 @@
         <v>13</v>
       </c>
       <c r="AA8" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AB8" s="4" t="s">
         <v>93</v>
@@ -2541,13 +2541,13 @@
         <v>14</v>
       </c>
       <c r="AF8" s="25" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AG8" s="26" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AH8" s="26" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="AI8" s="26"/>
       <c r="AJ8" s="27" t="s">
@@ -2558,75 +2558,75 @@
         <v>41</v>
       </c>
       <c r="AS8" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AT8" s="26" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AU8" s="26" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AV8" s="26"/>
       <c r="AW8" s="27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AX8" s="26" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="AZ8" s="25" t="s">
         <v>19</v>
       </c>
       <c r="BA8" s="29" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="BB8" s="26" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="BC8" s="26" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="BD8" s="26"/>
       <c r="BE8" s="27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="BF8" s="26"/>
       <c r="BH8" s="25" t="s">
         <v>41</v>
       </c>
       <c r="BI8" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="BJ8" s="27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="BK8" s="26" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="BM8" s="25" t="s">
         <v>19</v>
       </c>
       <c r="BN8" s="25" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="BO8" s="27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="BP8" s="22"/>
       <c r="BR8" s="25" t="s">
         <v>61</v>
       </c>
       <c r="BS8" s="25" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BT8" s="27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="BU8" s="22"/>
       <c r="CB8" s="3" t="s">
         <v>15</v>
       </c>
       <c r="CC8" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="CD8" s="3"/>
       <c r="CE8" s="24"/>
@@ -2636,16 +2636,16 @@
         <v>4</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>69</v>
@@ -2655,16 +2655,16 @@
         <v>15</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="O9" s="4" t="s">
         <v>16</v>
@@ -2674,7 +2674,7 @@
         <v>35</v>
       </c>
       <c r="AA9" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AB9" s="4" t="s">
         <v>94</v>
@@ -2684,121 +2684,121 @@
         <v>15</v>
       </c>
       <c r="AF9" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AG9" s="10" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AH9" s="10" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AI9" s="10"/>
       <c r="AJ9" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AK9" s="10"/>
       <c r="AR9" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AS9" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AT9" s="10" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AU9" s="10" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AV9" s="10"/>
       <c r="AW9" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="AX9" s="10"/>
       <c r="AZ9" s="3" t="s">
         <v>20</v>
       </c>
       <c r="BA9" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="BB9" s="10" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="BC9" s="10" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="BD9" s="10"/>
       <c r="BE9" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BF9" s="10"/>
       <c r="BH9" s="3" t="s">
         <v>42</v>
       </c>
       <c r="BI9" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="BJ9" s="4" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="BK9" s="10"/>
       <c r="BM9" s="3" t="s">
         <v>20</v>
       </c>
       <c r="BN9" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="BO9" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BP9" s="22"/>
       <c r="BR9" s="3" t="s">
         <v>18</v>
       </c>
       <c r="BS9" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="BT9" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="BU9" s="22"/>
       <c r="CB9" s="3" t="s">
         <v>29</v>
       </c>
       <c r="CC9" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="CD9" s="3"/>
       <c r="CE9" s="24"/>
     </row>
     <row r="10" spans="2:83" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H10" s="3"/>
       <c r="J10" s="3" t="s">
         <v>17</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="N10" s="10"/>
       <c r="O10" s="4" t="s">
@@ -2809,40 +2809,40 @@
         <v>36</v>
       </c>
       <c r="AA10" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AB10" s="4" t="s">
-        <v>95</v>
+        <v>304</v>
       </c>
       <c r="AC10" s="10"/>
       <c r="AE10" s="3" t="s">
         <v>29</v>
       </c>
       <c r="AF10" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AG10" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="AH10" s="10" t="s">
         <v>260</v>
-      </c>
-      <c r="AH10" s="10" t="s">
-        <v>262</v>
       </c>
       <c r="AI10" s="10"/>
       <c r="AJ10" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK10" s="10"/>
       <c r="AR10" s="3" t="s">
         <v>1</v>
       </c>
       <c r="AS10" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AT10" s="10" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AU10" s="10" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="AV10" s="10"/>
       <c r="AW10" s="4" t="s">
@@ -2853,47 +2853,47 @@
         <v>21</v>
       </c>
       <c r="BA10" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="BB10" s="10" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="BC10" s="10" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="BD10" s="10"/>
       <c r="BE10" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="BF10" s="10"/>
       <c r="BH10" s="3" t="s">
         <v>51</v>
       </c>
       <c r="BI10" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="BJ10" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="BK10" s="10"/>
       <c r="BM10" s="3" t="s">
         <v>21</v>
       </c>
       <c r="BN10" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="BO10" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="BP10" s="22"/>
       <c r="BR10" s="3" t="s">
         <v>62</v>
       </c>
       <c r="BS10" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BT10" s="4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="BU10" s="22"/>
     </row>
@@ -2902,258 +2902,258 @@
         <v>5</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F11" s="26"/>
       <c r="G11" s="27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H11" s="30" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="J11" s="25" t="s">
         <v>18</v>
       </c>
       <c r="K11" s="25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L11" s="26" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="M11" s="26" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="N11" s="26"/>
       <c r="O11" s="27" t="s">
         <v>78</v>
       </c>
       <c r="P11" s="26" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="Z11" s="3" t="s">
         <v>24</v>
       </c>
       <c r="AA11" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="AB11" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AC11" s="10"/>
       <c r="AR11" s="3" t="s">
         <v>2</v>
       </c>
       <c r="AS11" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AT11" s="10" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AU11" s="10" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="AV11" s="10"/>
       <c r="AW11" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AX11" s="10"/>
       <c r="AZ11" s="3" t="s">
         <v>22</v>
       </c>
       <c r="BA11" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="BB11" s="10" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="BC11" s="10" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="BD11" s="10"/>
       <c r="BE11" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="BF11" s="10"/>
       <c r="BH11" s="3" t="s">
         <v>52</v>
       </c>
       <c r="BI11" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="BJ11" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="BK11" s="10"/>
       <c r="BM11" s="3" t="s">
         <v>22</v>
       </c>
       <c r="BN11" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="BO11" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="BP11" s="22"/>
       <c r="BR11" s="3" t="s">
         <v>42</v>
       </c>
       <c r="BS11" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="BT11" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="BU11" s="22"/>
     </row>
     <row r="12" spans="2:83" ht="63" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="39" t="s">
-        <v>159</v>
-      </c>
-      <c r="D12" s="39" t="s">
-        <v>257</v>
-      </c>
-      <c r="E12" s="40" t="s">
-        <v>265</v>
-      </c>
-      <c r="F12" s="40"/>
-      <c r="G12" s="41" t="s">
-        <v>293</v>
-      </c>
-      <c r="H12" s="38"/>
+      <c r="C12" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>255</v>
+      </c>
+      <c r="E12" s="37" t="s">
+        <v>263</v>
+      </c>
+      <c r="F12" s="37"/>
+      <c r="G12" s="38" t="s">
+        <v>291</v>
+      </c>
+      <c r="H12" s="35"/>
       <c r="J12" s="25" t="s">
         <v>19</v>
       </c>
       <c r="K12" s="25" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L12" s="26" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="M12" s="26" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="N12" s="26"/>
       <c r="O12" s="27" t="s">
         <v>79</v>
       </c>
       <c r="P12" s="26" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="Z12" s="3" t="s">
         <v>26</v>
       </c>
       <c r="AA12" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="AB12" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AC12" s="10"/>
       <c r="AR12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AS12" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AT12" s="10" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="AU12" s="10" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AV12" s="10"/>
       <c r="AW12" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AX12" s="10"/>
       <c r="AZ12" s="3" t="s">
         <v>49</v>
       </c>
       <c r="BA12" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BB12" s="10" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="BC12" s="10" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="BD12" s="10"/>
       <c r="BE12" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="BF12" s="10"/>
       <c r="BH12" s="25" t="s">
         <v>53</v>
       </c>
       <c r="BI12" s="25" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="BJ12" s="27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="BK12" s="26" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="BM12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="BN12" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="BO12" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="BP12" s="22"/>
       <c r="BR12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="BS12" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="BT12" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="BU12" s="22"/>
     </row>
     <row r="13" spans="2:83" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="31" t="s">
+        <v>288</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>289</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>256</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>262</v>
+      </c>
+      <c r="F13" s="33"/>
+      <c r="G13" s="34" t="s">
         <v>290</v>
       </c>
-      <c r="C13" s="35" t="s">
-        <v>291</v>
-      </c>
-      <c r="D13" s="35" t="s">
-        <v>258</v>
-      </c>
-      <c r="E13" s="36" t="s">
-        <v>264</v>
-      </c>
-      <c r="F13" s="36"/>
-      <c r="G13" s="37" t="s">
-        <v>292</v>
-      </c>
-      <c r="H13" s="34"/>
+      <c r="H13" s="31"/>
       <c r="J13" s="3" t="s">
         <v>20</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="M13" s="10" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="N13" s="10"/>
       <c r="O13" s="4" t="s">
@@ -3164,76 +3164,76 @@
         <v>29</v>
       </c>
       <c r="AA13" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AB13" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AC13" s="10"/>
       <c r="AR13" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AS13" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AT13" s="10" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AU13" s="10" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AV13" s="10"/>
       <c r="AW13" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AX13" s="10"/>
       <c r="AZ13" s="3" t="s">
         <v>24</v>
       </c>
       <c r="BA13" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="BB13" s="10" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="BC13" s="10" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="BD13" s="10"/>
       <c r="BE13" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="BF13" s="10"/>
       <c r="BH13" s="25" t="s">
         <v>54</v>
       </c>
       <c r="BI13" s="25" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="BJ13" s="27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="BK13" s="26" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="BM13" s="3" t="s">
         <v>25</v>
       </c>
       <c r="BN13" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="BO13" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="BP13" s="22"/>
       <c r="BR13" s="3" t="s">
         <v>25</v>
       </c>
       <c r="BS13" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="BT13" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="BU13" s="22"/>
     </row>
@@ -3242,13 +3242,13 @@
         <v>7</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F14" s="26"/>
       <c r="G14" s="27" t="s">
@@ -3259,17 +3259,17 @@
         <v>21</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="M14" s="10" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="N14" s="10"/>
       <c r="O14" s="4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="P14" s="10"/>
       <c r="AC14" s="10"/>
@@ -3277,66 +3277,66 @@
         <v>43</v>
       </c>
       <c r="AS14" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AT14" s="10" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AU14" s="10" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="AV14" s="10"/>
       <c r="AW14" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AX14" s="10" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="AZ14" s="3" t="s">
         <v>25</v>
       </c>
       <c r="BA14" s="5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="BB14" s="10" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="BC14" s="10" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="BD14" s="10"/>
       <c r="BE14" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="BF14" s="10"/>
       <c r="BH14" s="3" t="s">
         <v>55</v>
       </c>
       <c r="BI14" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="BJ14" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="BK14" s="10"/>
       <c r="BM14" s="3" t="s">
         <v>29</v>
       </c>
       <c r="BN14" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="BO14" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="BP14" s="22"/>
       <c r="BR14" s="3" t="s">
         <v>29</v>
       </c>
       <c r="BS14" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="BT14" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="BU14" s="22"/>
     </row>
@@ -3345,13 +3345,13 @@
         <v>8</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="4" t="s">
@@ -3362,13 +3362,13 @@
         <v>22</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L15" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="M15" s="10" t="s">
         <v>274</v>
-      </c>
-      <c r="M15" s="10" t="s">
-        <v>276</v>
       </c>
       <c r="N15" s="10"/>
       <c r="O15" s="4" t="s">
@@ -3379,47 +3379,47 @@
         <v>44</v>
       </c>
       <c r="AS15" s="25" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AT15" s="26" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AU15" s="26" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="AV15" s="26"/>
       <c r="AW15" s="27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AX15" s="26"/>
       <c r="AZ15" s="3" t="s">
         <v>29</v>
       </c>
       <c r="BA15" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="BB15" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="BC15" s="10" t="s">
         <v>260</v>
-      </c>
-      <c r="BC15" s="10" t="s">
-        <v>262</v>
       </c>
       <c r="BD15" s="10"/>
       <c r="BE15" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="BF15" s="10"/>
       <c r="BH15" s="25" t="s">
         <v>56</v>
       </c>
       <c r="BI15" s="25" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BJ15" s="27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="BK15" s="26" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="16" spans="2:83" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -3427,13 +3427,13 @@
         <v>9</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D16" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="E16" s="10" t="s">
         <v>260</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>262</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="4" t="s">
@@ -3444,63 +3444,63 @@
         <v>23</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="M16" s="10" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="N16" s="10"/>
       <c r="O16" s="4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="P16" s="10"/>
       <c r="AR16" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="AS16" s="25" t="s">
         <v>210</v>
       </c>
-      <c r="AS16" s="25" t="s">
-        <v>211</v>
-      </c>
       <c r="AT16" s="26" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AU16" s="26" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="AV16" s="26"/>
       <c r="AW16" s="27" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AX16" s="26" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="BH16" s="25" t="s">
         <v>21</v>
       </c>
       <c r="BI16" s="25" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="BJ16" s="27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="BK16" s="26" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="17" spans="2:63" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="4" t="s">
@@ -3511,13 +3511,13 @@
         <v>24</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="L17" s="10" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="M17" s="10" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="N17" s="10"/>
       <c r="O17" s="4" t="s">
@@ -3525,64 +3525,64 @@
       </c>
       <c r="P17" s="10"/>
       <c r="AR17" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="AS17" s="25" t="s">
         <v>212</v>
       </c>
-      <c r="AS17" s="25" t="s">
-        <v>213</v>
-      </c>
       <c r="AT17" s="26" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AU17" s="26" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="AV17" s="26"/>
       <c r="AW17" s="27" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AX17" s="26" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="BH17" s="25" t="s">
         <v>57</v>
       </c>
       <c r="BI17" s="25" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="BJ17" s="27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="BK17" s="26" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="18" spans="2:63" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>296</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>298</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="4" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H18" s="3"/>
       <c r="J18" s="3" t="s">
         <v>25</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="M18" s="10" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="N18" s="10"/>
       <c r="O18" s="4" t="s">
@@ -3593,24 +3593,24 @@
         <v>45</v>
       </c>
       <c r="AS18" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AT18" s="10" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AU18" s="10" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="AV18" s="10"/>
       <c r="AW18" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AX18" s="10"/>
       <c r="BH18" s="3" t="s">
         <v>1</v>
       </c>
       <c r="BI18" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="BJ18" s="4" t="s">
         <v>67</v>
@@ -3622,44 +3622,44 @@
         <v>26</v>
       </c>
       <c r="K19" s="25" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="L19" s="26" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="M19" s="26" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="N19" s="26"/>
       <c r="O19" s="27" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="P19" s="10"/>
       <c r="AR19" s="3" t="s">
         <v>46</v>
       </c>
       <c r="AS19" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AT19" s="10" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AU19" s="10" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="AV19" s="10"/>
       <c r="AW19" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AX19" s="10"/>
       <c r="BH19" s="3" t="s">
         <v>2</v>
       </c>
       <c r="BI19" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="BJ19" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="BK19" s="10"/>
     </row>
@@ -3668,13 +3668,13 @@
         <v>27</v>
       </c>
       <c r="K20" s="25" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="L20" s="26" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="M20" s="26" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="N20" s="26"/>
       <c r="O20" s="27" t="s">
@@ -3685,27 +3685,27 @@
         <v>24</v>
       </c>
       <c r="AS20" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="AT20" s="10" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="AU20" s="10" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AV20" s="10"/>
       <c r="AW20" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AX20" s="10"/>
       <c r="BH20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="BI20" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BJ20" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="BK20" s="10"/>
     </row>
@@ -3714,13 +3714,13 @@
         <v>28</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L21" s="10" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="M21" s="10" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="N21" s="10"/>
       <c r="O21" s="4" t="s">
@@ -3731,27 +3731,27 @@
         <v>25</v>
       </c>
       <c r="AS21" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AT21" s="10" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="AU21" s="10" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AV21" s="10"/>
       <c r="AW21" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AX21" s="10"/>
       <c r="BH21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="BI21" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="BJ21" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="BK21" s="10"/>
     </row>
@@ -3760,13 +3760,13 @@
         <v>29</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L22" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="M22" s="10" t="s">
         <v>260</v>
-      </c>
-      <c r="M22" s="10" t="s">
-        <v>262</v>
       </c>
       <c r="N22" s="10"/>
       <c r="O22" s="4" t="s">
@@ -3777,27 +3777,27 @@
         <v>29</v>
       </c>
       <c r="AS22" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AT22" s="10" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AU22" s="10" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AV22" s="10"/>
       <c r="AW22" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AX22" s="10"/>
       <c r="BH22" s="3" t="s">
         <v>43</v>
       </c>
       <c r="BI22" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="BJ22" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="BK22" s="10"/>
     </row>
@@ -3806,41 +3806,41 @@
         <v>44</v>
       </c>
       <c r="BI23" s="25" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="BJ23" s="27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BK23" s="26" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="24" spans="2:63" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="BH24" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="BI24" s="25" t="s">
         <v>210</v>
       </c>
-      <c r="BI24" s="25" t="s">
-        <v>211</v>
-      </c>
       <c r="BJ24" s="27" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="BK24" s="26" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="25" spans="2:63" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="BH25" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="BI25" s="25" t="s">
         <v>212</v>
       </c>
-      <c r="BI25" s="25" t="s">
+      <c r="BJ25" s="27" t="s">
         <v>213</v>
       </c>
-      <c r="BJ25" s="27" t="s">
-        <v>214</v>
-      </c>
       <c r="BK25" s="26" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="26" spans="2:63" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -3848,10 +3848,10 @@
         <v>45</v>
       </c>
       <c r="BI26" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="BJ26" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="BK26" s="10"/>
     </row>
@@ -3860,10 +3860,10 @@
         <v>46</v>
       </c>
       <c r="BI27" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="BJ27" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="BK27" s="10"/>
     </row>
@@ -3872,10 +3872,10 @@
         <v>24</v>
       </c>
       <c r="BI28" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="BJ28" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="BK28" s="10"/>
     </row>
@@ -3884,10 +3884,10 @@
         <v>25</v>
       </c>
       <c r="BI29" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="BJ29" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="BK29" s="10"/>
     </row>
@@ -3896,21 +3896,15 @@
         <v>29</v>
       </c>
       <c r="BI30" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="BJ30" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="BK30" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="CB3:CD3"/>
-    <mergeCell ref="BW3:BY3"/>
-    <mergeCell ref="BM2:BO2"/>
-    <mergeCell ref="BR2:BT2"/>
-    <mergeCell ref="BW2:BY2"/>
-    <mergeCell ref="CB2:CD2"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="J2:O2"/>
     <mergeCell ref="AM2:AO2"/>
@@ -3920,6 +3914,12 @@
     <mergeCell ref="Z2:AC2"/>
     <mergeCell ref="AE2:AK2"/>
     <mergeCell ref="AR2:AX2"/>
+    <mergeCell ref="CB3:CD3"/>
+    <mergeCell ref="BW3:BY3"/>
+    <mergeCell ref="BM2:BO2"/>
+    <mergeCell ref="BR2:BT2"/>
+    <mergeCell ref="BW2:BY2"/>
+    <mergeCell ref="CB2:CD2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/csdl-shopping-cart.xlsx
+++ b/csdl-shopping-cart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DEVMASTER\DEV2206LM_SpringBoot\shopping-cart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15437948-DF4C-4B88-9FF9-79D086C240CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A195D2-4BCA-4AC5-83EA-502D239287E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{91351D13-8343-4BE5-AE49-126D9A46B319}"/>
   </bookViews>
@@ -996,7 +996,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1036,12 +1036,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1199,26 +1193,26 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1536,8 +1530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E867DBF7-62FE-4C81-BE5B-4B051B3412A0}">
   <dimension ref="B2:CE30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W6" workbookViewId="0">
-      <selection activeCell="AB10" sqref="AB10"/>
+    <sheetView tabSelected="1" topLeftCell="AS10" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1620,101 +1614,101 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:83" x14ac:dyDescent="0.3">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="35" t="s">
         <v>219</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
       <c r="H2" s="9"/>
-      <c r="J2" s="40" t="s">
+      <c r="J2" s="35" t="s">
         <v>220</v>
       </c>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
       <c r="P2" s="9"/>
-      <c r="R2" s="41" t="s">
+      <c r="R2" s="36" t="s">
         <v>218</v>
       </c>
-      <c r="S2" s="41"/>
-      <c r="T2" s="41"/>
-      <c r="U2" s="41"/>
-      <c r="V2" s="41"/>
-      <c r="W2" s="41"/>
-      <c r="X2" s="41"/>
-      <c r="Z2" s="41" t="s">
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="36"/>
+      <c r="W2" s="36"/>
+      <c r="X2" s="36"/>
+      <c r="Z2" s="36" t="s">
         <v>303</v>
       </c>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="41"/>
-      <c r="AC2" s="41"/>
-      <c r="AE2" s="40" t="s">
+      <c r="AA2" s="36"/>
+      <c r="AB2" s="36"/>
+      <c r="AC2" s="36"/>
+      <c r="AE2" s="35" t="s">
         <v>221</v>
       </c>
-      <c r="AF2" s="40"/>
-      <c r="AG2" s="40"/>
-      <c r="AH2" s="40"/>
-      <c r="AI2" s="40"/>
-      <c r="AJ2" s="40"/>
-      <c r="AK2" s="40"/>
-      <c r="AM2" s="40" t="s">
+      <c r="AF2" s="35"/>
+      <c r="AG2" s="35"/>
+      <c r="AH2" s="35"/>
+      <c r="AI2" s="35"/>
+      <c r="AJ2" s="35"/>
+      <c r="AK2" s="35"/>
+      <c r="AM2" s="35" t="s">
         <v>222</v>
       </c>
-      <c r="AN2" s="40"/>
-      <c r="AO2" s="40"/>
+      <c r="AN2" s="35"/>
+      <c r="AO2" s="35"/>
       <c r="AP2" s="9"/>
-      <c r="AR2" s="40" t="s">
+      <c r="AR2" s="35" t="s">
         <v>223</v>
       </c>
-      <c r="AS2" s="40"/>
-      <c r="AT2" s="40"/>
-      <c r="AU2" s="40"/>
-      <c r="AV2" s="40"/>
-      <c r="AW2" s="40"/>
-      <c r="AX2" s="40"/>
-      <c r="AZ2" s="40" t="s">
+      <c r="AS2" s="35"/>
+      <c r="AT2" s="35"/>
+      <c r="AU2" s="35"/>
+      <c r="AV2" s="35"/>
+      <c r="AW2" s="35"/>
+      <c r="AX2" s="35"/>
+      <c r="AZ2" s="35" t="s">
         <v>224</v>
       </c>
-      <c r="BA2" s="40"/>
-      <c r="BB2" s="40"/>
-      <c r="BC2" s="40"/>
-      <c r="BD2" s="40"/>
-      <c r="BE2" s="40"/>
+      <c r="BA2" s="35"/>
+      <c r="BB2" s="35"/>
+      <c r="BC2" s="35"/>
+      <c r="BD2" s="35"/>
+      <c r="BE2" s="35"/>
       <c r="BF2" s="9"/>
-      <c r="BH2" s="40" t="s">
+      <c r="BH2" s="35" t="s">
         <v>225</v>
       </c>
-      <c r="BI2" s="40"/>
-      <c r="BJ2" s="40"/>
+      <c r="BI2" s="35"/>
+      <c r="BJ2" s="35"/>
       <c r="BK2" s="9"/>
-      <c r="BM2" s="40" t="s">
+      <c r="BM2" s="35" t="s">
         <v>226</v>
       </c>
-      <c r="BN2" s="40"/>
-      <c r="BO2" s="40"/>
+      <c r="BN2" s="35"/>
+      <c r="BO2" s="35"/>
       <c r="BP2" s="9"/>
-      <c r="BR2" s="40" t="s">
+      <c r="BR2" s="35" t="s">
         <v>227</v>
       </c>
-      <c r="BS2" s="40"/>
-      <c r="BT2" s="40"/>
+      <c r="BS2" s="35"/>
+      <c r="BT2" s="35"/>
       <c r="BU2" s="9"/>
-      <c r="BW2" s="40" t="s">
+      <c r="BW2" s="35" t="s">
         <v>229</v>
       </c>
-      <c r="BX2" s="40"/>
-      <c r="BY2" s="40"/>
+      <c r="BX2" s="35"/>
+      <c r="BY2" s="35"/>
       <c r="BZ2" s="9"/>
-      <c r="CB2" s="40" t="s">
+      <c r="CB2" s="35" t="s">
         <v>228</v>
       </c>
-      <c r="CC2" s="40"/>
-      <c r="CD2" s="40"/>
+      <c r="CC2" s="35"/>
+      <c r="CD2" s="35"/>
       <c r="CE2" s="9"/>
     </row>
     <row r="3" spans="2:83" x14ac:dyDescent="0.3">
@@ -1824,17 +1818,17 @@
         <v>206</v>
       </c>
       <c r="BU3" s="7"/>
-      <c r="BW3" s="39" t="s">
+      <c r="BW3" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="BX3" s="39"/>
-      <c r="BY3" s="39"/>
+      <c r="BX3" s="37"/>
+      <c r="BY3" s="37"/>
       <c r="BZ3" s="2"/>
-      <c r="CB3" s="39" t="s">
+      <c r="CB3" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="CC3" s="39"/>
-      <c r="CD3" s="39"/>
+      <c r="CC3" s="37"/>
+      <c r="CD3" s="37"/>
       <c r="CE3" s="2"/>
     </row>
     <row r="4" spans="2:83" s="6" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -3012,23 +3006,23 @@
       <c r="BU11" s="22"/>
     </row>
     <row r="12" spans="2:83" ht="63" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="39" t="s">
         <v>158</v>
       </c>
-      <c r="D12" s="36" t="s">
+      <c r="D12" s="39" t="s">
         <v>255</v>
       </c>
-      <c r="E12" s="37" t="s">
+      <c r="E12" s="40" t="s">
         <v>263</v>
       </c>
-      <c r="F12" s="37"/>
-      <c r="G12" s="38" t="s">
+      <c r="F12" s="40"/>
+      <c r="G12" s="41" t="s">
         <v>291</v>
       </c>
-      <c r="H12" s="35"/>
+      <c r="H12" s="38"/>
       <c r="J12" s="25" t="s">
         <v>19</v>
       </c>
@@ -3905,6 +3899,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="CB3:CD3"/>
+    <mergeCell ref="BW3:BY3"/>
+    <mergeCell ref="BM2:BO2"/>
+    <mergeCell ref="BR2:BT2"/>
+    <mergeCell ref="BW2:BY2"/>
+    <mergeCell ref="CB2:CD2"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="J2:O2"/>
     <mergeCell ref="AM2:AO2"/>
@@ -3914,12 +3914,6 @@
     <mergeCell ref="Z2:AC2"/>
     <mergeCell ref="AE2:AK2"/>
     <mergeCell ref="AR2:AX2"/>
-    <mergeCell ref="CB3:CD3"/>
-    <mergeCell ref="BW3:BY3"/>
-    <mergeCell ref="BM2:BO2"/>
-    <mergeCell ref="BR2:BT2"/>
-    <mergeCell ref="BW2:BY2"/>
-    <mergeCell ref="CB2:CD2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
